--- a/data/final_data/unrolled_births_sarimax_timeseries.xlsx
+++ b/data/final_data/unrolled_births_sarimax_timeseries.xlsx
@@ -993,13 +993,13 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>574.5266326970366</v>
+        <v>470.2799028629403</v>
       </c>
       <c r="E23">
-        <v>516.0635534962765</v>
+        <v>331.6460697731632</v>
       </c>
       <c r="F23">
-        <v>632.9897118977966</v>
+        <v>608.9137359527174</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1013,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>536.1037712633523</v>
+        <v>564.7320097757294</v>
       </c>
       <c r="E24">
-        <v>471.9047181633198</v>
+        <v>424.8290197135642</v>
       </c>
       <c r="F24">
-        <v>600.3028243633848</v>
+        <v>704.6349998378945</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1033,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>509.300413141942</v>
+        <v>560.8367493715634</v>
       </c>
       <c r="E25">
-        <v>443.7257144772921</v>
+        <v>419.4760666620566</v>
       </c>
       <c r="F25">
-        <v>574.8751118065919</v>
+        <v>702.1974320810702</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>492.0013544738144</v>
+        <v>541.2293793251035</v>
       </c>
       <c r="E26">
-        <v>426.40981447997</v>
+        <v>395.1881680987522</v>
       </c>
       <c r="F26">
-        <v>557.5928944676589</v>
+        <v>687.2705905514549</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1073,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>459.7481737253803</v>
+        <v>540.8736137461977</v>
       </c>
       <c r="E27">
-        <v>391.0609895627899</v>
+        <v>394.6413921566774</v>
       </c>
       <c r="F27">
-        <v>528.4353578879707</v>
+        <v>687.1058353357181</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1093,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>425.7674280528138</v>
+        <v>527.1172131065116</v>
       </c>
       <c r="E28">
-        <v>356.7472602347516</v>
+        <v>379.8441789393186</v>
       </c>
       <c r="F28">
-        <v>494.7875958708759</v>
+        <v>674.3902472737046</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1113,13 +1113,13 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>396.8258203592468</v>
+        <v>519.016222781709</v>
       </c>
       <c r="E29">
-        <v>327.7897455371842</v>
+        <v>371.7374296979275</v>
       </c>
       <c r="F29">
-        <v>465.8618951813094</v>
+        <v>666.2950158654904</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>367.0973425792366</v>
+        <v>511.2914797089566</v>
       </c>
       <c r="E30">
-        <v>298.0565079601726</v>
+        <v>364.0106292566475</v>
       </c>
       <c r="F30">
-        <v>436.1381771983006</v>
+        <v>658.5723301612658</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1153,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>329.7317395963446</v>
+        <v>500.4960156732232</v>
       </c>
       <c r="E31">
-        <v>260.4446475571988</v>
+        <v>353.1218090334099</v>
       </c>
       <c r="F31">
-        <v>399.0188316354904</v>
+        <v>647.8702223130364</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1173,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>297.0499909425263</v>
+        <v>492.984322619611</v>
       </c>
       <c r="E32">
-        <v>227.7329857786248</v>
+        <v>345.5973715011162</v>
       </c>
       <c r="F32">
-        <v>366.3669961064278</v>
+        <v>640.3712737381057</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1613,13 +1613,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>949.68170914494</v>
+        <v>998.5723078303685</v>
       </c>
       <c r="E54">
-        <v>866.2533429030231</v>
+        <v>897.6083321645568</v>
       </c>
       <c r="F54">
-        <v>1033.110075386857</v>
+        <v>1099.53628349618</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1633,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>900.0072713962078</v>
+        <v>882.2965023211973</v>
       </c>
       <c r="E55">
-        <v>800.3104474883364</v>
+        <v>731.7162111199279</v>
       </c>
       <c r="F55">
-        <v>999.7040953040791</v>
+        <v>1032.876793522467</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1653,13 +1653,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>793.6245286083748</v>
+        <v>821.0699129254058</v>
       </c>
       <c r="E56">
-        <v>689.011897559915</v>
+        <v>660.0134735354975</v>
       </c>
       <c r="F56">
-        <v>898.2371596568346</v>
+        <v>982.1263523153141</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1673,13 +1673,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>727.6183876411676</v>
+        <v>766.090734087369</v>
       </c>
       <c r="E57">
-        <v>623.0035895339989</v>
+        <v>602.0034733737735</v>
       </c>
       <c r="F57">
-        <v>832.2331857483363</v>
+        <v>930.1779948009645</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1693,13 +1693,13 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>700.4930442004637</v>
+        <v>712.7515622798118</v>
       </c>
       <c r="E58">
-        <v>595.8396398745836</v>
+        <v>547.6167760767938</v>
       </c>
       <c r="F58">
-        <v>805.1464485263439</v>
+        <v>877.8863484828297</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1713,13 +1713,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>675.7709627287028</v>
+        <v>658.9551530409964</v>
       </c>
       <c r="E59">
-        <v>565.9993130002532</v>
+        <v>493.4105309290209</v>
       </c>
       <c r="F59">
-        <v>785.5426124571524</v>
+        <v>824.4997751529719</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1733,13 +1733,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>679.3066620324371</v>
+        <v>603.7468614594768</v>
       </c>
       <c r="E60">
-        <v>563.704025512247</v>
+        <v>438.0293444270189</v>
       </c>
       <c r="F60">
-        <v>794.9092985526272</v>
+        <v>769.4643784919347</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1753,13 +1753,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>612.8226918163382</v>
+        <v>546.6921426247403</v>
       </c>
       <c r="E61">
-        <v>485.029685817627</v>
+        <v>380.8986541745843</v>
       </c>
       <c r="F61">
-        <v>740.6156978150494</v>
+        <v>712.4856310748963</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1773,13 +1773,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>527.837149424083</v>
+        <v>487.5931959965141</v>
       </c>
       <c r="E62">
-        <v>395.7896151665205</v>
+        <v>321.7656002107124</v>
       </c>
       <c r="F62">
-        <v>659.8846836816455</v>
+        <v>653.4207917823159</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1793,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>452.5151695012927</v>
+        <v>426.3599847275457</v>
       </c>
       <c r="E63">
-        <v>319.8290688694949</v>
+        <v>260.5168714757439</v>
       </c>
       <c r="F63">
-        <v>585.2012701330905</v>
+        <v>592.2030979793476</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2233,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="D85">
-        <v>984.3696482923922</v>
+        <v>931.6312026117745</v>
       </c>
       <c r="E85">
-        <v>909.5255796966394</v>
+        <v>803.524999828882</v>
       </c>
       <c r="F85">
-        <v>1059.213716888145</v>
+        <v>1059.737405394667</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2253,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>890.4657717440299</v>
+        <v>888.8358203695909</v>
       </c>
       <c r="E86">
-        <v>800.0959212875659</v>
+        <v>690.9699444096659</v>
       </c>
       <c r="F86">
-        <v>980.8356222004938</v>
+        <v>1086.701696329516</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2273,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>908.6586917435427</v>
+        <v>829.5040769070082</v>
       </c>
       <c r="E87">
-        <v>797.1841520354866</v>
+        <v>573.1525551367124</v>
       </c>
       <c r="F87">
-        <v>1020.133231451599</v>
+        <v>1085.855598677304</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2293,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>823.0506219901024</v>
+        <v>773.6686060797639</v>
       </c>
       <c r="E88">
-        <v>701.88828978801</v>
+        <v>466.3260369929332</v>
       </c>
       <c r="F88">
-        <v>944.2129541921948</v>
+        <v>1081.011175166595</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2313,13 +2313,13 @@
         <v>7</v>
       </c>
       <c r="D89">
-        <v>785.5045291261877</v>
+        <v>712.9840704518292</v>
       </c>
       <c r="E89">
-        <v>641.4486134949568</v>
+        <v>360.2681199873235</v>
       </c>
       <c r="F89">
-        <v>929.5604447574185</v>
+        <v>1065.700020916335</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2333,13 +2333,13 @@
         <v>7</v>
       </c>
       <c r="D90">
-        <v>729.8302944103116</v>
+        <v>650.9118108532646</v>
       </c>
       <c r="E90">
-        <v>580.5425742779782</v>
+        <v>257.1914967025302</v>
       </c>
       <c r="F90">
-        <v>879.1180145426449</v>
+        <v>1044.632125003999</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2353,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="D91">
-        <v>707.8608950172314</v>
+        <v>586.0080281373121</v>
       </c>
       <c r="E91">
-        <v>541.6915080781645</v>
+        <v>154.7547971946587</v>
       </c>
       <c r="F91">
-        <v>874.0302819562984</v>
+        <v>1017.261259079965</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2373,13 +2373,13 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <v>596.8560850989074</v>
+        <v>518.8705657961149</v>
       </c>
       <c r="E92">
-        <v>422.8310152320755</v>
+        <v>52.89264929551825</v>
       </c>
       <c r="F92">
-        <v>770.8811549657394</v>
+        <v>984.8484822967115</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2393,13 +2393,13 @@
         <v>7</v>
       </c>
       <c r="D93">
-        <v>599.4620068143174</v>
+        <v>449.2495164512778</v>
       </c>
       <c r="E93">
-        <v>413.2796666251071</v>
+        <v>-49.14301123995409</v>
       </c>
       <c r="F93">
-        <v>785.6443470035277</v>
+        <v>947.6420441425098</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2413,13 +2413,13 @@
         <v>7</v>
       </c>
       <c r="D94">
-        <v>509.7472390148408</v>
+        <v>377.248074860726</v>
       </c>
       <c r="E94">
-        <v>318.0502522235957</v>
+        <v>-151.6286133643928</v>
       </c>
       <c r="F94">
-        <v>701.444225806086</v>
+        <v>906.124763085845</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2853,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>970.2605765285197</v>
+        <v>1020.928747593088</v>
       </c>
       <c r="E116">
-        <v>870.4449463889783</v>
+        <v>905.2097682703775</v>
       </c>
       <c r="F116">
-        <v>1070.076206668061</v>
+        <v>1136.647726915799</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2873,13 +2873,13 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>949.2762107109626</v>
+        <v>955.0891341291363</v>
       </c>
       <c r="E117">
-        <v>846.2691041293501</v>
+        <v>756.5841724097434</v>
       </c>
       <c r="F117">
-        <v>1052.283317292575</v>
+        <v>1153.594095848529</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2893,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="D118">
-        <v>920.2956074781978</v>
+        <v>858.4262846765391</v>
       </c>
       <c r="E118">
-        <v>817.5259357672053</v>
+        <v>603.1619139058901</v>
       </c>
       <c r="F118">
-        <v>1023.06527918919</v>
+        <v>1113.690655447188</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2913,13 +2913,13 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>893.4963409272029</v>
+        <v>838.0479674337109</v>
       </c>
       <c r="E119">
-        <v>790.1415661280992</v>
+        <v>526.255765514915</v>
       </c>
       <c r="F119">
-        <v>996.8511157263067</v>
+        <v>1149.840169352507</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2933,13 +2933,13 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>861.6118217256083</v>
+        <v>763.1175368965166</v>
       </c>
       <c r="E120">
-        <v>758.4675668842692</v>
+        <v>406.7626085900663</v>
       </c>
       <c r="F120">
-        <v>964.7560765669473</v>
+        <v>1119.472465202967</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2953,13 +2953,13 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>831.1576668528019</v>
+        <v>696.4170237527651</v>
       </c>
       <c r="E121">
-        <v>727.5728584360838</v>
+        <v>300.9439629943157</v>
       </c>
       <c r="F121">
-        <v>934.7424752695199</v>
+        <v>1091.890084511214</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2973,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <v>796.4247873153043</v>
+        <v>660.9173131642465</v>
       </c>
       <c r="E122">
-        <v>693.0175100063295</v>
+        <v>225.6665183700136</v>
       </c>
       <c r="F122">
-        <v>899.8320646242792</v>
+        <v>1096.168107958479</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2993,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>762.5331197570517</v>
+        <v>561.0916693934987</v>
       </c>
       <c r="E123">
-        <v>658.7887372179363</v>
+        <v>94.54136824164937</v>
       </c>
       <c r="F123">
-        <v>866.2775022961672</v>
+        <v>1027.641970545348</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3013,13 +3013,13 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>724.9972508144874</v>
+        <v>519.9920135978656</v>
       </c>
       <c r="E124">
-        <v>621.3971937373598</v>
+        <v>20.17884958168906</v>
       </c>
       <c r="F124">
-        <v>828.5973078916151</v>
+        <v>1019.805177614042</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3033,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="D125">
-        <v>687.8404039468611</v>
+        <v>443.2757634173928</v>
       </c>
       <c r="E125">
-        <v>583.9783740355078</v>
+        <v>-86.48829892107153</v>
       </c>
       <c r="F125">
-        <v>791.7024338582144</v>
+        <v>973.0398257558571</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3473,13 +3473,13 @@
         <v>9</v>
       </c>
       <c r="D147">
-        <v>701.5355380921683</v>
+        <v>656.4066368442458</v>
       </c>
       <c r="E147">
-        <v>595.8456944172308</v>
+        <v>562.3296253050331</v>
       </c>
       <c r="F147">
-        <v>807.2253817671058</v>
+        <v>750.4836483834584</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3493,13 +3493,13 @@
         <v>9</v>
       </c>
       <c r="D148">
-        <v>663.0834344374766</v>
+        <v>585.4307466859948</v>
       </c>
       <c r="E148">
-        <v>490.04222232795</v>
+        <v>464.583644922678</v>
       </c>
       <c r="F148">
-        <v>836.1246465470033</v>
+        <v>706.2778484493116</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3513,13 +3513,13 @@
         <v>9</v>
       </c>
       <c r="D149">
-        <v>635.2893394623554</v>
+        <v>534.3011331199613</v>
       </c>
       <c r="E149">
-        <v>354.0220269226126</v>
+        <v>402.817019514746</v>
       </c>
       <c r="F149">
-        <v>916.5566520020983</v>
+        <v>665.7852467251765</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3533,13 +3533,13 @@
         <v>9</v>
       </c>
       <c r="D150">
-        <v>602.5886670027219</v>
+        <v>485.7669910657851</v>
       </c>
       <c r="E150">
-        <v>263.1637169263282</v>
+        <v>336.9717065560515</v>
       </c>
       <c r="F150">
-        <v>942.0136170791156</v>
+        <v>634.5622755755187</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3553,13 +3553,13 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <v>569.9082048614448</v>
+        <v>431.5736357813378</v>
       </c>
       <c r="E151">
-        <v>174.9795012871465</v>
+        <v>272.4365521170835</v>
       </c>
       <c r="F151">
-        <v>964.836908435743</v>
+        <v>590.7107194455921</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3573,13 +3573,13 @@
         <v>9</v>
       </c>
       <c r="D152">
-        <v>535.8136638126891</v>
+        <v>377.3555792132767</v>
       </c>
       <c r="E152">
-        <v>94.28417234910722</v>
+        <v>204.9811759835795</v>
       </c>
       <c r="F152">
-        <v>977.3431552762711</v>
+        <v>549.7299824429738</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3593,13 +3593,13 @@
         <v>9</v>
       </c>
       <c r="D153">
-        <v>500.9181397322446</v>
+        <v>319.1795169483646</v>
       </c>
       <c r="E153">
-        <v>16.57307932381343</v>
+        <v>136.9969008789901</v>
       </c>
       <c r="F153">
-        <v>985.2632001406758</v>
+        <v>501.3621330177391</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3613,13 +3613,13 @@
         <v>9</v>
       </c>
       <c r="D154">
-        <v>464.7819689166104</v>
+        <v>259.8389260836342</v>
       </c>
       <c r="E154">
-        <v>-58.65206555974402</v>
+        <v>66.61993959482956</v>
       </c>
       <c r="F154">
-        <v>988.2160033929649</v>
+        <v>453.0579125724389</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3633,13 +3633,13 @@
         <v>9</v>
       </c>
       <c r="D155">
-        <v>427.7385892257798</v>
+        <v>197.3243134450068</v>
       </c>
       <c r="E155">
-        <v>-132.1447663929381</v>
+        <v>-5.105055179709154</v>
       </c>
       <c r="F155">
-        <v>987.6219448444978</v>
+        <v>399.7536820697227</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3653,13 +3653,13 @@
         <v>9</v>
       </c>
       <c r="D156">
-        <v>389.5607643339902</v>
+        <v>133.0946355160688</v>
       </c>
       <c r="E156">
-        <v>-204.5104817248737</v>
+        <v>-79.01095736748039</v>
       </c>
       <c r="F156">
-        <v>983.632010392854</v>
+        <v>345.200228399618</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4093,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="D178">
-        <v>974.8223806328474</v>
+        <v>701.7170509179508</v>
       </c>
       <c r="E178">
-        <v>911.5044060993946</v>
+        <v>521.4393665870409</v>
       </c>
       <c r="F178">
-        <v>1038.1403551663</v>
+        <v>881.9947352488607</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4113,13 +4113,13 @@
         <v>10</v>
       </c>
       <c r="D179">
-        <v>994.5519410121416</v>
+        <v>885.0743696408407</v>
       </c>
       <c r="E179">
-        <v>904.9747817464462</v>
+        <v>690.0542664587178</v>
       </c>
       <c r="F179">
-        <v>1084.129100277837</v>
+        <v>1080.094472822964</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4133,13 +4133,13 @@
         <v>10</v>
       </c>
       <c r="D180">
-        <v>1023.675547860107</v>
+        <v>840.4513635573883</v>
       </c>
       <c r="E180">
-        <v>913.3788099764469</v>
+        <v>639.8060974584439</v>
       </c>
       <c r="F180">
-        <v>1133.972285743767</v>
+        <v>1041.096629656333</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4153,13 +4153,13 @@
         <v>10</v>
       </c>
       <c r="D181">
-        <v>1064.535799719434</v>
+        <v>807.5746252346452</v>
       </c>
       <c r="E181">
-        <v>934.2947663435173</v>
+        <v>604.7105093414661</v>
       </c>
       <c r="F181">
-        <v>1194.776833095351</v>
+        <v>1010.438741127824</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4173,13 +4173,13 @@
         <v>10</v>
       </c>
       <c r="D182">
-        <v>1115.24925363309</v>
+        <v>720.7143022671376</v>
       </c>
       <c r="E182">
-        <v>966.3749681223846</v>
+        <v>516.9644232139692</v>
       </c>
       <c r="F182">
-        <v>1264.123539143795</v>
+        <v>924.4641813203059</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4193,13 +4193,13 @@
         <v>10</v>
       </c>
       <c r="D183">
-        <v>1176.014136058739</v>
+        <v>766.7367758117687</v>
       </c>
       <c r="E183">
-        <v>1009.359461027663</v>
+        <v>562.6316643747747</v>
       </c>
       <c r="F183">
-        <v>1342.668811089814</v>
+        <v>970.8418872487626</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="D184">
-        <v>1244.965586364407</v>
+        <v>646.6808913023261</v>
       </c>
       <c r="E184">
-        <v>1061.037152080231</v>
+        <v>442.4330545435907</v>
       </c>
       <c r="F184">
-        <v>1428.894020648583</v>
+        <v>850.9287280610615</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4233,13 +4233,13 @@
         <v>10</v>
       </c>
       <c r="D185">
-        <v>1321.805511585962</v>
+        <v>686.6581105075361</v>
       </c>
       <c r="E185">
-        <v>1120.981031936775</v>
+        <v>482.352887656291</v>
       </c>
       <c r="F185">
-        <v>1522.629991235149</v>
+        <v>890.9633333587813</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4253,13 +4253,13 @@
         <v>10</v>
       </c>
       <c r="D186">
-        <v>1405.332524096813</v>
+        <v>578.3376423194291</v>
       </c>
       <c r="E186">
-        <v>1187.882541551305</v>
+        <v>374.0093392706436</v>
       </c>
       <c r="F186">
-        <v>1622.78250664232</v>
+        <v>782.6659453682145</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4273,13 +4273,13 @@
         <v>10</v>
       </c>
       <c r="D187">
-        <v>1494.34306501464</v>
+        <v>612.7514833167379</v>
       </c>
       <c r="E187">
-        <v>1260.458660217305</v>
+        <v>408.4138965161374</v>
       </c>
       <c r="F187">
-        <v>1728.227469811975</v>
+        <v>817.0890701173385</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4713,13 +4713,13 @@
         <v>11</v>
       </c>
       <c r="D209">
-        <v>9064.317227498763</v>
+        <v>6642.111396130075</v>
       </c>
       <c r="E209">
-        <v>8332.018622459145</v>
+        <v>5871.25017471944</v>
       </c>
       <c r="F209">
-        <v>9796.61583253838</v>
+        <v>7412.97261754071</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4733,13 +4733,13 @@
         <v>11</v>
       </c>
       <c r="D210">
-        <v>9778.06644763861</v>
+        <v>8568.27325362696</v>
       </c>
       <c r="E210">
-        <v>8819.225672981856</v>
+        <v>7714.427728263928</v>
       </c>
       <c r="F210">
-        <v>10736.90722229536</v>
+        <v>9422.11877898999</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4753,13 +4753,13 @@
         <v>11</v>
       </c>
       <c r="D211">
-        <v>10766.56381407042</v>
+        <v>8417.246878340186</v>
       </c>
       <c r="E211">
-        <v>9755.844135330974</v>
+        <v>7563.609836785405</v>
       </c>
       <c r="F211">
-        <v>11777.28349280986</v>
+        <v>9270.883919894966</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4773,13 +4773,13 @@
         <v>11</v>
       </c>
       <c r="D212">
-        <v>11982.16708340296</v>
+        <v>8148.72638736633</v>
       </c>
       <c r="E212">
-        <v>10950.70503521622</v>
+        <v>7081.466439524148</v>
       </c>
       <c r="F212">
-        <v>13013.62913158969</v>
+        <v>9215.986335208512</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4793,13 +4793,13 @@
         <v>11</v>
       </c>
       <c r="D213">
-        <v>13304.86200908708</v>
+        <v>7888.299112349439</v>
       </c>
       <c r="E213">
-        <v>12274.87783658785</v>
+        <v>6777.56349667324</v>
       </c>
       <c r="F213">
-        <v>14334.8461815863</v>
+        <v>8999.034728025639</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4813,13 +4813,13 @@
         <v>11</v>
       </c>
       <c r="D214">
-        <v>14670.669628809</v>
+        <v>7714.943282708741</v>
       </c>
       <c r="E214">
-        <v>13589.64786530796</v>
+        <v>6569.509882949446</v>
       </c>
       <c r="F214">
-        <v>15751.69139231005</v>
+        <v>8860.376682468037</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4833,13 +4833,13 @@
         <v>11</v>
       </c>
       <c r="D215">
-        <v>16016.45959595679</v>
+        <v>7443.818334543629</v>
       </c>
       <c r="E215">
-        <v>14831.03734604245</v>
+        <v>6297.727208907457</v>
       </c>
       <c r="F215">
-        <v>17201.88184587112</v>
+        <v>8589.909460179802</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4853,13 +4853,13 @@
         <v>11</v>
       </c>
       <c r="D216">
-        <v>17280.50508130576</v>
+        <v>7410.863983819689</v>
       </c>
       <c r="E216">
-        <v>15962.81884051147</v>
+        <v>6258.12380346342</v>
       </c>
       <c r="F216">
-        <v>18598.19132210005</v>
+        <v>8563.604164175958</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4873,13 +4873,13 @@
         <v>11</v>
       </c>
       <c r="D217">
-        <v>18433.82128681076</v>
+        <v>7240.018154683805</v>
       </c>
       <c r="E217">
-        <v>16994.089649282</v>
+        <v>6082.737282301058</v>
       </c>
       <c r="F217">
-        <v>19873.55292433952</v>
+        <v>8397.299027066552</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4893,13 +4893,13 @@
         <v>11</v>
       </c>
       <c r="D218">
-        <v>19471.75892212411</v>
+        <v>7213.787354034697</v>
       </c>
       <c r="E218">
-        <v>17955.57262000343</v>
+        <v>6050.425790329732</v>
       </c>
       <c r="F218">
-        <v>20987.9452242448</v>
+        <v>8377.148917739662</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5333,13 +5333,13 @@
         <v>12</v>
       </c>
       <c r="D240">
-        <v>464.1939914226789</v>
+        <v>417.7327583211048</v>
       </c>
       <c r="E240">
-        <v>385.5190927757598</v>
+        <v>328.3342376059126</v>
       </c>
       <c r="F240">
-        <v>542.868890069598</v>
+        <v>507.131279036297</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5353,13 +5353,13 @@
         <v>12</v>
       </c>
       <c r="D241">
-        <v>470.4917417888989</v>
+        <v>411.8734343296061</v>
       </c>
       <c r="E241">
-        <v>388.8584314675409</v>
+        <v>299.8461122176282</v>
       </c>
       <c r="F241">
-        <v>552.125052110257</v>
+        <v>523.900756441584</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5373,13 +5373,13 @@
         <v>12</v>
       </c>
       <c r="D242">
-        <v>488.0221215446567</v>
+        <v>396.2020976483608</v>
       </c>
       <c r="E242">
-        <v>400.7809717397035</v>
+        <v>248.2535222306368</v>
       </c>
       <c r="F242">
-        <v>575.2632713496099</v>
+        <v>544.1506730660848</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5393,13 +5393,13 @@
         <v>12</v>
       </c>
       <c r="D243">
-        <v>519.8575249942951</v>
+        <v>396.2354103612478</v>
       </c>
       <c r="E243">
-        <v>429.1589807016477</v>
+        <v>231.5770926232132</v>
       </c>
       <c r="F243">
-        <v>610.5560692869424</v>
+        <v>560.8937280992823</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5413,13 +5413,13 @@
         <v>12</v>
       </c>
       <c r="D244">
-        <v>524.1358237335254</v>
+        <v>318.0521897794919</v>
       </c>
       <c r="E244">
-        <v>418.4865491154401</v>
+        <v>125.5107683670623</v>
       </c>
       <c r="F244">
-        <v>629.7850983516107</v>
+        <v>510.5936111919216</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5433,13 +5433,13 @@
         <v>12</v>
       </c>
       <c r="D245">
-        <v>550.2774239574019</v>
+        <v>294.5715605968973</v>
       </c>
       <c r="E245">
-        <v>441.3135737807476</v>
+        <v>82.70546061924597</v>
       </c>
       <c r="F245">
-        <v>659.2412741340562</v>
+        <v>506.4376605745487</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5453,13 +5453,13 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>589.2444856927408</v>
+        <v>291.1034903074425</v>
       </c>
       <c r="E246">
-        <v>475.1980682714454</v>
+        <v>60.29615193710546</v>
       </c>
       <c r="F246">
-        <v>703.2909031140362</v>
+        <v>521.9108286777795</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5473,13 +5473,13 @@
         <v>12</v>
       </c>
       <c r="D247">
-        <v>622.9699619139084</v>
+        <v>268.3925340012569</v>
       </c>
       <c r="E247">
-        <v>504.0660282887251</v>
+        <v>23.58272256072235</v>
       </c>
       <c r="F247">
-        <v>741.8738955390916</v>
+        <v>513.2023454417915</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5493,13 +5493,13 @@
         <v>12</v>
       </c>
       <c r="D248">
-        <v>656.6383711631174</v>
+        <v>196.3828697266483</v>
       </c>
       <c r="E248">
-        <v>530.9198808828723</v>
+        <v>-66.75426942306575</v>
       </c>
       <c r="F248">
-        <v>782.3568614433625</v>
+        <v>459.5200088763624</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5513,13 +5513,13 @@
         <v>12</v>
       </c>
       <c r="D249">
-        <v>692.6135537367055</v>
+        <v>170.6438909724344</v>
       </c>
       <c r="E249">
-        <v>562.846777248375</v>
+        <v>-108.1195780631035</v>
       </c>
       <c r="F249">
-        <v>822.380330225036</v>
+        <v>449.4073600079723</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5953,13 +5953,13 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>821.1417853363498</v>
+        <v>822.1357744874142</v>
       </c>
       <c r="E271">
-        <v>760.3667396604956</v>
+        <v>676.8048420451594</v>
       </c>
       <c r="F271">
-        <v>881.9168310122041</v>
+        <v>967.466706929669</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5973,13 +5973,13 @@
         <v>13</v>
       </c>
       <c r="D272">
-        <v>795.006426222287</v>
+        <v>794.9926883654531</v>
       </c>
       <c r="E272">
-        <v>704.5647837460861</v>
+        <v>567.524768415763</v>
       </c>
       <c r="F272">
-        <v>885.448068698488</v>
+        <v>1022.460608315143</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5993,13 +5993,13 @@
         <v>13</v>
       </c>
       <c r="D273">
-        <v>816.054170777508</v>
+        <v>835.880223249721</v>
       </c>
       <c r="E273">
-        <v>701.969614073754</v>
+        <v>552.8636963684655</v>
       </c>
       <c r="F273">
-        <v>930.1387274812621</v>
+        <v>1118.896750130976</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6013,13 +6013,13 @@
         <v>13</v>
       </c>
       <c r="D274">
-        <v>739.861181263145</v>
+        <v>810.864838219498</v>
       </c>
       <c r="E274">
-        <v>614.9194380814315</v>
+        <v>479.6726597537484</v>
       </c>
       <c r="F274">
-        <v>864.8029244448585</v>
+        <v>1142.057016685248</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6033,13 +6033,13 @@
         <v>13</v>
       </c>
       <c r="D275">
-        <v>662.7568699782537</v>
+        <v>719.8825036155151</v>
       </c>
       <c r="E275">
-        <v>513.333930271595</v>
+        <v>341.4916436154631</v>
       </c>
       <c r="F275">
-        <v>812.1798096849124</v>
+        <v>1098.273363615567</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6053,13 +6053,13 @@
         <v>13</v>
       </c>
       <c r="D276">
-        <v>682.4005692246874</v>
+        <v>711.5728910249844</v>
       </c>
       <c r="E276">
-        <v>515.6630143004626</v>
+        <v>294.3722340138044</v>
       </c>
       <c r="F276">
-        <v>849.1381241489122</v>
+        <v>1128.773548036164</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6073,13 +6073,13 @@
         <v>13</v>
       </c>
       <c r="D277">
-        <v>664.1601527568877</v>
+        <v>744.6716324564958</v>
       </c>
       <c r="E277">
-        <v>486.8542791941758</v>
+        <v>295.9880069823717</v>
       </c>
       <c r="F277">
-        <v>841.4660263195996</v>
+        <v>1193.35525793062</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6093,13 +6093,13 @@
         <v>13</v>
       </c>
       <c r="D278">
-        <v>570.4517819675018</v>
+        <v>682.4509384685934</v>
       </c>
       <c r="E278">
-        <v>381.5630601824511</v>
+        <v>201.5925161269387</v>
       </c>
       <c r="F278">
-        <v>759.3405037525525</v>
+        <v>1163.309360810248</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6113,13 +6113,13 @@
         <v>13</v>
       </c>
       <c r="D279">
-        <v>547.5971496976704</v>
+        <v>603.4231428733847</v>
       </c>
       <c r="E279">
-        <v>340.9935947671101</v>
+        <v>90.14712192585932</v>
       </c>
       <c r="F279">
-        <v>754.2007046282306</v>
+        <v>1116.69916382091</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6133,13 +6133,13 @@
         <v>13</v>
       </c>
       <c r="D280">
-        <v>568.5221640997771</v>
+        <v>622.8477742751807</v>
       </c>
       <c r="E280">
-        <v>351.7662744647416</v>
+        <v>82.97183057981488</v>
       </c>
       <c r="F280">
-        <v>785.2780537348126</v>
+        <v>1162.723717970546</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6573,13 +6573,13 @@
         <v>14</v>
       </c>
       <c r="D302">
-        <v>860.7757756247179</v>
+        <v>770.2287684409478</v>
       </c>
       <c r="E302">
-        <v>755.8485672052263</v>
+        <v>669.3045418960146</v>
       </c>
       <c r="F302">
-        <v>965.7029840442094</v>
+        <v>871.1529949858809</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6593,13 +6593,13 @@
         <v>14</v>
       </c>
       <c r="D303">
-        <v>855.8965500464453</v>
+        <v>759.8581601767486</v>
       </c>
       <c r="E303">
-        <v>736.6364623415889</v>
+        <v>584.1212969736348</v>
       </c>
       <c r="F303">
-        <v>975.1566377513018</v>
+        <v>935.5950233798624</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6613,13 +6613,13 @@
         <v>14</v>
       </c>
       <c r="D304">
-        <v>851.7345889553292</v>
+        <v>687.1604635370282</v>
       </c>
       <c r="E304">
-        <v>728.2141986799809</v>
+        <v>487.893031450071</v>
       </c>
       <c r="F304">
-        <v>975.2549792306775</v>
+        <v>886.4278956239855</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6633,13 +6633,13 @@
         <v>14</v>
       </c>
       <c r="D305">
-        <v>849.7238338381251</v>
+        <v>654.4300628737016</v>
       </c>
       <c r="E305">
-        <v>724.6963376895699</v>
+        <v>414.9355814617262</v>
       </c>
       <c r="F305">
-        <v>974.7513299866803</v>
+        <v>893.9245442856769</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6653,13 +6653,13 @@
         <v>14</v>
       </c>
       <c r="D306">
-        <v>848.9048543037117</v>
+        <v>606.3350913613513</v>
       </c>
       <c r="E306">
-        <v>723.2704152399252</v>
+        <v>340.4371647145064</v>
       </c>
       <c r="F306">
-        <v>974.5392933674981</v>
+        <v>872.2330180081962</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6673,13 +6673,13 @@
         <v>14</v>
       </c>
       <c r="D307">
-        <v>849.2072106235037</v>
+        <v>554.5487344293856</v>
       </c>
       <c r="E307">
-        <v>723.3033776846898</v>
+        <v>266.7832712562514</v>
       </c>
       <c r="F307">
-        <v>975.1110435623175</v>
+        <v>842.3141976025198</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6693,13 +6693,13 @@
         <v>14</v>
       </c>
       <c r="D308">
-        <v>849.7723178461648</v>
+        <v>508.2645419674346</v>
       </c>
       <c r="E308">
-        <v>723.7403239494153</v>
+        <v>191.7673861214629</v>
       </c>
       <c r="F308">
-        <v>975.8043117429144</v>
+        <v>824.7616978134063</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6713,13 +6713,13 @@
         <v>14</v>
       </c>
       <c r="D309">
-        <v>850.116938365219</v>
+        <v>437.6394183077238</v>
       </c>
       <c r="E309">
-        <v>724.0205735604029</v>
+        <v>104.35875260231</v>
       </c>
       <c r="F309">
-        <v>976.213303170035</v>
+        <v>770.9200840131375</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6733,13 +6733,13 @@
         <v>14</v>
       </c>
       <c r="D310">
-        <v>849.5212699707347</v>
+        <v>381.3198894782169</v>
       </c>
       <c r="E310">
-        <v>723.3907278861557</v>
+        <v>24.61298303707645</v>
       </c>
       <c r="F310">
-        <v>975.6518120553137</v>
+        <v>738.0267959193573</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6753,13 +6753,13 @@
         <v>14</v>
       </c>
       <c r="D311">
-        <v>847.4436764498018</v>
+        <v>313.2014619672253</v>
       </c>
       <c r="E311">
-        <v>721.2936284166749</v>
+        <v>-61.77182467831835</v>
       </c>
       <c r="F311">
-        <v>973.5937244829288</v>
+        <v>688.174748612769</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7193,13 +7193,13 @@
         <v>15</v>
       </c>
       <c r="D333">
-        <v>946.3057030687902</v>
+        <v>765.718761718058</v>
       </c>
       <c r="E333">
-        <v>816.6472109883202</v>
+        <v>667.4022158820907</v>
       </c>
       <c r="F333">
-        <v>1075.96419514926</v>
+        <v>864.0353075540253</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7213,13 +7213,13 @@
         <v>15</v>
       </c>
       <c r="D334">
-        <v>970.2608894808651</v>
+        <v>734.7390969761326</v>
       </c>
       <c r="E334">
-        <v>779.3912771890164</v>
+        <v>636.3289594626399</v>
       </c>
       <c r="F334">
-        <v>1161.130501772714</v>
+        <v>833.1492344896253</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7233,13 +7233,13 @@
         <v>15</v>
       </c>
       <c r="D335">
-        <v>923.7205781525854</v>
+        <v>642.0914985569437</v>
       </c>
       <c r="E335">
-        <v>732.4178576277279</v>
+        <v>543.6863338644306</v>
       </c>
       <c r="F335">
-        <v>1115.023298677443</v>
+        <v>740.4966632494569</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7253,13 +7253,13 @@
         <v>15</v>
       </c>
       <c r="D336">
-        <v>943.5329301481356</v>
+        <v>603.6347321653304</v>
       </c>
       <c r="E336">
-        <v>734.4055068137687</v>
+        <v>498.8531468980352</v>
       </c>
       <c r="F336">
-        <v>1152.660353482503</v>
+        <v>708.4163174326256</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7273,13 +7273,13 @@
         <v>15</v>
       </c>
       <c r="D337">
-        <v>943.2730486274329</v>
+        <v>548.869012755601</v>
       </c>
       <c r="E337">
-        <v>730.2351851871917</v>
+        <v>442.5061983544651</v>
       </c>
       <c r="F337">
-        <v>1156.310912067674</v>
+        <v>655.2318271567369</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7293,13 +7293,13 @@
         <v>15</v>
       </c>
       <c r="D338">
-        <v>939.3067662222516</v>
+        <v>508.776372730192</v>
       </c>
       <c r="E338">
-        <v>723.6706320565295</v>
+        <v>402.1622696591133</v>
       </c>
       <c r="F338">
-        <v>1154.942900387974</v>
+        <v>615.3904758012706</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7313,13 +7313,13 @@
         <v>15</v>
       </c>
       <c r="D339">
-        <v>928.4495764305249</v>
+        <v>449.990484986203</v>
       </c>
       <c r="E339">
-        <v>711.5726583988255</v>
+        <v>342.5161341683813</v>
       </c>
       <c r="F339">
-        <v>1145.326494462224</v>
+        <v>557.4648358040248</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7333,13 +7333,13 @@
         <v>15</v>
       </c>
       <c r="D340">
-        <v>913.0709162682361</v>
+        <v>386.9087362167376</v>
       </c>
       <c r="E340">
-        <v>695.5410479189819</v>
+        <v>277.3562975273381</v>
       </c>
       <c r="F340">
-        <v>1130.60078461749</v>
+        <v>496.4611749061371</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7353,13 +7353,13 @@
         <v>15</v>
       </c>
       <c r="D341">
-        <v>893.2938522067984</v>
+        <v>309.7252113605314</v>
       </c>
       <c r="E341">
-        <v>675.4286924087951</v>
+        <v>198.2208939505369</v>
       </c>
       <c r="F341">
-        <v>1111.159012004802</v>
+        <v>421.2295287705259</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7373,13 +7373,13 @@
         <v>15</v>
       </c>
       <c r="D342">
-        <v>870.1987655228686</v>
+        <v>233.4853085922375</v>
       </c>
       <c r="E342">
-        <v>652.1599358283315</v>
+        <v>121.2657466885218</v>
       </c>
       <c r="F342">
-        <v>1088.237595217406</v>
+        <v>345.7048704959532</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7813,13 +7813,13 @@
         <v>16</v>
       </c>
       <c r="D364">
-        <v>728.5223117537047</v>
+        <v>709.7092790044283</v>
       </c>
       <c r="E364">
-        <v>661.0386571567143</v>
+        <v>619.1431266189503</v>
       </c>
       <c r="F364">
-        <v>796.0059663506951</v>
+        <v>800.2754313899062</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7833,13 +7833,13 @@
         <v>16</v>
       </c>
       <c r="D365">
-        <v>713.3277591581947</v>
+        <v>684.7793927479123</v>
       </c>
       <c r="E365">
-        <v>621.0163900878994</v>
+        <v>530.5521683707395</v>
       </c>
       <c r="F365">
-        <v>805.63912822849</v>
+        <v>839.0066171250851</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7853,13 +7853,13 @@
         <v>16</v>
       </c>
       <c r="D366">
-        <v>678.259280298627</v>
+        <v>648.4142428038716</v>
       </c>
       <c r="E366">
-        <v>578.329340850627</v>
+        <v>456.1975664718577</v>
       </c>
       <c r="F366">
-        <v>778.189219746627</v>
+        <v>840.6309191358855</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7873,13 +7873,13 @@
         <v>16</v>
       </c>
       <c r="D367">
-        <v>640.0737992825038</v>
+        <v>612.5474319972155</v>
       </c>
       <c r="E367">
-        <v>520.5993214348484</v>
+        <v>366.8169589869256</v>
       </c>
       <c r="F367">
-        <v>759.5482771301592</v>
+        <v>858.2779050075055</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7893,13 +7893,13 @@
         <v>16</v>
       </c>
       <c r="D368">
-        <v>590.3407361359523</v>
+        <v>574.1986174026536</v>
       </c>
       <c r="E368">
-        <v>461.4201701995626</v>
+        <v>290.8599751994038</v>
       </c>
       <c r="F368">
-        <v>719.261302072342</v>
+        <v>857.5372596059033</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7913,13 +7913,13 @@
         <v>16</v>
       </c>
       <c r="D369">
-        <v>532.1854159599558</v>
+        <v>533.7570879668409</v>
       </c>
       <c r="E369">
-        <v>392.3996338479271</v>
+        <v>213.7652053549972</v>
       </c>
       <c r="F369">
-        <v>671.9711980719844</v>
+        <v>853.7489705786846</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7933,13 +7933,13 @@
         <v>16</v>
       </c>
       <c r="D370">
-        <v>470.6729780614456</v>
+        <v>491.7909194985655</v>
       </c>
       <c r="E370">
-        <v>320.190207427285</v>
+        <v>136.0798351058975</v>
       </c>
       <c r="F370">
-        <v>621.1557486956062</v>
+        <v>847.5020038912335</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7953,13 +7953,13 @@
         <v>16</v>
       </c>
       <c r="D371">
-        <v>405.8677753961089</v>
+        <v>448.1834277540023</v>
       </c>
       <c r="E371">
-        <v>246.794479937744</v>
+        <v>62.71783661126165</v>
       </c>
       <c r="F371">
-        <v>564.9410708544738</v>
+        <v>833.649018896743</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7973,13 +7973,13 @@
         <v>16</v>
       </c>
       <c r="D372">
-        <v>342.9925000837837</v>
+        <v>402.8540878022609</v>
       </c>
       <c r="E372">
-        <v>174.6539634658315</v>
+        <v>-12.81943335350024</v>
       </c>
       <c r="F372">
-        <v>511.3310367017359</v>
+        <v>818.527608958022</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7993,13 +7993,13 @@
         <v>16</v>
       </c>
       <c r="D373">
-        <v>283.8444120449935</v>
+        <v>356.1075251936955</v>
       </c>
       <c r="E373">
-        <v>107.2700578212832</v>
+        <v>-86.80889665335906</v>
       </c>
       <c r="F373">
-        <v>460.4187662687037</v>
+        <v>799.02394704075</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8433,13 +8433,13 @@
         <v>17</v>
       </c>
       <c r="D395">
-        <v>229.9641783819836</v>
+        <v>199.4486690001646</v>
       </c>
       <c r="E395">
-        <v>191.3069223027885</v>
+        <v>155.4714652001928</v>
       </c>
       <c r="F395">
-        <v>268.6214344611788</v>
+        <v>243.4258728001365</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8453,13 +8453,13 @@
         <v>17</v>
       </c>
       <c r="D396">
-        <v>243.6654952079711</v>
+        <v>214.0819787461347</v>
       </c>
       <c r="E396">
-        <v>191.2200507344021</v>
+        <v>160.4913629179209</v>
       </c>
       <c r="F396">
-        <v>296.1109396815401</v>
+        <v>267.6725945743486</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8473,13 +8473,13 @@
         <v>17</v>
       </c>
       <c r="D397">
-        <v>237.955506042898</v>
+        <v>214.5726510239456</v>
       </c>
       <c r="E397">
-        <v>166.8828935201859</v>
+        <v>149.1496558143015</v>
       </c>
       <c r="F397">
-        <v>309.02811856561</v>
+        <v>279.9956462335897</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8493,13 +8493,13 @@
         <v>17</v>
       </c>
       <c r="D398">
-        <v>227.6724128453831</v>
+        <v>200.2122384423483</v>
       </c>
       <c r="E398">
-        <v>137.493337804658</v>
+        <v>119.3444217067984</v>
       </c>
       <c r="F398">
-        <v>317.8514878861082</v>
+        <v>281.0800551778983</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8513,13 +8513,13 @@
         <v>17</v>
       </c>
       <c r="D399">
-        <v>220.9674062910337</v>
+        <v>201.4625784750485</v>
       </c>
       <c r="E399">
-        <v>125.0985053277853</v>
+        <v>111.223347206394</v>
       </c>
       <c r="F399">
-        <v>316.836307254282</v>
+        <v>291.7018097437031</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8533,13 +8533,13 @@
         <v>17</v>
       </c>
       <c r="D400">
-        <v>215.2335436761209</v>
+        <v>211.7426086105405</v>
       </c>
       <c r="E400">
-        <v>116.0601973250089</v>
+        <v>115.5852247083941</v>
       </c>
       <c r="F400">
-        <v>314.4068900272329</v>
+        <v>307.8999925126868</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8553,13 +8553,13 @@
         <v>17</v>
       </c>
       <c r="D401">
-        <v>210.8887570453922</v>
+        <v>207.1271903817552</v>
       </c>
       <c r="E401">
-        <v>110.213570059496</v>
+        <v>102.7088148270628</v>
       </c>
       <c r="F401">
-        <v>311.5639440312883</v>
+        <v>311.5455659364476</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8573,13 +8573,13 @@
         <v>17</v>
       </c>
       <c r="D402">
-        <v>206.7567977189382</v>
+        <v>197.650410684244</v>
       </c>
       <c r="E402">
-        <v>105.301555284181</v>
+        <v>84.00787621439166</v>
       </c>
       <c r="F402">
-        <v>308.2120401536955</v>
+        <v>311.2929451540963</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8593,13 +8593,13 @@
         <v>17</v>
       </c>
       <c r="D403">
-        <v>203.0741048368904</v>
+        <v>201.263785125364</v>
       </c>
       <c r="E403">
-        <v>101.2333363322004</v>
+        <v>81.44504034548946</v>
       </c>
       <c r="F403">
-        <v>304.9148733415805</v>
+        <v>321.0825299052385</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8613,13 +8613,13 @@
         <v>17</v>
       </c>
       <c r="D404">
-        <v>199.7895743886979</v>
+        <v>206.5059506929874</v>
       </c>
       <c r="E404">
-        <v>97.75285196020918</v>
+        <v>81.44116111947598</v>
       </c>
       <c r="F404">
-        <v>301.8262968171866</v>
+        <v>331.5707402664988</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9053,13 +9053,13 @@
         <v>18</v>
       </c>
       <c r="D426">
-        <v>256.8346773782591</v>
+        <v>242.988219691309</v>
       </c>
       <c r="E426">
-        <v>222.2861653778872</v>
+        <v>193.9877663461851</v>
       </c>
       <c r="F426">
-        <v>291.383189378631</v>
+        <v>291.9886730364329</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9073,13 +9073,13 @@
         <v>18</v>
       </c>
       <c r="D427">
-        <v>263.7461432615877</v>
+        <v>301.8536358248429</v>
       </c>
       <c r="E427">
-        <v>219.9456811383235</v>
+        <v>242.0339776020317</v>
       </c>
       <c r="F427">
-        <v>307.5466053848519</v>
+        <v>361.673294047654</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9093,13 +9093,13 @@
         <v>18</v>
       </c>
       <c r="D428">
-        <v>251.0065872024791</v>
+        <v>307.9443316789691</v>
       </c>
       <c r="E428">
-        <v>206.6280979143273</v>
+        <v>246.3928886919589</v>
       </c>
       <c r="F428">
-        <v>295.3850764906309</v>
+        <v>369.4957746659793</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9113,13 +9113,13 @@
         <v>18</v>
       </c>
       <c r="D429">
-        <v>251.9133160349684</v>
+        <v>289.911712371128</v>
       </c>
       <c r="E429">
-        <v>207.0356290186004</v>
+        <v>223.6645067136256</v>
       </c>
       <c r="F429">
-        <v>296.7910030513363</v>
+        <v>356.1589180286304</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9133,13 +9133,13 @@
         <v>18</v>
       </c>
       <c r="D430">
-        <v>236.2837744931746</v>
+        <v>300.5308028317679</v>
       </c>
       <c r="E430">
-        <v>191.2985929048553</v>
+        <v>225.6949683335856</v>
       </c>
       <c r="F430">
-        <v>281.268956081494</v>
+        <v>375.3666373299502</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9153,13 +9153,13 @@
         <v>18</v>
       </c>
       <c r="D431">
-        <v>225.710966184701</v>
+        <v>289.396152159899</v>
       </c>
       <c r="E431">
-        <v>180.0594042112913</v>
+        <v>210.6822051157054</v>
       </c>
       <c r="F431">
-        <v>271.3625281581108</v>
+        <v>368.1100992040925</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9173,13 +9173,13 @@
         <v>18</v>
       </c>
       <c r="D432">
-        <v>214.7591762472068</v>
+        <v>296.1176832375319</v>
       </c>
       <c r="E432">
-        <v>168.9738570182347</v>
+        <v>213.8590800358627</v>
       </c>
       <c r="F432">
-        <v>260.544495476179</v>
+        <v>378.3762864392011</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9193,13 +9193,13 @@
         <v>18</v>
       </c>
       <c r="D433">
-        <v>204.8248729980315</v>
+        <v>282.164122427836</v>
       </c>
       <c r="E433">
-        <v>158.9821970259651</v>
+        <v>195.6259724560664</v>
       </c>
       <c r="F433">
-        <v>250.667548970098</v>
+        <v>368.7022723996056</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9213,13 +9213,13 @@
         <v>18</v>
       </c>
       <c r="D434">
-        <v>207.4287892327125</v>
+        <v>291.7713279705636</v>
       </c>
       <c r="E434">
-        <v>159.5299622341551</v>
+        <v>200.577278645273</v>
       </c>
       <c r="F434">
-        <v>255.32761623127</v>
+        <v>382.9653772958541</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9233,13 +9233,13 @@
         <v>18</v>
       </c>
       <c r="D435">
-        <v>200.6974432628047</v>
+        <v>278.4653052872968</v>
       </c>
       <c r="E435">
-        <v>152.7961027687382</v>
+        <v>184.1356309414472</v>
       </c>
       <c r="F435">
-        <v>248.5987837568711</v>
+        <v>372.7949796331464</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9673,13 +9673,13 @@
         <v>19</v>
       </c>
       <c r="D457">
-        <v>865.0117980309108</v>
+        <v>889.2501948453599</v>
       </c>
       <c r="E457">
-        <v>736.6535428615953</v>
+        <v>780.79124135525</v>
       </c>
       <c r="F457">
-        <v>993.3700532002263</v>
+        <v>997.7091483354699</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -9693,13 +9693,13 @@
         <v>19</v>
       </c>
       <c r="D458">
-        <v>886.6241212708082</v>
+        <v>836.6805631577198</v>
       </c>
       <c r="E458">
-        <v>711.5779976902072</v>
+        <v>701.4885641433948</v>
       </c>
       <c r="F458">
-        <v>1061.670244851409</v>
+        <v>971.8725621720448</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9713,13 +9713,13 @@
         <v>19</v>
       </c>
       <c r="D459">
-        <v>858.6168443077819</v>
+        <v>781.9044378148603</v>
       </c>
       <c r="E459">
-        <v>627.042142587739</v>
+        <v>617.5611737479322</v>
       </c>
       <c r="F459">
-        <v>1090.191546027825</v>
+        <v>946.2477018817884</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -9733,13 +9733,13 @@
         <v>19</v>
       </c>
       <c r="D460">
-        <v>800.3379278598215</v>
+        <v>695.3037764831483</v>
       </c>
       <c r="E460">
-        <v>516.1561781771313</v>
+        <v>499.8860670224658</v>
       </c>
       <c r="F460">
-        <v>1084.519677542512</v>
+        <v>890.7214859438309</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -9753,13 +9753,13 @@
         <v>19</v>
       </c>
       <c r="D461">
-        <v>796.8951541830043</v>
+        <v>635.2782560073472</v>
       </c>
       <c r="E461">
-        <v>493.5160431632924</v>
+        <v>419.5233767847152</v>
       </c>
       <c r="F461">
-        <v>1100.274265202716</v>
+        <v>851.0331352299792</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9773,13 +9773,13 @@
         <v>19</v>
       </c>
       <c r="D462">
-        <v>750.7158639699891</v>
+        <v>552.5001525487564</v>
       </c>
       <c r="E462">
-        <v>423.1509253645779</v>
+        <v>313.4560448092327</v>
       </c>
       <c r="F462">
-        <v>1078.2808025754</v>
+        <v>791.5442602882802</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -9793,13 +9793,13 @@
         <v>19</v>
       </c>
       <c r="D463">
-        <v>695.644956290241</v>
+        <v>474.5827809315662</v>
       </c>
       <c r="E463">
-        <v>349.155136849193</v>
+        <v>216.2252881368237</v>
       </c>
       <c r="F463">
-        <v>1042.134775731289</v>
+        <v>732.9402737263086</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -9813,13 +9813,13 @@
         <v>19</v>
       </c>
       <c r="D464">
-        <v>710.3032171603693</v>
+        <v>393.1585791986329</v>
       </c>
       <c r="E464">
-        <v>349.0909152140442</v>
+        <v>116.7806579776971</v>
       </c>
       <c r="F464">
-        <v>1071.515519106694</v>
+        <v>669.5365004195687</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -9833,13 +9833,13 @@
         <v>19</v>
       </c>
       <c r="D465">
-        <v>631.5521796041227</v>
+        <v>306.0844973769575</v>
       </c>
       <c r="E465">
-        <v>238.8655196545819</v>
+        <v>12.0306025305967</v>
       </c>
       <c r="F465">
-        <v>1024.238839553663</v>
+        <v>600.1383922233183</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -9853,13 +9853,13 @@
         <v>19</v>
       </c>
       <c r="D466">
-        <v>644.2025292723514</v>
+        <v>218.1225219911875</v>
       </c>
       <c r="E466">
-        <v>227.8686459298683</v>
+        <v>-91.81955655461962</v>
       </c>
       <c r="F466">
-        <v>1060.536412614834</v>
+        <v>528.0646005369945</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -10293,13 +10293,13 @@
         <v>20</v>
       </c>
       <c r="D488">
-        <v>309.587748321588</v>
+        <v>288.9819271511829</v>
       </c>
       <c r="E488">
-        <v>253.823749858026</v>
+        <v>240.4498820436376</v>
       </c>
       <c r="F488">
-        <v>365.3517467851501</v>
+        <v>337.5139722587281</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -10313,13 +10313,13 @@
         <v>20</v>
       </c>
       <c r="D489">
-        <v>279.2971539660364</v>
+        <v>311.6437563377478</v>
       </c>
       <c r="E489">
-        <v>216.01304138176</v>
+        <v>242.513106853251</v>
       </c>
       <c r="F489">
-        <v>342.5812665503128</v>
+        <v>380.7744058222447</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -10333,13 +10333,13 @@
         <v>20</v>
       </c>
       <c r="D490">
-        <v>254.2199158924586</v>
+        <v>309.590146779489</v>
       </c>
       <c r="E490">
-        <v>190.9998157045443</v>
+        <v>227.2975749215535</v>
       </c>
       <c r="F490">
-        <v>317.4400160803729</v>
+        <v>391.8827186374244</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -10353,13 +10353,13 @@
         <v>20</v>
       </c>
       <c r="D491">
-        <v>233.3774333201814</v>
+        <v>261.3723102326266</v>
       </c>
       <c r="E491">
-        <v>169.8146204384627</v>
+        <v>166.5996829551877</v>
       </c>
       <c r="F491">
-        <v>296.9402462019002</v>
+        <v>356.1449375100655</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10373,13 +10373,13 @@
         <v>20</v>
       </c>
       <c r="D492">
-        <v>210.4531581793622</v>
+        <v>234.2015892551773</v>
       </c>
       <c r="E492">
-        <v>146.9324721255209</v>
+        <v>127.0548114265037</v>
       </c>
       <c r="F492">
-        <v>273.9738442332035</v>
+        <v>341.348367083851</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10393,13 +10393,13 @@
         <v>20</v>
       </c>
       <c r="D493">
-        <v>184.592639180222</v>
+        <v>245.443116449858</v>
       </c>
       <c r="E493">
-        <v>120.8000520008981</v>
+        <v>128.9711065546848</v>
       </c>
       <c r="F493">
-        <v>248.3852263595458</v>
+        <v>361.9151263450311</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -10413,13 +10413,13 @@
         <v>20</v>
       </c>
       <c r="D494">
-        <v>156.7871493087521</v>
+        <v>219.9905324060931</v>
       </c>
       <c r="E494">
-        <v>92.7204290093587</v>
+        <v>94.93002395426362</v>
       </c>
       <c r="F494">
-        <v>220.8538696081456</v>
+        <v>345.0510408579225</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -10433,13 +10433,13 @@
         <v>20</v>
       </c>
       <c r="D495">
-        <v>128.2639032680353</v>
+        <v>183.7292659811926</v>
       </c>
       <c r="E495">
-        <v>64.08855480999271</v>
+        <v>49.05176029374636</v>
       </c>
       <c r="F495">
-        <v>192.4392517260779</v>
+        <v>318.4067716686388</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -10453,13 +10453,13 @@
         <v>20</v>
       </c>
       <c r="D496">
-        <v>99.08725895999493</v>
+        <v>185.918666140457</v>
       </c>
       <c r="E496">
-        <v>34.86155750170229</v>
+        <v>43.24110636754114</v>
       </c>
       <c r="F496">
-        <v>163.3129604182876</v>
+        <v>328.5962259133728</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -10473,13 +10473,13 @@
         <v>20</v>
       </c>
       <c r="D497">
-        <v>68.99270440182744</v>
+        <v>165.3691142600454</v>
       </c>
       <c r="E497">
-        <v>4.703845437735183</v>
+        <v>15.88719375714302</v>
       </c>
       <c r="F497">
-        <v>133.2815633659197</v>
+        <v>314.8510347629478</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -10913,13 +10913,13 @@
         <v>21</v>
       </c>
       <c r="D519">
-        <v>598.6810307831411</v>
+        <v>598.8305116631379</v>
       </c>
       <c r="E519">
-        <v>519.2731888538166</v>
+        <v>526.4270374070497</v>
       </c>
       <c r="F519">
-        <v>678.0888727124656</v>
+        <v>671.2339859192261</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -10933,13 +10933,13 @@
         <v>21</v>
       </c>
       <c r="D520">
-        <v>624.9792122971912</v>
+        <v>574.1629481453308</v>
       </c>
       <c r="E520">
-        <v>522.83762564018</v>
+        <v>484.6321472782926</v>
       </c>
       <c r="F520">
-        <v>727.1207989542024</v>
+        <v>663.693749012369</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -10953,13 +10953,13 @@
         <v>21</v>
       </c>
       <c r="D521">
-        <v>563.0615901021785</v>
+        <v>584.416579597591</v>
       </c>
       <c r="E521">
-        <v>440.1967411037893</v>
+        <v>482.1993175085053</v>
       </c>
       <c r="F521">
-        <v>685.9264391005677</v>
+        <v>686.6338416866766</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -10973,13 +10973,13 @@
         <v>21</v>
       </c>
       <c r="D522">
-        <v>590.4554782797564</v>
+        <v>553.6685611161347</v>
       </c>
       <c r="E522">
-        <v>466.7228025038123</v>
+        <v>448.6419653616251</v>
       </c>
       <c r="F522">
-        <v>714.1881540557006</v>
+        <v>658.6951568706443</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -10993,13 +10993,13 @@
         <v>21</v>
       </c>
       <c r="D523">
-        <v>515.0929578088247</v>
+        <v>545.1473930159897</v>
       </c>
       <c r="E523">
-        <v>386.7830072501964</v>
+        <v>438.7281696123841</v>
       </c>
       <c r="F523">
-        <v>643.4029083674531</v>
+        <v>651.5666164195952</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -11013,13 +11013,13 @@
         <v>21</v>
       </c>
       <c r="D524">
-        <v>514.3491757255167</v>
+        <v>507.9455234856256</v>
       </c>
       <c r="E524">
-        <v>383.1710495704111</v>
+        <v>401.2675956106063</v>
       </c>
       <c r="F524">
-        <v>645.5273018806223</v>
+        <v>614.6234513606448</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -11033,13 +11033,13 @@
         <v>21</v>
       </c>
       <c r="D525">
-        <v>437.8122789970506</v>
+        <v>470.4455799395466</v>
       </c>
       <c r="E525">
-        <v>291.7442499594665</v>
+        <v>363.6738574989067</v>
       </c>
       <c r="F525">
-        <v>583.8803080346346</v>
+        <v>577.2173023801865</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -11053,13 +11053,13 @@
         <v>21</v>
       </c>
       <c r="D526">
-        <v>440.9028566924421</v>
+        <v>439.441831147724</v>
       </c>
       <c r="E526">
-        <v>288.0581343483206</v>
+        <v>330.8351195832279</v>
       </c>
       <c r="F526">
-        <v>593.7475790365636</v>
+        <v>548.0485427122201</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -11073,13 +11073,13 @@
         <v>21</v>
       </c>
       <c r="D527">
-        <v>377.4773603615824</v>
+        <v>404.8591850195656</v>
       </c>
       <c r="E527">
-        <v>215.6362807260775</v>
+        <v>295.8099071176393</v>
       </c>
       <c r="F527">
-        <v>539.3184399970874</v>
+        <v>513.9084629214919</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -11093,13 +11093,13 @@
         <v>21</v>
       </c>
       <c r="D528">
-        <v>374.2911727609585</v>
+        <v>377.0361243532271</v>
       </c>
       <c r="E528">
-        <v>210.20587670092</v>
+        <v>267.9307833719359</v>
       </c>
       <c r="F528">
-        <v>538.376468820997</v>
+        <v>486.1414653345184</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -11533,13 +11533,13 @@
         <v>22</v>
       </c>
       <c r="D550">
-        <v>2154.454965815914</v>
+        <v>2186.818712440031</v>
       </c>
       <c r="E550">
-        <v>1891.510044712051</v>
+        <v>1908.412848393901</v>
       </c>
       <c r="F550">
-        <v>2417.399886919778</v>
+        <v>2465.224576486161</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11553,13 +11553,13 @@
         <v>22</v>
       </c>
       <c r="D551">
-        <v>2050.35692751365</v>
+        <v>2156.691937762523</v>
       </c>
       <c r="E551">
-        <v>1649.796710790715</v>
+        <v>1715.609239657999</v>
       </c>
       <c r="F551">
-        <v>2450.917144236585</v>
+        <v>2597.774635867047</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -11573,13 +11573,13 @@
         <v>22</v>
       </c>
       <c r="D552">
-        <v>1954.945636694993</v>
+        <v>2126.559462834396</v>
       </c>
       <c r="E552">
-        <v>1483.916225790964</v>
+        <v>1541.880393492826</v>
       </c>
       <c r="F552">
-        <v>2425.975047599021</v>
+        <v>2711.238532175966</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -11593,13 +11593,13 @@
         <v>22</v>
       </c>
       <c r="D553">
-        <v>1842.663464456896</v>
+        <v>2096.423278223515</v>
       </c>
       <c r="E553">
-        <v>1308.835021672037</v>
+        <v>1381.79149736305</v>
       </c>
       <c r="F553">
-        <v>2376.491907241754</v>
+        <v>2811.055059083981</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -11613,13 +11613,13 @@
         <v>22</v>
       </c>
       <c r="D554">
-        <v>1718.711839464237</v>
+        <v>2066.284679377356</v>
       </c>
       <c r="E554">
-        <v>1124.82567253975</v>
+        <v>1232.999305546384</v>
       </c>
       <c r="F554">
-        <v>2312.598006388723</v>
+        <v>2899.570053208329</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -11633,13 +11633,13 @@
         <v>22</v>
       </c>
       <c r="D555">
-        <v>1581.449428952444</v>
+        <v>2036.144509363967</v>
       </c>
       <c r="E555">
-        <v>933.9746172813109</v>
+        <v>1093.802794207686</v>
       </c>
       <c r="F555">
-        <v>2228.924240623576</v>
+        <v>2978.486224520248</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -11653,13 +11653,13 @@
         <v>22</v>
       </c>
       <c r="D556">
-        <v>1440.729570621594</v>
+        <v>2006.003316846066</v>
       </c>
       <c r="E556">
-        <v>744.2056411199048</v>
+        <v>962.7936956015926</v>
       </c>
       <c r="F556">
-        <v>2137.253500123283</v>
+        <v>3049.21293809054</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -11673,13 +11673,13 @@
         <v>22</v>
       </c>
       <c r="D557">
-        <v>1293.462218569805</v>
+        <v>1975.861458889466</v>
       </c>
       <c r="E557">
-        <v>550.9023682215902</v>
+        <v>838.7850436723136</v>
       </c>
       <c r="F557">
-        <v>2036.022068918021</v>
+        <v>3112.937874106619</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -11693,13 +11693,13 @@
         <v>22</v>
       </c>
       <c r="D558">
-        <v>1147.918121826657</v>
+        <v>1945.719167870071</v>
       </c>
       <c r="E558">
-        <v>361.9860431270614</v>
+        <v>720.7808559190119</v>
       </c>
       <c r="F558">
-        <v>1933.850200526253</v>
+        <v>3170.657479821131</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -11713,13 +11713,13 @@
         <v>22</v>
       </c>
       <c r="D559">
-        <v>1001.944981769727</v>
+        <v>1915.576595016475</v>
       </c>
       <c r="E559">
-        <v>174.9526131006675</v>
+        <v>607.9503018306393</v>
       </c>
       <c r="F559">
-        <v>1828.937350438787</v>
+        <v>3223.202888202311</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -12153,13 +12153,13 @@
         <v>23</v>
       </c>
       <c r="D581">
-        <v>1388.886968648953</v>
+        <v>1287.34639032487</v>
       </c>
       <c r="E581">
-        <v>1252.078138377091</v>
+        <v>1136.629518673079</v>
       </c>
       <c r="F581">
-        <v>1525.695798920814</v>
+        <v>1438.063261976661</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -12173,13 +12173,13 @@
         <v>23</v>
       </c>
       <c r="D582">
-        <v>1341.070145525612</v>
+        <v>1277.636483256053</v>
       </c>
       <c r="E582">
-        <v>1151.3997487845</v>
+        <v>1002.587174879797</v>
       </c>
       <c r="F582">
-        <v>1530.740542266723</v>
+        <v>1552.685791632308</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -12193,13 +12193,13 @@
         <v>23</v>
       </c>
       <c r="D583">
-        <v>1309.688258749183</v>
+        <v>1208.575145794988</v>
       </c>
       <c r="E583">
-        <v>1113.435984431067</v>
+        <v>868.333924873697</v>
       </c>
       <c r="F583">
-        <v>1505.940533067298</v>
+        <v>1548.816366716278</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -12213,13 +12213,13 @@
         <v>23</v>
       </c>
       <c r="D584">
-        <v>1229.814690453119</v>
+        <v>1173.743365968158</v>
       </c>
       <c r="E584">
-        <v>1024.960553969464</v>
+        <v>756.2645802550035</v>
       </c>
       <c r="F584">
-        <v>1434.668826936774</v>
+        <v>1591.222151681312</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -12233,13 +12233,13 @@
         <v>23</v>
       </c>
       <c r="D585">
-        <v>1147.95550354433</v>
+        <v>1083.624861278301</v>
       </c>
       <c r="E585">
-        <v>937.7140529384936</v>
+        <v>601.7352668859705</v>
       </c>
       <c r="F585">
-        <v>1358.196954150167</v>
+        <v>1565.514455670632</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -12253,13 +12253,13 @@
         <v>23</v>
       </c>
       <c r="D586">
-        <v>1095.626118632862</v>
+        <v>1048.545941679467</v>
       </c>
       <c r="E586">
-        <v>881.5362959992335</v>
+        <v>520.6583940631133</v>
       </c>
       <c r="F586">
-        <v>1309.715941266491</v>
+        <v>1576.43348929582</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -12273,13 +12273,13 @@
         <v>23</v>
       </c>
       <c r="D587">
-        <v>1026.763626430903</v>
+        <v>988.3928058576962</v>
       </c>
       <c r="E587">
-        <v>797.3309236875047</v>
+        <v>419.5981987994369</v>
       </c>
       <c r="F587">
-        <v>1256.196329174301</v>
+        <v>1557.187412915956</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -12293,13 +12293,13 @@
         <v>23</v>
       </c>
       <c r="D588">
-        <v>954.2664851789144</v>
+        <v>936.7620246507668</v>
       </c>
       <c r="E588">
-        <v>710.1886712766202</v>
+        <v>322.4797478623402</v>
       </c>
       <c r="F588">
-        <v>1198.344299081209</v>
+        <v>1551.044301439193</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -12313,13 +12313,13 @@
         <v>23</v>
       </c>
       <c r="D589">
-        <v>888.7212025153979</v>
+        <v>842.6191288344205</v>
       </c>
       <c r="E589">
-        <v>636.6360723691648</v>
+        <v>184.2979303372592</v>
       </c>
       <c r="F589">
-        <v>1140.806332661631</v>
+        <v>1500.940327331582</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -12333,13 +12333,13 @@
         <v>23</v>
       </c>
       <c r="D590">
-        <v>807.8739356967754</v>
+        <v>792.0490537098917</v>
       </c>
       <c r="E590">
-        <v>546.9798173420349</v>
+        <v>97.51237451813256</v>
       </c>
       <c r="F590">
-        <v>1068.768054051516</v>
+        <v>1486.585732901651</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -12773,13 +12773,13 @@
         <v>24</v>
       </c>
       <c r="D612">
-        <v>813.5704459908077</v>
+        <v>756.6763879498543</v>
       </c>
       <c r="E612">
-        <v>688.8218102758065</v>
+        <v>629.660395926197</v>
       </c>
       <c r="F612">
-        <v>938.3190817058089</v>
+        <v>883.6923799735116</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -12793,13 +12793,13 @@
         <v>24</v>
       </c>
       <c r="D613">
-        <v>819.4505242822136</v>
+        <v>814.1786414291981</v>
       </c>
       <c r="E613">
-        <v>693.6568576917626</v>
+        <v>636.4026405703146</v>
       </c>
       <c r="F613">
-        <v>945.2441908726645</v>
+        <v>991.9546422880817</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -12813,13 +12813,13 @@
         <v>24</v>
       </c>
       <c r="D614">
-        <v>829.4557558289363</v>
+        <v>800.2298201709427</v>
       </c>
       <c r="E614">
-        <v>702.4453845392193</v>
+        <v>594.3837917210772</v>
       </c>
       <c r="F614">
-        <v>956.4661271186533</v>
+        <v>1006.075848620808</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -12833,13 +12833,13 @@
         <v>24</v>
       </c>
       <c r="D615">
-        <v>848.2767324483696</v>
+        <v>805.6963832640922</v>
       </c>
       <c r="E615">
-        <v>721.3907031955017</v>
+        <v>567.2826826387178</v>
       </c>
       <c r="F615">
-        <v>975.1627617012374</v>
+        <v>1044.110083889467</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -12853,13 +12853,13 @@
         <v>24</v>
       </c>
       <c r="D616">
-        <v>871.8558507219386</v>
+        <v>795.6211142327795</v>
       </c>
       <c r="E616">
-        <v>744.9437250112474</v>
+        <v>534.2689997831305</v>
       </c>
       <c r="F616">
-        <v>998.7679764326299</v>
+        <v>1056.973228682428</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -12873,13 +12873,13 @@
         <v>24</v>
       </c>
       <c r="D617">
-        <v>900.8326803688897</v>
+        <v>797.993970763173</v>
       </c>
       <c r="E617">
-        <v>773.9445465769363</v>
+        <v>511.3797747987521</v>
       </c>
       <c r="F617">
-        <v>1027.720814160843</v>
+        <v>1084.608166727594</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -12893,13 +12893,13 @@
         <v>24</v>
       </c>
       <c r="D618">
-        <v>933.7365112354056</v>
+        <v>790.4036007828132</v>
       </c>
       <c r="E618">
-        <v>806.7342315275985</v>
+        <v>483.6978153320044</v>
       </c>
       <c r="F618">
-        <v>1060.738790943213</v>
+        <v>1097.109386233622</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -12913,13 +12913,13 @@
         <v>24</v>
       </c>
       <c r="D619">
-        <v>970.0290159424792</v>
+        <v>790.7945865939141</v>
       </c>
       <c r="E619">
-        <v>842.955868512953</v>
+        <v>462.8966078956145</v>
       </c>
       <c r="F619">
-        <v>1097.102163372005</v>
+        <v>1118.692565292214</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -12933,13 +12933,13 @@
         <v>24</v>
       </c>
       <c r="D620">
-        <v>1008.51567412119</v>
+        <v>784.798829663124</v>
       </c>
       <c r="E620">
-        <v>881.3562459628927</v>
+        <v>438.7709901273371</v>
       </c>
       <c r="F620">
-        <v>1135.675102279487</v>
+        <v>1130.826669198911</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -12953,13 +12953,13 @@
         <v>24</v>
       </c>
       <c r="D621">
-        <v>1048.147359750164</v>
+        <v>783.9207421947647</v>
       </c>
       <c r="E621">
-        <v>920.9186662627262</v>
+        <v>419.3194134509693</v>
       </c>
       <c r="F621">
-        <v>1175.376053237603</v>
+        <v>1148.52207093856</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -13393,13 +13393,13 @@
         <v>25</v>
       </c>
       <c r="D643">
-        <v>383.0493297992092</v>
+        <v>392.2290245496753</v>
       </c>
       <c r="E643">
-        <v>336.6675506871817</v>
+        <v>344.4712069472719</v>
       </c>
       <c r="F643">
-        <v>429.4311089112367</v>
+        <v>439.9868421520787</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -13413,13 +13413,13 @@
         <v>25</v>
       </c>
       <c r="D644">
-        <v>373.7741879639045</v>
+        <v>377.6318049799444</v>
       </c>
       <c r="E644">
-        <v>320.7211627043416</v>
+        <v>322.4350202738852</v>
       </c>
       <c r="F644">
-        <v>426.8272132234674</v>
+        <v>432.8285896860035</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -13433,13 +13433,13 @@
         <v>25</v>
       </c>
       <c r="D645">
-        <v>347.2750115089252</v>
+        <v>352.1208019174187</v>
       </c>
       <c r="E645">
-        <v>268.3918774205634</v>
+        <v>268.3589440943923</v>
       </c>
       <c r="F645">
-        <v>426.158145597287</v>
+        <v>435.8826597404451</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -13453,13 +13453,13 @@
         <v>25</v>
       </c>
       <c r="D646">
-        <v>347.8606472629456</v>
+        <v>340.58397271032</v>
       </c>
       <c r="E646">
-        <v>267.4507309341978</v>
+        <v>253.9811165977352</v>
       </c>
       <c r="F646">
-        <v>428.2705635916933</v>
+        <v>427.1868288229048</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -13473,13 +13473,13 @@
         <v>25</v>
       </c>
       <c r="D647">
-        <v>337.5046895708593</v>
+        <v>321.9647659027405</v>
       </c>
       <c r="E647">
-        <v>252.2683644030867</v>
+        <v>226.6153782830032</v>
       </c>
       <c r="F647">
-        <v>422.7410147386319</v>
+        <v>417.3141535224777</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -13493,13 +13493,13 @@
         <v>25</v>
       </c>
       <c r="D648">
-        <v>329.4788725554056</v>
+        <v>305.4508770033622</v>
       </c>
       <c r="E648">
-        <v>237.8180881115607</v>
+        <v>204.8474592520833</v>
       </c>
       <c r="F648">
-        <v>421.1396569992505</v>
+        <v>406.054294754641</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -13513,13 +13513,13 @@
         <v>25</v>
       </c>
       <c r="D649">
-        <v>318.8142031158515</v>
+        <v>287.0334173517433</v>
       </c>
       <c r="E649">
-        <v>222.3667379754783</v>
+        <v>180.3526446717143</v>
       </c>
       <c r="F649">
-        <v>415.2616682562246</v>
+        <v>393.7141900317722</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -13533,13 +13533,13 @@
         <v>25</v>
       </c>
       <c r="D650">
-        <v>305.2606684592406</v>
+        <v>268.4616124750304</v>
       </c>
       <c r="E650">
-        <v>200.4510473928539</v>
+        <v>156.4918333242656</v>
       </c>
       <c r="F650">
-        <v>410.0702895256273</v>
+        <v>380.4313916257953</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -13553,13 +13553,13 @@
         <v>25</v>
       </c>
       <c r="D651">
-        <v>299.8737027819013</v>
+        <v>248.9722285211986</v>
       </c>
       <c r="E651">
-        <v>192.1766090163799</v>
+        <v>131.7621443490681</v>
       </c>
       <c r="F651">
-        <v>407.5707965474227</v>
+        <v>366.182312693329</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -13573,13 +13573,13 @@
         <v>25</v>
       </c>
       <c r="D652">
-        <v>288.3682818996676</v>
+        <v>228.8983021834017</v>
       </c>
       <c r="E652">
-        <v>175.6611883351374</v>
+        <v>106.7523089148619</v>
       </c>
       <c r="F652">
-        <v>401.0753754641978</v>
+        <v>351.0442954519414</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -14013,13 +14013,13 @@
         <v>26</v>
       </c>
       <c r="D674">
-        <v>278.8945181213739</v>
+        <v>280.0223738026649</v>
       </c>
       <c r="E674">
-        <v>228.9065033530188</v>
+        <v>220.07061178481</v>
       </c>
       <c r="F674">
-        <v>328.8825328897291</v>
+        <v>339.9741358205197</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -14033,13 +14033,13 @@
         <v>26</v>
       </c>
       <c r="D675">
-        <v>274.7699172724961</v>
+        <v>269.667646281167</v>
       </c>
       <c r="E675">
-        <v>209.0690374501759</v>
+        <v>186.4723248180356</v>
       </c>
       <c r="F675">
-        <v>340.4707970948162</v>
+        <v>352.8629677442985</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -14053,13 +14053,13 @@
         <v>26</v>
       </c>
       <c r="D676">
-        <v>268.2685773043809</v>
+        <v>271.8430484357454</v>
       </c>
       <c r="E676">
-        <v>183.4221005190983</v>
+        <v>171.8142508921218</v>
       </c>
       <c r="F676">
-        <v>353.1150540896635</v>
+        <v>371.871845979369</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -14073,13 +14073,13 @@
         <v>26</v>
       </c>
       <c r="D677">
-        <v>273.7525885592842</v>
+        <v>273.9037040081802</v>
       </c>
       <c r="E677">
-        <v>181.2966345876402</v>
+        <v>160.4743139138484</v>
       </c>
       <c r="F677">
-        <v>366.2085425309282</v>
+        <v>387.333094102512</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -14093,13 +14093,13 @@
         <v>26</v>
       </c>
       <c r="D678">
-        <v>272.3310106760015</v>
+        <v>275.8812261312215</v>
       </c>
       <c r="E678">
-        <v>170.848937892867</v>
+        <v>151.290990439227</v>
       </c>
       <c r="F678">
-        <v>373.8130834591361</v>
+        <v>400.471461823216</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -14113,13 +14113,13 @@
         <v>26</v>
       </c>
       <c r="D679">
-        <v>268.8863089588946</v>
+        <v>277.7550492819823</v>
       </c>
       <c r="E679">
-        <v>156.8322630835616</v>
+        <v>143.6248163828514</v>
       </c>
       <c r="F679">
-        <v>380.9403548342276</v>
+        <v>411.8852821811132</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -14133,13 +14133,13 @@
         <v>26</v>
       </c>
       <c r="D680">
-        <v>270.6268460751564</v>
+        <v>279.5561582575582</v>
       </c>
       <c r="E680">
-        <v>151.4806309261645</v>
+        <v>137.1226913565944</v>
       </c>
       <c r="F680">
-        <v>389.7730612241483</v>
+        <v>421.989625158522</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -14153,13 +14153,13 @@
         <v>26</v>
       </c>
       <c r="D681">
-        <v>269.9220965276651</v>
+        <v>281.2634006497593</v>
       </c>
       <c r="E681">
-        <v>143.6513029198485</v>
+        <v>131.5145869994624</v>
       </c>
       <c r="F681">
-        <v>396.1928901354816</v>
+        <v>431.0122143000563</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -14173,13 +14173,13 @@
         <v>26</v>
       </c>
       <c r="D682">
-        <v>267.9619329480206</v>
+        <v>282.9072018440774</v>
       </c>
       <c r="E682">
-        <v>134.0709820805567</v>
+        <v>126.6481388842485</v>
       </c>
       <c r="F682">
-        <v>401.8528838154845</v>
+        <v>439.1662648039063</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -14193,13 +14193,13 @@
         <v>26</v>
       </c>
       <c r="D683">
-        <v>268.19323637236</v>
+        <v>284.4658875602591</v>
       </c>
       <c r="E683">
-        <v>127.9773892892233</v>
+        <v>122.3719367023638</v>
       </c>
       <c r="F683">
-        <v>408.4090834554967</v>
+        <v>446.5598384181545</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -14633,13 +14633,13 @@
         <v>27</v>
       </c>
       <c r="D705">
-        <v>1249.038909761511</v>
+        <v>1135.818447510247</v>
       </c>
       <c r="E705">
-        <v>1153.401307100627</v>
+        <v>976.7104977082715</v>
       </c>
       <c r="F705">
-        <v>1344.676512422395</v>
+        <v>1294.926397312223</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -14653,13 +14653,13 @@
         <v>27</v>
       </c>
       <c r="D706">
-        <v>1335.918424196247</v>
+        <v>1110.701229114869</v>
       </c>
       <c r="E706">
-        <v>1225.378530266695</v>
+        <v>898.038817736599</v>
       </c>
       <c r="F706">
-        <v>1446.458318125799</v>
+        <v>1323.363640493138</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -14673,13 +14673,13 @@
         <v>27</v>
       </c>
       <c r="D707">
-        <v>1414.367438457671</v>
+        <v>1090.539737136587</v>
       </c>
       <c r="E707">
-        <v>1295.677174509152</v>
+        <v>833.7716924626342</v>
       </c>
       <c r="F707">
-        <v>1533.057702406191</v>
+        <v>1347.307781810539</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -14693,13 +14693,13 @@
         <v>27</v>
       </c>
       <c r="D708">
-        <v>1457.692693390292</v>
+        <v>1076.117842515064</v>
       </c>
       <c r="E708">
-        <v>1336.607284276438</v>
+        <v>781.1568420907154</v>
       </c>
       <c r="F708">
-        <v>1578.778102504147</v>
+        <v>1371.078842939413</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -14713,13 +14713,13 @@
         <v>27</v>
       </c>
       <c r="D709">
-        <v>1517.001585936441</v>
+        <v>1068.166534193134</v>
       </c>
       <c r="E709">
-        <v>1395.891497192503</v>
+        <v>739.5270730806619</v>
       </c>
       <c r="F709">
-        <v>1638.111674680378</v>
+        <v>1396.805995305606</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -14733,13 +14733,13 @@
         <v>27</v>
       </c>
       <c r="D710">
-        <v>1556.031193987472</v>
+        <v>1067.357698408185</v>
       </c>
       <c r="E710">
-        <v>1433.884611916772</v>
+        <v>708.8858989901571</v>
       </c>
       <c r="F710">
-        <v>1678.177776058172</v>
+        <v>1425.829497826214</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -14753,13 +14753,13 @@
         <v>27</v>
       </c>
       <c r="D711">
-        <v>1565.909284121596</v>
+        <v>1074.298436294781</v>
       </c>
       <c r="E711">
-        <v>1441.73940941548</v>
+        <v>689.4837144039591</v>
       </c>
       <c r="F711">
-        <v>1690.079158827711</v>
+        <v>1459.113158185603</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -14773,13 +14773,13 @@
         <v>27</v>
       </c>
       <c r="D712">
-        <v>1526.199373069892</v>
+        <v>1089.525967727192</v>
       </c>
       <c r="E712">
-        <v>1388.458929553505</v>
+        <v>681.6477036651404</v>
       </c>
       <c r="F712">
-        <v>1663.93981658628</v>
+        <v>1497.404231789244</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -14793,13 +14793,13 @@
         <v>27</v>
       </c>
       <c r="D713">
-        <v>1481.559862506331</v>
+        <v>1113.503164037416</v>
       </c>
       <c r="E713">
-        <v>1337.269295795687</v>
+        <v>685.6999937708147</v>
       </c>
       <c r="F713">
-        <v>1625.850429216974</v>
+        <v>1541.306334304018</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -14813,13 +14813,13 @@
         <v>27</v>
       </c>
       <c r="D714">
-        <v>1447.945349741208</v>
+        <v>1146.614746595722</v>
       </c>
       <c r="E714">
-        <v>1302.446961964803</v>
+        <v>701.9128924935508</v>
       </c>
       <c r="F714">
-        <v>1593.443737517612</v>
+        <v>1591.316600697893</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -15253,13 +15253,13 @@
         <v>28</v>
       </c>
       <c r="D736">
-        <v>401.7948536673549</v>
+        <v>354.2227173164242</v>
       </c>
       <c r="E736">
-        <v>346.5032427627542</v>
+        <v>282.6326486861229</v>
       </c>
       <c r="F736">
-        <v>457.0864645719556</v>
+        <v>425.8127859467254</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15273,13 +15273,13 @@
         <v>28</v>
       </c>
       <c r="D737">
-        <v>368.8376141486519</v>
+        <v>346.3043389251499</v>
       </c>
       <c r="E737">
-        <v>297.9724206650133</v>
+        <v>263.8019017015274</v>
       </c>
       <c r="F737">
-        <v>439.7028076322906</v>
+        <v>428.8067761487723</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -15293,13 +15293,13 @@
         <v>28</v>
       </c>
       <c r="D738">
-        <v>353.3838819292406</v>
+        <v>335.3686449431997</v>
       </c>
       <c r="E738">
-        <v>264.8088099839201</v>
+        <v>235.0942285978996</v>
       </c>
       <c r="F738">
-        <v>441.9589538745611</v>
+        <v>435.6430612884997</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -15313,13 +15313,13 @@
         <v>28</v>
       </c>
       <c r="D739">
-        <v>373.8517834861719</v>
+        <v>327.6778348887643</v>
       </c>
       <c r="E739">
-        <v>270.9298903066675</v>
+        <v>215.3048157195165</v>
       </c>
       <c r="F739">
-        <v>476.7736766656764</v>
+        <v>440.0508540580121</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -15333,13 +15333,13 @@
         <v>28</v>
       </c>
       <c r="D740">
-        <v>326.6359416274526</v>
+        <v>320.6505668476887</v>
       </c>
       <c r="E740">
-        <v>214.4474335859435</v>
+        <v>195.9380938849403</v>
       </c>
       <c r="F740">
-        <v>438.8244496689616</v>
+        <v>445.3630398104372</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -15353,13 +15353,13 @@
         <v>28</v>
       </c>
       <c r="D741">
-        <v>329.416755472838</v>
+        <v>315.7685385929264</v>
       </c>
       <c r="E741">
-        <v>204.2436119822115</v>
+        <v>180.5369747879343</v>
       </c>
       <c r="F741">
-        <v>454.5898989634645</v>
+        <v>451.0001023979186</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -15373,13 +15373,13 @@
         <v>28</v>
       </c>
       <c r="D742">
-        <v>331.302121618409</v>
+        <v>312.6203326565878</v>
       </c>
       <c r="E742">
-        <v>196.8830111546108</v>
+        <v>167.6580041047558</v>
       </c>
       <c r="F742">
-        <v>465.7212320822073</v>
+        <v>457.5826612084198</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -15393,13 +15393,13 @@
         <v>28</v>
       </c>
       <c r="D743">
-        <v>283.546411221409</v>
+        <v>311.6472361811625</v>
       </c>
       <c r="E743">
-        <v>141.209672419413</v>
+        <v>158.0867132449241</v>
       </c>
       <c r="F743">
-        <v>425.883150023405</v>
+        <v>465.2077591174009</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -15413,13 +15413,13 @@
         <v>28</v>
       </c>
       <c r="D744">
-        <v>300.3246065905593</v>
+        <v>312.8747870031928</v>
       </c>
       <c r="E744">
-        <v>147.3485062754419</v>
+        <v>151.6459921588602</v>
       </c>
       <c r="F744">
-        <v>453.3007069056766</v>
+        <v>474.1035818475254</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -15433,13 +15433,13 @@
         <v>28</v>
       </c>
       <c r="D745">
-        <v>280.8208613914715</v>
+        <v>316.4963681983393</v>
       </c>
       <c r="E745">
-        <v>121.0363999343766</v>
+        <v>148.5770771402332</v>
       </c>
       <c r="F745">
-        <v>440.6053228485665</v>
+        <v>484.4156592564455</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -15873,13 +15873,13 @@
         <v>29</v>
       </c>
       <c r="D767">
-        <v>444.4530008404233</v>
+        <v>424.8997730366291</v>
       </c>
       <c r="E767">
-        <v>409.2481264349457</v>
+        <v>378.7889504381608</v>
       </c>
       <c r="F767">
-        <v>479.657875245901</v>
+        <v>471.0105956350975</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -15893,13 +15893,13 @@
         <v>29</v>
       </c>
       <c r="D768">
-        <v>466.124145558891</v>
+        <v>393.8825095322324</v>
       </c>
       <c r="E768">
-        <v>430.4260832272305</v>
+        <v>341.7965310645061</v>
       </c>
       <c r="F768">
-        <v>501.8222078905514</v>
+        <v>445.9684879999587</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -15913,13 +15913,13 @@
         <v>29</v>
       </c>
       <c r="D769">
-        <v>482.2876846089979</v>
+        <v>379.0671551045737</v>
       </c>
       <c r="E769">
-        <v>446.319248403667</v>
+        <v>291.0778175285452</v>
       </c>
       <c r="F769">
-        <v>518.2561208143288</v>
+        <v>467.0564926806023</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -15933,13 +15933,13 @@
         <v>29</v>
       </c>
       <c r="D770">
-        <v>512.8281978847937</v>
+        <v>386.1628971757288</v>
       </c>
       <c r="E770">
-        <v>476.7364277329803</v>
+        <v>296.0350282427195</v>
       </c>
       <c r="F770">
-        <v>548.9199680366071</v>
+        <v>476.2907661087381</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -15953,13 +15953,13 @@
         <v>29</v>
       </c>
       <c r="D771">
-        <v>541.7721888128838</v>
+        <v>367.771157749311</v>
       </c>
       <c r="E771">
-        <v>505.3088214163518</v>
+        <v>272.9041480911563</v>
       </c>
       <c r="F771">
-        <v>578.2355562094157</v>
+        <v>462.6381674074657</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -15973,13 +15973,13 @@
         <v>29</v>
       </c>
       <c r="D772">
-        <v>581.2866851234442</v>
+        <v>371.4067635834696</v>
       </c>
       <c r="E772">
-        <v>543.4268886775734</v>
+        <v>276.7496137642697</v>
       </c>
       <c r="F772">
-        <v>619.1464815693149</v>
+        <v>466.0639134026696</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -15993,13 +15993,13 @@
         <v>29</v>
       </c>
       <c r="D773">
-        <v>618.1646919424991</v>
+        <v>360.528169779713</v>
       </c>
       <c r="E773">
-        <v>578.9821508152776</v>
+        <v>265.8445897457351</v>
       </c>
       <c r="F773">
-        <v>657.3472330697206</v>
+        <v>455.211749813691</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -16013,13 +16013,13 @@
         <v>29</v>
       </c>
       <c r="D774">
-        <v>659.7498053119036</v>
+        <v>360.5793067354334</v>
       </c>
       <c r="E774">
-        <v>619.0511358097013</v>
+        <v>265.9548713612306</v>
       </c>
       <c r="F774">
-        <v>700.4484748141059</v>
+        <v>455.2037421096362</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -16033,13 +16033,13 @@
         <v>29</v>
       </c>
       <c r="D775">
-        <v>695.6775435095705</v>
+        <v>344.0246588425962</v>
       </c>
       <c r="E775">
-        <v>654.2493595166413</v>
+        <v>249.3998115606302</v>
       </c>
       <c r="F775">
-        <v>737.1057275024996</v>
+        <v>438.6495061245622</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -16053,13 +16053,13 @@
         <v>29</v>
       </c>
       <c r="D776">
-        <v>731.0254805757224</v>
+        <v>340.6055363460082</v>
       </c>
       <c r="E776">
-        <v>689.267432992322</v>
+        <v>246.2208079064898</v>
       </c>
       <c r="F776">
-        <v>772.7835281591229</v>
+        <v>434.9902647855266</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16493,13 +16493,13 @@
         <v>30</v>
       </c>
       <c r="D798">
-        <v>829.7677541923852</v>
+        <v>751.0436487971268</v>
       </c>
       <c r="E798">
-        <v>756.0259187959482</v>
+        <v>650.1154932301606</v>
       </c>
       <c r="F798">
-        <v>903.5095895888221</v>
+        <v>851.971804364093</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -16513,13 +16513,13 @@
         <v>30</v>
       </c>
       <c r="D799">
-        <v>820.649236800121</v>
+        <v>744.261015153526</v>
       </c>
       <c r="E799">
-        <v>744.8722064065015</v>
+        <v>614.7941618842532</v>
       </c>
       <c r="F799">
-        <v>896.4262671937405</v>
+        <v>873.7278684227989</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -16533,13 +16533,13 @@
         <v>30</v>
       </c>
       <c r="D800">
-        <v>790.0334122580882</v>
+        <v>707.1089030330304</v>
       </c>
       <c r="E800">
-        <v>709.7656468543231</v>
+        <v>569.4585208042538</v>
       </c>
       <c r="F800">
-        <v>870.3011776618533</v>
+        <v>844.759285261807</v>
       </c>
     </row>
     <row r="801" spans="1:6">
@@ -16553,13 +16553,13 @@
         <v>30</v>
       </c>
       <c r="D801">
-        <v>824.6163633694906</v>
+        <v>686.1920928243941</v>
       </c>
       <c r="E801">
-        <v>705.991009089967</v>
+        <v>531.9253738881002</v>
       </c>
       <c r="F801">
-        <v>943.2417176490143</v>
+        <v>840.4588117606879</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -16573,13 +16573,13 @@
         <v>30</v>
       </c>
       <c r="D802">
-        <v>832.0212013136712</v>
+        <v>656.2693186408993</v>
       </c>
       <c r="E802">
-        <v>700.5478297248244</v>
+        <v>492.6874184336723</v>
       </c>
       <c r="F802">
-        <v>963.494572902518</v>
+        <v>819.8512188481263</v>
       </c>
     </row>
     <row r="803" spans="1:6">
@@ -16593,13 +16593,13 @@
         <v>30</v>
       </c>
       <c r="D803">
-        <v>858.4893676627049</v>
+        <v>630.9694468018462</v>
       </c>
       <c r="E803">
-        <v>708.4437522213773</v>
+        <v>455.106901626034</v>
       </c>
       <c r="F803">
-        <v>1008.534983104033</v>
+        <v>806.8319919776584</v>
       </c>
     </row>
     <row r="804" spans="1:6">
@@ -16613,13 +16613,13 @@
         <v>30</v>
       </c>
       <c r="D804">
-        <v>879.5897753858499</v>
+        <v>600.8590428068889</v>
       </c>
       <c r="E804">
-        <v>716.3185133200436</v>
+        <v>415.7398173182838</v>
       </c>
       <c r="F804">
-        <v>1042.861037451656</v>
+        <v>785.9782682954939</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -16633,13 +16633,13 @@
         <v>30</v>
       </c>
       <c r="D805">
-        <v>906.6906610965628</v>
+        <v>572.1818682537041</v>
       </c>
       <c r="E805">
-        <v>729.6665647985221</v>
+        <v>376.8577539698172</v>
       </c>
       <c r="F805">
-        <v>1083.714757394604</v>
+        <v>767.5059825375911</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -16653,13 +16653,13 @@
         <v>30</v>
       </c>
       <c r="D806">
-        <v>932.8352058206522</v>
+        <v>540.7745297715265</v>
       </c>
       <c r="E806">
-        <v>743.7827204054172</v>
+        <v>336.6442773362561</v>
       </c>
       <c r="F806">
-        <v>1121.887691235887</v>
+        <v>744.904782206797</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -16673,13 +16673,13 @@
         <v>30</v>
       </c>
       <c r="D807">
-        <v>960.3006032014074</v>
+        <v>509.4096445638802</v>
       </c>
       <c r="E807">
-        <v>759.5922081672998</v>
+        <v>296.2717120321743</v>
       </c>
       <c r="F807">
-        <v>1161.008998235515</v>
+        <v>722.5475770955861</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -17113,13 +17113,13 @@
         <v>31</v>
       </c>
       <c r="D829">
-        <v>271.8454864224333</v>
+        <v>278.8565420425251</v>
       </c>
       <c r="E829">
-        <v>239.4427272365666</v>
+        <v>227.2154042438972</v>
       </c>
       <c r="F829">
-        <v>304.2482456083001</v>
+        <v>330.497679841153</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -17133,13 +17133,13 @@
         <v>31</v>
       </c>
       <c r="D830">
-        <v>294.3476940278397</v>
+        <v>286.975915304914</v>
       </c>
       <c r="E830">
-        <v>252.9610664672825</v>
+        <v>224.812687718025</v>
       </c>
       <c r="F830">
-        <v>335.7343215883969</v>
+        <v>349.139142891803</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -17153,13 +17153,13 @@
         <v>31</v>
       </c>
       <c r="D831">
-        <v>286.6018267224255</v>
+        <v>280.6542240990108</v>
       </c>
       <c r="E831">
-        <v>237.8790157777099</v>
+        <v>194.9229383643507</v>
       </c>
       <c r="F831">
-        <v>335.3246376671411</v>
+        <v>366.385509833671</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -17173,13 +17173,13 @@
         <v>31</v>
       </c>
       <c r="D832">
-        <v>267.9765963822551</v>
+        <v>282.4820607495088</v>
       </c>
       <c r="E832">
-        <v>213.9727271376441</v>
+        <v>185.150056697486</v>
       </c>
       <c r="F832">
-        <v>321.9804656268662</v>
+        <v>379.8140648015317</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -17193,13 +17193,13 @@
         <v>31</v>
       </c>
       <c r="D833">
-        <v>284.0195458799308</v>
+        <v>283.6032425002758</v>
       </c>
       <c r="E833">
-        <v>225.8376493072975</v>
+        <v>172.7994066769152</v>
       </c>
       <c r="F833">
-        <v>342.201442452564</v>
+        <v>394.4070783236364</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -17213,13 +17213,13 @@
         <v>31</v>
       </c>
       <c r="D834">
-        <v>258.387100800879</v>
+        <v>282.89736504264</v>
       </c>
       <c r="E834">
-        <v>189.0392925758035</v>
+        <v>161.616708488932</v>
       </c>
       <c r="F834">
-        <v>327.7349090259545</v>
+        <v>404.1780215963479</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -17233,13 +17233,13 @@
         <v>31</v>
       </c>
       <c r="D835">
-        <v>279.0584432554861</v>
+        <v>282.9037794613864</v>
       </c>
       <c r="E835">
-        <v>205.3218474655366</v>
+        <v>151.2425189880763</v>
       </c>
       <c r="F835">
-        <v>352.7950390454355</v>
+        <v>414.5650399346964</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -17253,13 +17253,13 @@
         <v>31</v>
       </c>
       <c r="D836">
-        <v>259.8584137627324</v>
+        <v>281.6053563215656</v>
       </c>
       <c r="E836">
-        <v>179.6838375606472</v>
+        <v>140.6922993321225</v>
       </c>
       <c r="F836">
-        <v>340.0329899648177</v>
+        <v>422.5184133110088</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -17273,13 +17273,13 @@
         <v>31</v>
       </c>
       <c r="D837">
-        <v>254.9446582198509</v>
+        <v>283.9912333488231</v>
       </c>
       <c r="E837">
-        <v>170.485393865463</v>
+        <v>134.2143537073954</v>
       </c>
       <c r="F837">
-        <v>339.4039225742389</v>
+        <v>433.7681129902509</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -17293,13 +17293,13 @@
         <v>31</v>
       </c>
       <c r="D838">
-        <v>260.761948063394</v>
+        <v>282.4286547543684</v>
       </c>
       <c r="E838">
-        <v>171.9304614428821</v>
+        <v>124.3761420686936</v>
       </c>
       <c r="F838">
-        <v>349.5934346839059</v>
+        <v>440.4811674400432</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -17733,13 +17733,13 @@
         <v>32</v>
       </c>
       <c r="D860">
-        <v>201.2623200898365</v>
+        <v>191.2920684125157</v>
       </c>
       <c r="E860">
-        <v>174.0855835412737</v>
+        <v>155.101454439882</v>
       </c>
       <c r="F860">
-        <v>228.4390566383992</v>
+        <v>227.4826823851494</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -17753,13 +17753,13 @@
         <v>32</v>
       </c>
       <c r="D861">
-        <v>204.2931660932445</v>
+        <v>196.6436659574791</v>
       </c>
       <c r="E861">
-        <v>176.9735986676054</v>
+        <v>156.3807878125565</v>
       </c>
       <c r="F861">
-        <v>231.6127335188835</v>
+        <v>236.9065441024017</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -17773,13 +17773,13 @@
         <v>32</v>
       </c>
       <c r="D862">
-        <v>208.6436292267179</v>
+        <v>197.3675632920156</v>
       </c>
       <c r="E862">
-        <v>181.1209540109916</v>
+        <v>150.546942743121</v>
       </c>
       <c r="F862">
-        <v>236.1663044424442</v>
+        <v>244.1881838409102</v>
       </c>
     </row>
     <row r="863" spans="1:6">
@@ -17793,13 +17793,13 @@
         <v>32</v>
       </c>
       <c r="D863">
-        <v>206.465860078781</v>
+        <v>195.1643565811917</v>
       </c>
       <c r="E863">
-        <v>178.9261860051376</v>
+        <v>142.5714507436472</v>
       </c>
       <c r="F863">
-        <v>234.0055341524244</v>
+        <v>247.7572624187362</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -17813,13 +17813,13 @@
         <v>32</v>
       </c>
       <c r="D864">
-        <v>202.6234754675612</v>
+        <v>195.9431284638806</v>
       </c>
       <c r="E864">
-        <v>175.0224935499144</v>
+        <v>139.1364982164179</v>
       </c>
       <c r="F864">
-        <v>230.224457385208</v>
+        <v>252.7497587113433</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -17833,13 +17833,13 @@
         <v>32</v>
       </c>
       <c r="D865">
-        <v>200.3368128729606</v>
+        <v>194.9483298943427</v>
       </c>
       <c r="E865">
-        <v>172.6922440903688</v>
+        <v>133.2947730843369</v>
       </c>
       <c r="F865">
-        <v>227.9813816555524</v>
+        <v>256.6018867043484</v>
       </c>
     </row>
     <row r="866" spans="1:6">
@@ -17853,13 +17853,13 @@
         <v>32</v>
       </c>
       <c r="D866">
-        <v>202.6918828300804</v>
+        <v>194.6377751826224</v>
       </c>
       <c r="E866">
-        <v>174.998009084868</v>
+        <v>129.140519646689</v>
       </c>
       <c r="F866">
-        <v>230.3857565752929</v>
+        <v>260.1350307185559</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -17873,13 +17873,13 @@
         <v>32</v>
       </c>
       <c r="D867">
-        <v>201.9421156608366</v>
+        <v>194.2710013172091</v>
       </c>
       <c r="E867">
-        <v>174.2010518109014</v>
+        <v>124.840878039357</v>
       </c>
       <c r="F867">
-        <v>229.6831795107717</v>
+        <v>263.7011245950613</v>
       </c>
     </row>
     <row r="868" spans="1:6">
@@ -17893,13 +17893,13 @@
         <v>32</v>
       </c>
       <c r="D868">
-        <v>197.7657394319738</v>
+        <v>193.7947249294401</v>
       </c>
       <c r="E868">
-        <v>169.9768707570116</v>
+        <v>120.7762554049289</v>
       </c>
       <c r="F868">
-        <v>225.554608106936</v>
+        <v>266.8131944539513</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -17913,13 +17913,13 @@
         <v>32</v>
       </c>
       <c r="D869">
-        <v>193.6899201757149</v>
+        <v>193.4128306809113</v>
       </c>
       <c r="E869">
-        <v>165.853568740983</v>
+        <v>116.977595125922</v>
       </c>
       <c r="F869">
-        <v>221.5262716104468</v>
+        <v>269.8480662359006</v>
       </c>
     </row>
     <row r="870" spans="1:6">
@@ -18353,13 +18353,13 @@
         <v>33</v>
       </c>
       <c r="D891">
-        <v>1515.44157432993</v>
+        <v>1410.279907407802</v>
       </c>
       <c r="E891">
-        <v>1356.258070609885</v>
+        <v>1284.330384467279</v>
       </c>
       <c r="F891">
-        <v>1674.625078049976</v>
+        <v>1536.229430348325</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -18373,13 +18373,13 @@
         <v>33</v>
       </c>
       <c r="D892">
-        <v>1529.419393621953</v>
+        <v>1562.979236904067</v>
       </c>
       <c r="E892">
-        <v>1318.813118523395</v>
+        <v>1334.595167708826</v>
       </c>
       <c r="F892">
-        <v>1740.02566872051</v>
+        <v>1791.363306099309</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -18393,13 +18393,13 @@
         <v>33</v>
       </c>
       <c r="D893">
-        <v>1453.009178011715</v>
+        <v>1524.566895276655</v>
       </c>
       <c r="E893">
-        <v>1173.614780216132</v>
+        <v>1239.222106507856</v>
       </c>
       <c r="F893">
-        <v>1732.403575807298</v>
+        <v>1809.911684045454</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -18413,13 +18413,13 @@
         <v>33</v>
       </c>
       <c r="D894">
-        <v>1403.785755617045</v>
+        <v>1489.386023695133</v>
       </c>
       <c r="E894">
-        <v>1051.129170461856</v>
+        <v>1120.510984629149</v>
       </c>
       <c r="F894">
-        <v>1756.442340772234</v>
+        <v>1858.261062761117</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -18433,13 +18433,13 @@
         <v>33</v>
       </c>
       <c r="D895">
-        <v>1403.384899773789</v>
+        <v>1521.333279141559</v>
       </c>
       <c r="E895">
-        <v>1010.330867527293</v>
+        <v>1092.919839086532</v>
       </c>
       <c r="F895">
-        <v>1796.438932020284</v>
+        <v>1949.746719196585</v>
       </c>
     </row>
     <row r="896" spans="1:6">
@@ -18453,13 +18453,13 @@
         <v>33</v>
       </c>
       <c r="D896">
-        <v>1350.99720794677</v>
+        <v>1535.532865807854</v>
       </c>
       <c r="E896">
-        <v>922.5617369029419</v>
+        <v>1074.225144702172</v>
       </c>
       <c r="F896">
-        <v>1779.432678990598</v>
+        <v>1996.840586913536</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -18473,13 +18473,13 @@
         <v>33</v>
       </c>
       <c r="D897">
-        <v>1276.53577985219</v>
+        <v>1486.456226320019</v>
       </c>
       <c r="E897">
-        <v>801.7705804089683</v>
+        <v>979.6803380510821</v>
       </c>
       <c r="F897">
-        <v>1751.300979295412</v>
+        <v>1993.232114588956</v>
       </c>
     </row>
     <row r="898" spans="1:6">
@@ -18493,13 +18493,13 @@
         <v>33</v>
       </c>
       <c r="D898">
-        <v>1247.359317060106</v>
+        <v>1498.902625347916</v>
       </c>
       <c r="E898">
-        <v>735.5333983790372</v>
+        <v>942.184403841221</v>
       </c>
       <c r="F898">
-        <v>1759.185235741175</v>
+        <v>2055.62084685461</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -18513,13 +18513,13 @@
         <v>33</v>
       </c>
       <c r="D899">
-        <v>1207.937187735621</v>
+        <v>1519.035431635177</v>
       </c>
       <c r="E899">
-        <v>668.2839784191127</v>
+        <v>932.1649015806862</v>
       </c>
       <c r="F899">
-        <v>1747.59039705213</v>
+        <v>2105.905961689667</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -18533,13 +18533,13 @@
         <v>33</v>
       </c>
       <c r="D900">
-        <v>1134.285842125344</v>
+        <v>1495.076623173428</v>
       </c>
       <c r="E900">
-        <v>561.8882513441679</v>
+        <v>877.894406119989</v>
       </c>
       <c r="F900">
-        <v>1706.683432906519</v>
+        <v>2112.258840226867</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -18973,13 +18973,13 @@
         <v>34</v>
       </c>
       <c r="D922">
-        <v>2774.552592939363</v>
+        <v>1879.74930432391</v>
       </c>
       <c r="E922">
-        <v>2558.119836853208</v>
+        <v>1585.670532950481</v>
       </c>
       <c r="F922">
-        <v>2990.985349025519</v>
+        <v>2173.828075697339</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -18993,13 +18993,13 @@
         <v>34</v>
       </c>
       <c r="D923">
-        <v>2877.323162939165</v>
+        <v>2096.406114992711</v>
       </c>
       <c r="E923">
-        <v>2627.662216157638</v>
+        <v>1765.652759227472</v>
       </c>
       <c r="F923">
-        <v>3126.984109720691</v>
+        <v>2427.159470757951</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19013,13 +19013,13 @@
         <v>34</v>
       </c>
       <c r="D924">
-        <v>2981.551912146485</v>
+        <v>1591.392511519385</v>
       </c>
       <c r="E924">
-        <v>2731.823670471819</v>
+        <v>1259.222814554981</v>
       </c>
       <c r="F924">
-        <v>3231.280153821152</v>
+        <v>1923.562208483789</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -19033,13 +19033,13 @@
         <v>34</v>
       </c>
       <c r="D925">
-        <v>3095.825653221259</v>
+        <v>1631.222864885109</v>
       </c>
       <c r="E925">
-        <v>2845.835748892374</v>
+        <v>1292.296122012032</v>
       </c>
       <c r="F925">
-        <v>3345.815557550143</v>
+        <v>1970.149607758186</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -19053,13 +19053,13 @@
         <v>34</v>
       </c>
       <c r="D926">
-        <v>3224.115406396154</v>
+        <v>1166.659767970959</v>
       </c>
       <c r="E926">
-        <v>2964.65898799831</v>
+        <v>820.0097867402743</v>
       </c>
       <c r="F926">
-        <v>3483.571824793998</v>
+        <v>1513.309749201645</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -19073,13 +19073,13 @@
         <v>34</v>
       </c>
       <c r="D927">
-        <v>3319.917844392995</v>
+        <v>1238.2540002558</v>
       </c>
       <c r="E927">
-        <v>3059.958932906776</v>
+        <v>884.2372319819551</v>
       </c>
       <c r="F927">
-        <v>3579.876755879214</v>
+        <v>1592.270768529645</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -19093,13 +19093,13 @@
         <v>34</v>
       </c>
       <c r="D928">
-        <v>3270.376450159763</v>
+        <v>799.0430531474024</v>
       </c>
       <c r="E928">
-        <v>3003.721126844749</v>
+        <v>438.2348400090437</v>
       </c>
       <c r="F928">
-        <v>3537.031773474777</v>
+        <v>1159.851266285761</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -19113,13 +19113,13 @@
         <v>34</v>
       </c>
       <c r="D929">
-        <v>3166.619945018792</v>
+        <v>896.3435668264121</v>
       </c>
       <c r="E929">
-        <v>2861.870521324751</v>
+        <v>529.3095131964178</v>
       </c>
       <c r="F929">
-        <v>3471.369368712833</v>
+        <v>1263.377620456406</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -19133,13 +19133,13 @@
         <v>34</v>
       </c>
       <c r="D930">
-        <v>3060.691219437804</v>
+        <v>478.9254717918279</v>
       </c>
       <c r="E930">
-        <v>2749.366658261397</v>
+        <v>106.1832139771787</v>
       </c>
       <c r="F930">
-        <v>3372.015780614211</v>
+        <v>851.667729606477</v>
       </c>
     </row>
     <row r="931" spans="1:6">
@@ -19153,13 +19153,13 @@
         <v>34</v>
       </c>
       <c r="D931">
-        <v>2944.102432433657</v>
+        <v>597.7993267167523</v>
       </c>
       <c r="E931">
-        <v>2630.447707476399</v>
+        <v>219.8170687698295</v>
       </c>
       <c r="F931">
-        <v>3257.757157390916</v>
+        <v>975.7815846636751</v>
       </c>
     </row>
     <row r="932" spans="1:6">
@@ -19593,13 +19593,13 @@
         <v>35</v>
       </c>
       <c r="D953">
-        <v>974.8288363102548</v>
+        <v>974.8504084982325</v>
       </c>
       <c r="E953">
-        <v>813.1883509769524</v>
+        <v>835.7598990404348</v>
       </c>
       <c r="F953">
-        <v>1136.469321643557</v>
+        <v>1113.94091795603</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -19613,13 +19613,13 @@
         <v>35</v>
       </c>
       <c r="D954">
-        <v>969.2350827508578</v>
+        <v>997.0548377012219</v>
       </c>
       <c r="E954">
-        <v>767.9536870456134</v>
+        <v>808.3612650197671</v>
       </c>
       <c r="F954">
-        <v>1170.516478456102</v>
+        <v>1185.748410382677</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -19633,13 +19633,13 @@
         <v>35</v>
       </c>
       <c r="D955">
-        <v>961.8397243104195</v>
+        <v>938.4070065696266</v>
       </c>
       <c r="E955">
-        <v>716.7254356884916</v>
+        <v>653.578768277432</v>
       </c>
       <c r="F955">
-        <v>1206.954012932347</v>
+        <v>1223.235244861821</v>
       </c>
     </row>
     <row r="956" spans="1:6">
@@ -19653,13 +19653,13 @@
         <v>35</v>
       </c>
       <c r="D956">
-        <v>964.7256211032543</v>
+        <v>931.519166806105</v>
       </c>
       <c r="E956">
-        <v>687.1077776678808</v>
+        <v>534.3829424774771</v>
       </c>
       <c r="F956">
-        <v>1242.343464538628</v>
+        <v>1328.655391134733</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -19673,13 +19673,13 @@
         <v>35</v>
       </c>
       <c r="D957">
-        <v>963.3481268132842</v>
+        <v>886.924231494075</v>
       </c>
       <c r="E957">
-        <v>654.687389171997</v>
+        <v>426.3457498992046</v>
       </c>
       <c r="F957">
-        <v>1272.008864454571</v>
+        <v>1347.502713088945</v>
       </c>
     </row>
     <row r="958" spans="1:6">
@@ -19693,13 +19693,13 @@
         <v>35</v>
       </c>
       <c r="D958">
-        <v>962.5177164918156</v>
+        <v>866.0596922099501</v>
       </c>
       <c r="E958">
-        <v>626.5297762986133</v>
+        <v>335.6002915101525</v>
       </c>
       <c r="F958">
-        <v>1298.505656685018</v>
+        <v>1396.519092909748</v>
       </c>
     </row>
     <row r="959" spans="1:6">
@@ -19713,13 +19713,13 @@
         <v>35</v>
       </c>
       <c r="D959">
-        <v>968.0822650148604</v>
+        <v>826.7024753866366</v>
       </c>
       <c r="E959">
-        <v>606.4442098947566</v>
+        <v>243.3819731993614</v>
       </c>
       <c r="F959">
-        <v>1329.720320134964</v>
+        <v>1410.022977573912</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -19733,13 +19733,13 @@
         <v>35</v>
       </c>
       <c r="D960">
-        <v>962.0744592075175</v>
+        <v>797.8367100285607</v>
       </c>
       <c r="E960">
-        <v>576.6614408897162</v>
+        <v>160.5137708624835</v>
       </c>
       <c r="F960">
-        <v>1347.487477525319</v>
+        <v>1435.159649194638</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -19753,13 +19753,13 @@
         <v>35</v>
       </c>
       <c r="D961">
-        <v>968.263479524207</v>
+        <v>759.5323885029743</v>
       </c>
       <c r="E961">
-        <v>560.381296442804</v>
+        <v>75.99779215120441</v>
       </c>
       <c r="F961">
-        <v>1376.14566260561</v>
+        <v>1443.066984854744</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -19773,13 +19773,13 @@
         <v>35</v>
       </c>
       <c r="D962">
-        <v>960.8203115747223</v>
+        <v>725.4600406250272</v>
       </c>
       <c r="E962">
-        <v>531.6791391746387</v>
+        <v>-3.642410829179994</v>
       </c>
       <c r="F962">
-        <v>1389.961483974806</v>
+        <v>1454.562492079234</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -20213,13 +20213,13 @@
         <v>36</v>
       </c>
       <c r="D984">
-        <v>826.7151976416969</v>
+        <v>716.8554070399017</v>
       </c>
       <c r="E984">
-        <v>738.7483747829161</v>
+        <v>620.1968943740319</v>
       </c>
       <c r="F984">
-        <v>914.6820205004777</v>
+        <v>813.5139197057715</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -20233,13 +20233,13 @@
         <v>36</v>
       </c>
       <c r="D985">
-        <v>940.9586816122012</v>
+        <v>804.7692956127992</v>
       </c>
       <c r="E985">
-        <v>840.2030671496035</v>
+        <v>701.6274707822131</v>
       </c>
       <c r="F985">
-        <v>1041.714296074799</v>
+        <v>907.9111204433852</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -20253,13 +20253,13 @@
         <v>36</v>
       </c>
       <c r="D986">
-        <v>858.852621781873</v>
+        <v>748.2104342221105</v>
       </c>
       <c r="E986">
-        <v>737.0953395753684</v>
+        <v>600.471810575998</v>
       </c>
       <c r="F986">
-        <v>980.6099039883777</v>
+        <v>895.949057868223</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -20273,13 +20273,13 @@
         <v>36</v>
       </c>
       <c r="D987">
-        <v>930.1496838726662</v>
+        <v>725.4395839540251</v>
       </c>
       <c r="E987">
-        <v>794.8478558758194</v>
+        <v>569.9934949312244</v>
       </c>
       <c r="F987">
-        <v>1065.451511869513</v>
+        <v>880.8856729768258</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -20293,13 +20293,13 @@
         <v>36</v>
       </c>
       <c r="D988">
-        <v>910.663831464067</v>
+        <v>685.9433491106142</v>
       </c>
       <c r="E988">
-        <v>761.7073221598222</v>
+        <v>528.5874366408807</v>
       </c>
       <c r="F988">
-        <v>1059.620340768312</v>
+        <v>843.2992615803478</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -20313,13 +20313,13 @@
         <v>36</v>
       </c>
       <c r="D989">
-        <v>931.2127181795424</v>
+        <v>655.7797129509827</v>
       </c>
       <c r="E989">
-        <v>769.4283698036082</v>
+        <v>497.8324041602003</v>
       </c>
       <c r="F989">
-        <v>1092.997066555477</v>
+        <v>813.727021741765</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -20333,13 +20333,13 @@
         <v>36</v>
       </c>
       <c r="D990">
-        <v>933.3990155530853</v>
+        <v>618.1765949795104</v>
       </c>
       <c r="E990">
-        <v>760.393762154372</v>
+        <v>460.0160937426754</v>
       </c>
       <c r="F990">
-        <v>1106.404268951799</v>
+        <v>776.3370962163453</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -20353,13 +20353,13 @@
         <v>36</v>
       </c>
       <c r="D991">
-        <v>942.5776708841316</v>
+        <v>582.6292153689132</v>
       </c>
       <c r="E991">
-        <v>758.8715881400957</v>
+        <v>424.3831775341805</v>
       </c>
       <c r="F991">
-        <v>1126.283753628168</v>
+        <v>740.8752532036458</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -20373,13 +20373,13 @@
         <v>36</v>
       </c>
       <c r="D992">
-        <v>933.0308862593296</v>
+        <v>543.4334900952257</v>
       </c>
       <c r="E992">
-        <v>738.2352696563387</v>
+        <v>385.1490651662004</v>
       </c>
       <c r="F992">
-        <v>1127.82650286232</v>
+        <v>701.7179150242509</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -20393,13 +20393,13 @@
         <v>36</v>
       </c>
       <c r="D993">
-        <v>968.8034106175523</v>
+        <v>503.9871033841172</v>
       </c>
       <c r="E993">
-        <v>765.7677284257824</v>
+        <v>345.6824519119</v>
       </c>
       <c r="F993">
-        <v>1171.839092809322</v>
+        <v>662.2917548563344</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -20833,13 +20833,13 @@
         <v>37</v>
       </c>
       <c r="D1015">
-        <v>1723.295782533003</v>
+        <v>1624.87029012357</v>
       </c>
       <c r="E1015">
-        <v>1578.253659440687</v>
+        <v>1387.10812074632</v>
       </c>
       <c r="F1015">
-        <v>1868.337905625319</v>
+        <v>1862.63245950082</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -20853,13 +20853,13 @@
         <v>37</v>
       </c>
       <c r="D1016">
-        <v>1842.731392173345</v>
+        <v>1615.309015171972</v>
       </c>
       <c r="E1016">
-        <v>1696.781136087774</v>
+        <v>1316.25253963113</v>
       </c>
       <c r="F1016">
-        <v>1988.681648258916</v>
+        <v>1914.365490712813</v>
       </c>
     </row>
     <row r="1017" spans="1:6">
@@ -20873,13 +20873,13 @@
         <v>37</v>
       </c>
       <c r="D1017">
-        <v>1973.146259304514</v>
+        <v>1605.750769470376</v>
       </c>
       <c r="E1017">
-        <v>1818.071843344883</v>
+        <v>1256.103794825005</v>
       </c>
       <c r="F1017">
-        <v>2128.220675264145</v>
+        <v>1955.397744115746</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -20893,13 +20893,13 @@
         <v>37</v>
       </c>
       <c r="D1018">
-        <v>2064.021644144111</v>
+        <v>1596.195549071517</v>
       </c>
       <c r="E1018">
-        <v>1895.009051215884</v>
+        <v>1202.513232579354</v>
       </c>
       <c r="F1018">
-        <v>2233.034237072339</v>
+        <v>1989.87786556368</v>
       </c>
     </row>
     <row r="1019" spans="1:6">
@@ -20913,13 +20913,13 @@
         <v>37</v>
       </c>
       <c r="D1019">
-        <v>2120.373898890164</v>
+        <v>1586.643350033275</v>
       </c>
       <c r="E1019">
-        <v>1939.023991337907</v>
+        <v>1153.47678104857</v>
       </c>
       <c r="F1019">
-        <v>2301.723806442421</v>
+        <v>2019.809919017981</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -20933,13 +20933,13 @@
         <v>37</v>
       </c>
       <c r="D1020">
-        <v>2110.279658857372</v>
+        <v>1577.094168418666</v>
       </c>
       <c r="E1020">
-        <v>1923.940680686297</v>
+        <v>1107.84395861147</v>
       </c>
       <c r="F1020">
-        <v>2296.618637028447</v>
+        <v>2046.344378225861</v>
       </c>
     </row>
     <row r="1021" spans="1:6">
@@ -20953,13 +20953,13 @@
         <v>37</v>
       </c>
       <c r="D1021">
-        <v>2061.295584935159</v>
+        <v>1567.548000295834</v>
       </c>
       <c r="E1021">
-        <v>1874.897674141914</v>
+        <v>1064.881673078523</v>
       </c>
       <c r="F1021">
-        <v>2247.693495728404</v>
+        <v>2070.214327513146</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -20973,13 +20973,13 @@
         <v>37</v>
       </c>
       <c r="D1022">
-        <v>1964.963696158656</v>
+        <v>1558.00484173805</v>
       </c>
       <c r="E1022">
-        <v>1777.343348266869</v>
+        <v>1024.088622939125</v>
       </c>
       <c r="F1022">
-        <v>2152.584044050443</v>
+        <v>2091.921060536975</v>
       </c>
     </row>
     <row r="1023" spans="1:6">
@@ -20993,13 +20993,13 @@
         <v>37</v>
       </c>
       <c r="D1023">
-        <v>1865.79490146183</v>
+        <v>1548.464688823699</v>
       </c>
       <c r="E1023">
-        <v>1671.791588604388</v>
+        <v>985.1040084132737</v>
       </c>
       <c r="F1023">
-        <v>2059.798214319273</v>
+        <v>2111.825369234125</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -21013,13 +21013,13 @@
         <v>37</v>
       </c>
       <c r="D1024">
-        <v>1764.08500950625</v>
+        <v>1538.927537636278</v>
       </c>
       <c r="E1024">
-        <v>1559.536038434137</v>
+        <v>947.657853950844</v>
       </c>
       <c r="F1024">
-        <v>1968.633980578363</v>
+        <v>2130.197221321711</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -21453,13 +21453,13 @@
         <v>38</v>
       </c>
       <c r="D1046">
-        <v>88.25604992222597</v>
+        <v>71.70634856501766</v>
       </c>
       <c r="E1046">
-        <v>73.40661698286098</v>
+        <v>56.565076765866</v>
       </c>
       <c r="F1046">
-        <v>103.105482861591</v>
+        <v>86.84762036416933</v>
       </c>
     </row>
     <row r="1047" spans="1:6">
@@ -21473,13 +21473,13 @@
         <v>38</v>
       </c>
       <c r="D1047">
-        <v>79.63709727678429</v>
+        <v>73.89495758038989</v>
       </c>
       <c r="E1047">
-        <v>62.56989187534738</v>
+        <v>55.73843766897984</v>
       </c>
       <c r="F1047">
-        <v>96.7043026782212</v>
+        <v>92.05147749179993</v>
       </c>
     </row>
     <row r="1048" spans="1:6">
@@ -21493,13 +21493,13 @@
         <v>38</v>
       </c>
       <c r="D1048">
-        <v>80.53570800338582</v>
+        <v>54.87881537530224</v>
       </c>
       <c r="E1048">
-        <v>59.17811149305072</v>
+        <v>30.04819953319159</v>
       </c>
       <c r="F1048">
-        <v>101.8933045137209</v>
+        <v>79.70943121741288</v>
       </c>
     </row>
     <row r="1049" spans="1:6">
@@ -21513,13 +21513,13 @@
         <v>38</v>
       </c>
       <c r="D1049">
-        <v>74.86682971198351</v>
+        <v>60.31579381059902</v>
       </c>
       <c r="E1049">
-        <v>50.62555739989431</v>
+        <v>24.45258277574244</v>
       </c>
       <c r="F1049">
-        <v>99.10810202407271</v>
+        <v>96.17900484545561</v>
       </c>
     </row>
     <row r="1050" spans="1:6">
@@ -21533,13 +21533,13 @@
         <v>38</v>
       </c>
       <c r="D1050">
-        <v>71.22281200698697</v>
+        <v>49.39861650818793</v>
       </c>
       <c r="E1050">
-        <v>42.08518444299119</v>
+        <v>10.45332576839582</v>
       </c>
       <c r="F1050">
-        <v>100.3604395709827</v>
+        <v>88.34390724798004</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -21553,13 +21553,13 @@
         <v>38</v>
       </c>
       <c r="D1051">
-        <v>73.06317870148652</v>
+        <v>46.77643839180046</v>
       </c>
       <c r="E1051">
-        <v>41.18592336368796</v>
+        <v>2.344191845519013</v>
       </c>
       <c r="F1051">
-        <v>104.9404340392851</v>
+        <v>91.20868493808192</v>
       </c>
     </row>
     <row r="1052" spans="1:6">
@@ -21573,13 +21573,13 @@
         <v>38</v>
       </c>
       <c r="D1052">
-        <v>61.26414799698519</v>
+        <v>39.48034677933872</v>
       </c>
       <c r="E1052">
-        <v>27.19990675505161</v>
+        <v>-9.211087310594955</v>
       </c>
       <c r="F1052">
-        <v>95.32838923891877</v>
+        <v>88.1717808692724</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -21593,13 +21593,13 @@
         <v>38</v>
       </c>
       <c r="D1053">
-        <v>62.40568070212801</v>
+        <v>33.35264633034718</v>
       </c>
       <c r="E1053">
-        <v>24.15366489585584</v>
+        <v>-18.86119492616277</v>
       </c>
       <c r="F1053">
-        <v>100.6576965084002</v>
+        <v>85.56648758685714</v>
       </c>
     </row>
     <row r="1054" spans="1:6">
@@ -21613,13 +21613,13 @@
         <v>38</v>
       </c>
       <c r="D1054">
-        <v>57.74561341038941</v>
+        <v>24.49678228529985</v>
       </c>
       <c r="E1054">
-        <v>17.42130384199344</v>
+        <v>-31.55336336321421</v>
       </c>
       <c r="F1054">
-        <v>98.06992297878537</v>
+        <v>80.54692793381392</v>
       </c>
     </row>
     <row r="1055" spans="1:6">
@@ -21633,13 +21633,13 @@
         <v>38</v>
       </c>
       <c r="D1055">
-        <v>52.04301004482375</v>
+        <v>20.5833929634643</v>
       </c>
       <c r="E1055">
-        <v>9.444870821048312</v>
+        <v>-38.7332647014788</v>
       </c>
       <c r="F1055">
-        <v>94.64114926859918</v>
+        <v>79.9000506284074</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -22073,13 +22073,13 @@
         <v>39</v>
       </c>
       <c r="D1077">
-        <v>879.1281295582064</v>
+        <v>834.2543254826833</v>
       </c>
       <c r="E1077">
-        <v>776.8687073599491</v>
+        <v>685.6905394971909</v>
       </c>
       <c r="F1077">
-        <v>981.3875517564637</v>
+        <v>982.8181114681756</v>
       </c>
     </row>
     <row r="1078" spans="1:6">
@@ -22093,13 +22093,13 @@
         <v>39</v>
       </c>
       <c r="D1078">
-        <v>838.2667064233137</v>
+        <v>829.3517837652131</v>
       </c>
       <c r="E1078">
-        <v>736.0165295217038</v>
+        <v>612.8159285299088</v>
       </c>
       <c r="F1078">
-        <v>940.5168833249237</v>
+        <v>1045.887639000518</v>
       </c>
     </row>
     <row r="1079" spans="1:6">
@@ -22113,13 +22113,13 @@
         <v>39</v>
       </c>
       <c r="D1079">
-        <v>795.4472237310744</v>
+        <v>789.9945455115637</v>
       </c>
       <c r="E1079">
-        <v>693.1470584874621</v>
+        <v>526.4624531038205</v>
       </c>
       <c r="F1079">
-        <v>897.7473889746866</v>
+        <v>1053.526637919307</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -22133,13 +22133,13 @@
         <v>39</v>
       </c>
       <c r="D1080">
-        <v>750.3629743258095</v>
+        <v>732.3870736293593</v>
       </c>
       <c r="E1080">
-        <v>648.0553954902771</v>
+        <v>426.0453494775456</v>
       </c>
       <c r="F1080">
-        <v>852.670553161342</v>
+        <v>1038.728797781173</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -22153,13 +22153,13 @@
         <v>39</v>
       </c>
       <c r="D1081">
-        <v>703.0905438257566</v>
+        <v>685.2222781887632</v>
       </c>
       <c r="E1081">
-        <v>600.7720109573213</v>
+        <v>343.5544721823705</v>
       </c>
       <c r="F1081">
-        <v>805.409076694192</v>
+        <v>1026.890084195156</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -22173,13 +22173,13 @@
         <v>39</v>
       </c>
       <c r="D1082">
-        <v>653.6645458258483</v>
+        <v>625.7395631370882</v>
       </c>
       <c r="E1082">
-        <v>551.3353824458749</v>
+        <v>250.4340397829509</v>
       </c>
       <c r="F1082">
-        <v>755.9937092058218</v>
+        <v>1001.045086491225</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -22193,13 +22193,13 @@
         <v>39</v>
       </c>
       <c r="D1083">
-        <v>602.117145760325</v>
+        <v>572.6916648027319</v>
       </c>
       <c r="E1083">
-        <v>499.7773238736713</v>
+        <v>167.7624237123447</v>
       </c>
       <c r="F1083">
-        <v>704.4569676469787</v>
+        <v>977.6209058931191</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -22213,13 +22213,13 @@
         <v>39</v>
       </c>
       <c r="D1084">
-        <v>548.4754276731154</v>
+        <v>510.5195230970219</v>
       </c>
       <c r="E1084">
-        <v>446.1249510186041</v>
+        <v>77.04538739843821</v>
       </c>
       <c r="F1084">
-        <v>650.8259043276267</v>
+        <v>943.9936587956056</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -22233,13 +22233,13 @@
         <v>39</v>
       </c>
       <c r="D1085">
-        <v>492.7624288063799</v>
+        <v>452.0613368199801</v>
       </c>
       <c r="E1085">
-        <v>390.4012982555861</v>
+        <v>-7.46229277001288</v>
       </c>
       <c r="F1085">
-        <v>595.1235593571738</v>
+        <v>911.584966409973</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -22253,13 +22253,13 @@
         <v>39</v>
       </c>
       <c r="D1086">
-        <v>434.9977231207434</v>
+        <v>386.791260562316</v>
       </c>
       <c r="E1086">
-        <v>332.6259398038776</v>
+        <v>-97.94665324872057</v>
       </c>
       <c r="F1086">
-        <v>537.3695064376093</v>
+        <v>871.5291743733526</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -22693,13 +22693,13 @@
         <v>40</v>
       </c>
       <c r="D1108">
-        <v>194.6519394633051</v>
+        <v>174.9303297504235</v>
       </c>
       <c r="E1108">
-        <v>160.454550244356</v>
+        <v>146.9323381380601</v>
       </c>
       <c r="F1108">
-        <v>228.8493286822542</v>
+        <v>202.928321362787</v>
       </c>
     </row>
     <row r="1109" spans="1:6">
@@ -22713,13 +22713,13 @@
         <v>40</v>
       </c>
       <c r="D1109">
-        <v>192.5913003760468</v>
+        <v>192.1887862307177</v>
       </c>
       <c r="E1109">
-        <v>158.1932523798027</v>
+        <v>158.2864620629508</v>
       </c>
       <c r="F1109">
-        <v>226.9893483722909</v>
+        <v>226.0911103984846</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -22733,13 +22733,13 @@
         <v>40</v>
       </c>
       <c r="D1110">
-        <v>186.7118859229616</v>
+        <v>217.8227431155464</v>
       </c>
       <c r="E1110">
-        <v>151.3953344358082</v>
+        <v>163.8481968885241</v>
       </c>
       <c r="F1110">
-        <v>222.028437410115</v>
+        <v>271.7972893425688</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -22753,13 +22753,13 @@
         <v>40</v>
       </c>
       <c r="D1111">
-        <v>160.7416233934013</v>
+        <v>209.7200540647701</v>
       </c>
       <c r="E1111">
-        <v>124.0182416257455</v>
+        <v>140.0611996328824</v>
       </c>
       <c r="F1111">
-        <v>197.4650051610572</v>
+        <v>279.3789084966579</v>
       </c>
     </row>
     <row r="1112" spans="1:6">
@@ -22773,13 +22773,13 @@
         <v>40</v>
       </c>
       <c r="D1112">
-        <v>151.5332629981549</v>
+        <v>207.0699481839677</v>
       </c>
       <c r="E1112">
-        <v>112.9865416461205</v>
+        <v>132.3777041058831</v>
       </c>
       <c r="F1112">
-        <v>190.0799843501893</v>
+        <v>281.7621922620522</v>
       </c>
     </row>
     <row r="1113" spans="1:6">
@@ -22793,13 +22793,13 @@
         <v>40</v>
       </c>
       <c r="D1113">
-        <v>163.3983519447727</v>
+        <v>188.476961348885</v>
       </c>
       <c r="E1113">
-        <v>123.774647921353</v>
+        <v>109.3574188074682</v>
       </c>
       <c r="F1113">
-        <v>203.0220559681925</v>
+        <v>267.5965038903018</v>
       </c>
     </row>
     <row r="1114" spans="1:6">
@@ -22813,13 +22813,13 @@
         <v>40</v>
       </c>
       <c r="D1114">
-        <v>179.5488077619366</v>
+        <v>169.0518506247299</v>
       </c>
       <c r="E1114">
-        <v>136.6922742774173</v>
+        <v>89.06622630263716</v>
       </c>
       <c r="F1114">
-        <v>222.405341246456</v>
+        <v>249.0374749468226</v>
       </c>
     </row>
     <row r="1115" spans="1:6">
@@ -22833,13 +22833,13 @@
         <v>40</v>
       </c>
       <c r="D1115">
-        <v>192.9259733026345</v>
+        <v>171.4144434854301</v>
       </c>
       <c r="E1115">
-        <v>148.8246332220603</v>
+        <v>90.98497453262146</v>
       </c>
       <c r="F1115">
-        <v>237.0273133832087</v>
+        <v>251.8439124382388</v>
       </c>
     </row>
     <row r="1116" spans="1:6">
@@ -22853,13 +22853,13 @@
         <v>40</v>
       </c>
       <c r="D1116">
-        <v>188.9298393385691</v>
+        <v>174.9002082814178</v>
       </c>
       <c r="E1116">
-        <v>144.8269704555604</v>
+        <v>92.29221363367687</v>
       </c>
       <c r="F1116">
-        <v>233.0327082215778</v>
+        <v>257.5082029291588</v>
       </c>
     </row>
     <row r="1117" spans="1:6">
@@ -22873,13 +22873,13 @@
         <v>40</v>
       </c>
       <c r="D1117">
-        <v>174.2044879809817</v>
+        <v>189.3388037656405</v>
       </c>
       <c r="E1117">
-        <v>128.8868175497762</v>
+        <v>103.4692548481949</v>
       </c>
       <c r="F1117">
-        <v>219.5221584121873</v>
+        <v>275.2083526830862</v>
       </c>
     </row>
     <row r="1118" spans="1:6">
@@ -23313,13 +23313,13 @@
         <v>41</v>
       </c>
       <c r="D1139">
-        <v>719.322406048855</v>
+        <v>644.1380730956618</v>
       </c>
       <c r="E1139">
-        <v>617.0561171553949</v>
+        <v>545.2199184118153</v>
       </c>
       <c r="F1139">
-        <v>821.5886949423151</v>
+        <v>743.0562277795082</v>
       </c>
     </row>
     <row r="1140" spans="1:6">
@@ -23333,13 +23333,13 @@
         <v>41</v>
       </c>
       <c r="D1140">
-        <v>746.1609248441412</v>
+        <v>730.3620392833519</v>
       </c>
       <c r="E1140">
-        <v>634.2260817224478</v>
+        <v>585.1310324355284</v>
       </c>
       <c r="F1140">
-        <v>858.0957679658345</v>
+        <v>875.5930461311755</v>
       </c>
     </row>
     <row r="1141" spans="1:6">
@@ -23353,13 +23353,13 @@
         <v>41</v>
       </c>
       <c r="D1141">
-        <v>810.4964150635496</v>
+        <v>701.106435200495</v>
       </c>
       <c r="E1141">
-        <v>695.1465282577366</v>
+        <v>527.9948742553856</v>
       </c>
       <c r="F1141">
-        <v>925.8463018693627</v>
+        <v>874.2179961456043</v>
       </c>
     </row>
     <row r="1142" spans="1:6">
@@ -23373,13 +23373,13 @@
         <v>41</v>
       </c>
       <c r="D1142">
-        <v>902.0539122528836</v>
+        <v>697.477707877522</v>
       </c>
       <c r="E1142">
-        <v>786.3771892934526</v>
+        <v>493.5072140145608</v>
       </c>
       <c r="F1142">
-        <v>1017.730635212315</v>
+        <v>901.4482017404832</v>
       </c>
     </row>
     <row r="1143" spans="1:6">
@@ -23393,13 +23393,13 @@
         <v>41</v>
       </c>
       <c r="D1143">
-        <v>1018.864863196703</v>
+        <v>718.0879663789004</v>
       </c>
       <c r="E1143">
-        <v>897.6281513880269</v>
+        <v>492.4147444083088</v>
       </c>
       <c r="F1143">
-        <v>1140.10157500538</v>
+        <v>943.761188349492</v>
       </c>
     </row>
     <row r="1144" spans="1:6">
@@ -23413,13 +23413,13 @@
         <v>41</v>
       </c>
       <c r="D1144">
-        <v>1147.073210533615</v>
+        <v>694.5926734243444</v>
       </c>
       <c r="E1144">
-        <v>1013.973536164002</v>
+        <v>446.7807677938513</v>
       </c>
       <c r="F1144">
-        <v>1280.172884903227</v>
+        <v>942.4045790548375</v>
       </c>
     </row>
     <row r="1145" spans="1:6">
@@ -23433,13 +23433,13 @@
         <v>41</v>
       </c>
       <c r="D1145">
-        <v>1279.396294974496</v>
+        <v>716.6394933357781</v>
       </c>
       <c r="E1145">
-        <v>1133.710168637344</v>
+        <v>448.3309498969062</v>
       </c>
       <c r="F1145">
-        <v>1425.082421311649</v>
+        <v>984.9480367746499</v>
       </c>
     </row>
     <row r="1146" spans="1:6">
@@ -23453,13 +23453,13 @@
         <v>41</v>
       </c>
       <c r="D1146">
-        <v>1406.905720356429</v>
+        <v>698.9128750490227</v>
       </c>
       <c r="E1146">
-        <v>1252.754234079134</v>
+        <v>413.2261991057702</v>
       </c>
       <c r="F1146">
-        <v>1561.057206633724</v>
+        <v>984.5995509922751</v>
       </c>
     </row>
     <row r="1147" spans="1:6">
@@ -23473,13 +23473,13 @@
         <v>41</v>
       </c>
       <c r="D1147">
-        <v>1528.574752777694</v>
+        <v>692.1958483633514</v>
       </c>
       <c r="E1147">
-        <v>1371.317095111531</v>
+        <v>388.3392460360397</v>
       </c>
       <c r="F1147">
-        <v>1685.832410443857</v>
+        <v>996.0524506906631</v>
       </c>
     </row>
     <row r="1148" spans="1:6">
@@ -23493,13 +23493,13 @@
         <v>41</v>
       </c>
       <c r="D1148">
-        <v>1645.027029258759</v>
+        <v>715.662258234299</v>
       </c>
       <c r="E1148">
-        <v>1487.647374343009</v>
+        <v>395.4031305875731</v>
       </c>
       <c r="F1148">
-        <v>1802.406684174509</v>
+        <v>1035.921385881025</v>
       </c>
     </row>
     <row r="1149" spans="1:6">
@@ -23933,13 +23933,13 @@
         <v>42</v>
       </c>
       <c r="D1170">
-        <v>522.5883456061457</v>
+        <v>540.6235491972977</v>
       </c>
       <c r="E1170">
-        <v>444.8979375433622</v>
+        <v>469.5820001517748</v>
       </c>
       <c r="F1170">
-        <v>600.2787536689293</v>
+        <v>611.6650982428207</v>
       </c>
     </row>
     <row r="1171" spans="1:6">
@@ -23953,13 +23953,13 @@
         <v>42</v>
       </c>
       <c r="D1171">
-        <v>532.2746651143144</v>
+        <v>543.4299725240969</v>
       </c>
       <c r="E1171">
-        <v>425.2405792410389</v>
+        <v>435.0451768260444</v>
       </c>
       <c r="F1171">
-        <v>639.30875098759</v>
+        <v>651.8147682221494</v>
       </c>
     </row>
     <row r="1172" spans="1:6">
@@ -23973,13 +23973,13 @@
         <v>42</v>
       </c>
       <c r="D1172">
-        <v>526.8682033375267</v>
+        <v>550.3513976356882</v>
       </c>
       <c r="E1172">
-        <v>400.7151077427031</v>
+        <v>431.8360271587858</v>
       </c>
       <c r="F1172">
-        <v>653.0212989323503</v>
+        <v>668.8667681125905</v>
       </c>
     </row>
     <row r="1173" spans="1:6">
@@ -23993,13 +23993,13 @@
         <v>42</v>
       </c>
       <c r="D1173">
-        <v>543.6425153329061</v>
+        <v>546.7302272501986</v>
       </c>
       <c r="E1173">
-        <v>392.2075711175169</v>
+        <v>399.9846393177364</v>
       </c>
       <c r="F1173">
-        <v>695.0774595482953</v>
+        <v>693.4758151826608</v>
       </c>
     </row>
     <row r="1174" spans="1:6">
@@ -24013,13 +24013,13 @@
         <v>42</v>
       </c>
       <c r="D1174">
-        <v>531.4643822045609</v>
+        <v>560.3078461286759</v>
       </c>
       <c r="E1174">
-        <v>356.824361164301</v>
+        <v>375.6299529888797</v>
       </c>
       <c r="F1174">
-        <v>706.1044032448208</v>
+        <v>744.9857392684721</v>
       </c>
     </row>
     <row r="1175" spans="1:6">
@@ -24033,13 +24033,13 @@
         <v>42</v>
       </c>
       <c r="D1175">
-        <v>548.1457917846251</v>
+        <v>559.4908575320408</v>
       </c>
       <c r="E1175">
-        <v>356.6887979929361</v>
+        <v>340.2355045615583</v>
       </c>
       <c r="F1175">
-        <v>739.6027855763141</v>
+        <v>778.7462105025231</v>
       </c>
     </row>
     <row r="1176" spans="1:6">
@@ -24053,13 +24053,13 @@
         <v>42</v>
       </c>
       <c r="D1176">
-        <v>538.8922854815345</v>
+        <v>559.1165951668056</v>
       </c>
       <c r="E1176">
-        <v>329.0556066022144</v>
+        <v>312.8400417478288</v>
       </c>
       <c r="F1176">
-        <v>748.7289643608545</v>
+        <v>805.3931485857825</v>
       </c>
     </row>
     <row r="1177" spans="1:6">
@@ -24073,13 +24073,13 @@
         <v>42</v>
       </c>
       <c r="D1177">
-        <v>553.7587664195983</v>
+        <v>550.800092832701</v>
       </c>
       <c r="E1177">
-        <v>327.9258415756874</v>
+        <v>282.7938427030051</v>
       </c>
       <c r="F1177">
-        <v>779.5916912635091</v>
+        <v>818.8063429623969</v>
       </c>
     </row>
     <row r="1178" spans="1:6">
@@ -24093,13 +24093,13 @@
         <v>42</v>
       </c>
       <c r="D1178">
-        <v>544.2906143152609</v>
+        <v>555.4655308264809</v>
       </c>
       <c r="E1178">
-        <v>303.5249301972709</v>
+        <v>268.2107414343101</v>
       </c>
       <c r="F1178">
-        <v>785.0562984332508</v>
+        <v>842.7203202186516</v>
       </c>
     </row>
     <row r="1179" spans="1:6">
@@ -24113,13 +24113,13 @@
         <v>42</v>
       </c>
       <c r="D1179">
-        <v>560.1004897682836</v>
+        <v>553.2992662517412</v>
       </c>
       <c r="E1179">
-        <v>305.9474030182705</v>
+        <v>247.7660483775066</v>
       </c>
       <c r="F1179">
-        <v>814.2535765182968</v>
+        <v>858.8324841259757</v>
       </c>
     </row>
     <row r="1180" spans="1:6">
@@ -24553,13 +24553,13 @@
         <v>43</v>
       </c>
       <c r="D1201">
-        <v>1206.611551794723</v>
+        <v>1061.975531041124</v>
       </c>
       <c r="E1201">
-        <v>1107.702279822158</v>
+        <v>969.1878614609006</v>
       </c>
       <c r="F1201">
-        <v>1305.520823767289</v>
+        <v>1154.763200621347</v>
       </c>
     </row>
     <row r="1202" spans="1:6">
@@ -24573,13 +24573,13 @@
         <v>43</v>
       </c>
       <c r="D1202">
-        <v>1245.867414402116</v>
+        <v>1028.931890684966</v>
       </c>
       <c r="E1202">
-        <v>1106.831635752303</v>
+        <v>844.0642189886549</v>
       </c>
       <c r="F1202">
-        <v>1384.903193051928</v>
+        <v>1213.799562381277</v>
       </c>
     </row>
     <row r="1203" spans="1:6">
@@ -24593,13 +24593,13 @@
         <v>43</v>
       </c>
       <c r="D1203">
-        <v>1226.416732978679</v>
+        <v>1033.559914791111</v>
       </c>
       <c r="E1203">
-        <v>1087.176881601514</v>
+        <v>782.3688393036479</v>
       </c>
       <c r="F1203">
-        <v>1365.656584355844</v>
+        <v>1284.750990278574</v>
       </c>
     </row>
     <row r="1204" spans="1:6">
@@ -24613,13 +24613,13 @@
         <v>43</v>
       </c>
       <c r="D1204">
-        <v>1237.768635405486</v>
+        <v>956.5053830856439</v>
       </c>
       <c r="E1204">
-        <v>1094.03276303768</v>
+        <v>654.2130672258854</v>
       </c>
       <c r="F1204">
-        <v>1381.504507773293</v>
+        <v>1258.797698945402</v>
       </c>
     </row>
     <row r="1205" spans="1:6">
@@ -24633,13 +24633,13 @@
         <v>43</v>
       </c>
       <c r="D1205">
-        <v>1219.660667370001</v>
+        <v>943.8472816212192</v>
       </c>
       <c r="E1205">
-        <v>1072.997912801973</v>
+        <v>606.3620240163655</v>
       </c>
       <c r="F1205">
-        <v>1366.32342193803</v>
+        <v>1281.332539226073</v>
       </c>
     </row>
     <row r="1206" spans="1:6">
@@ -24653,13 +24653,13 @@
         <v>43</v>
       </c>
       <c r="D1206">
-        <v>1224.375686568186</v>
+        <v>909.6739082612143</v>
       </c>
       <c r="E1206">
-        <v>1074.18596411871</v>
+        <v>542.0411467263625</v>
       </c>
       <c r="F1206">
-        <v>1374.565409017663</v>
+        <v>1277.306669796066</v>
       </c>
     </row>
     <row r="1207" spans="1:6">
@@ -24673,13 +24673,13 @@
         <v>43</v>
       </c>
       <c r="D1207">
-        <v>1211.623932715976</v>
+        <v>840.4634541029192</v>
       </c>
       <c r="E1207">
-        <v>1060.327616926617</v>
+        <v>443.912294167116</v>
       </c>
       <c r="F1207">
-        <v>1362.920248505334</v>
+        <v>1237.014614038722</v>
       </c>
     </row>
     <row r="1208" spans="1:6">
@@ -24693,13 +24693,13 @@
         <v>43</v>
       </c>
       <c r="D1208">
-        <v>1213.907840777841</v>
+        <v>854.2795802577874</v>
       </c>
       <c r="E1208">
-        <v>1061.618642012312</v>
+        <v>432.393402567413</v>
       </c>
       <c r="F1208">
-        <v>1366.19703954337</v>
+        <v>1276.165757948162</v>
       </c>
     </row>
     <row r="1209" spans="1:6">
@@ -24713,13 +24713,13 @@
         <v>43</v>
       </c>
       <c r="D1209">
-        <v>1205.101936787356</v>
+        <v>760.2703697454116</v>
       </c>
       <c r="E1209">
-        <v>1052.598216280036</v>
+        <v>311.5531086145722</v>
       </c>
       <c r="F1209">
-        <v>1357.605657294676</v>
+        <v>1208.987630876251</v>
       </c>
     </row>
     <row r="1210" spans="1:6">
@@ -24733,13 +24733,13 @@
         <v>43</v>
       </c>
       <c r="D1210">
-        <v>1205.902293851742</v>
+        <v>757.0570324469444</v>
       </c>
       <c r="E1210">
-        <v>1053.181081681867</v>
+        <v>284.620008422146</v>
       </c>
       <c r="F1210">
-        <v>1358.623506021617</v>
+        <v>1229.494056471743</v>
       </c>
     </row>
     <row r="1211" spans="1:6">
@@ -25173,13 +25173,13 @@
         <v>44</v>
       </c>
       <c r="D1232">
-        <v>505.7138209821707</v>
+        <v>490.2362172232914</v>
       </c>
       <c r="E1232">
-        <v>447.4728528101527</v>
+        <v>419.3012071632996</v>
       </c>
       <c r="F1232">
-        <v>563.9547891541886</v>
+        <v>561.1712272832832</v>
       </c>
     </row>
     <row r="1233" spans="1:6">
@@ -25193,13 +25193,13 @@
         <v>44</v>
       </c>
       <c r="D1233">
-        <v>504.8926324327766</v>
+        <v>478.2402003596063</v>
       </c>
       <c r="E1233">
-        <v>446.6550079311559</v>
+        <v>391.1873095687704</v>
       </c>
       <c r="F1233">
-        <v>563.1302569343973</v>
+        <v>565.293091150442</v>
       </c>
     </row>
     <row r="1234" spans="1:6">
@@ -25213,13 +25213,13 @@
         <v>44</v>
       </c>
       <c r="D1234">
-        <v>490.7285105082795</v>
+        <v>445.7663682012398</v>
       </c>
       <c r="E1234">
-        <v>432.1461332988845</v>
+        <v>335.7799316319893</v>
       </c>
       <c r="F1234">
-        <v>549.3108877176745</v>
+        <v>555.7528047704903</v>
       </c>
     </row>
     <row r="1235" spans="1:6">
@@ -25233,13 +25233,13 @@
         <v>44</v>
       </c>
       <c r="D1235">
-        <v>482.9847732609569</v>
+        <v>424.475261445443</v>
       </c>
       <c r="E1235">
-        <v>424.45221531206</v>
+        <v>302.166433532424</v>
       </c>
       <c r="F1235">
-        <v>541.5173312098538</v>
+        <v>546.7840893584621</v>
       </c>
     </row>
     <row r="1236" spans="1:6">
@@ -25253,13 +25253,13 @@
         <v>44</v>
       </c>
       <c r="D1236">
-        <v>474.586351849835</v>
+        <v>391.958584702603</v>
       </c>
       <c r="E1236">
-        <v>415.8489315547282</v>
+        <v>253.5753707678859</v>
       </c>
       <c r="F1236">
-        <v>533.3237721449418</v>
+        <v>530.3417986373202</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
@@ -25273,13 +25273,13 @@
         <v>44</v>
       </c>
       <c r="D1237">
-        <v>466.6289446324813</v>
+        <v>366.5619905452214</v>
       </c>
       <c r="E1237">
-        <v>407.9485602001341</v>
+        <v>217.4497326447324</v>
       </c>
       <c r="F1237">
-        <v>525.3093290648285</v>
+        <v>515.6742484457103</v>
       </c>
     </row>
     <row r="1238" spans="1:6">
@@ -25293,13 +25293,13 @@
         <v>44</v>
       </c>
       <c r="D1238">
-        <v>454.1943023491121</v>
+        <v>333.2682502477377</v>
       </c>
       <c r="E1238">
-        <v>395.3880359418808</v>
+        <v>171.3676290567202</v>
       </c>
       <c r="F1238">
-        <v>513.0005687563436</v>
+        <v>495.1688714387553</v>
       </c>
     </row>
     <row r="1239" spans="1:6">
@@ -25313,13 +25313,13 @@
         <v>44</v>
       </c>
       <c r="D1239">
-        <v>449.7834191364741</v>
+        <v>304.3724079436509</v>
       </c>
       <c r="E1239">
-        <v>391.027357076281</v>
+        <v>132.7627770254566</v>
       </c>
       <c r="F1239">
-        <v>508.5394811966672</v>
+        <v>475.9820388618452</v>
       </c>
     </row>
     <row r="1240" spans="1:6">
@@ -25333,13 +25333,13 @@
         <v>44</v>
       </c>
       <c r="D1240">
-        <v>433.7383440461614</v>
+        <v>269.8105433724822</v>
       </c>
       <c r="E1240">
-        <v>374.902670514095</v>
+        <v>87.3619289949045</v>
       </c>
       <c r="F1240">
-        <v>492.5740175782279</v>
+        <v>452.25915775006</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -25353,13 +25353,13 @@
         <v>44</v>
       </c>
       <c r="D1241">
-        <v>425.8654486199632</v>
+        <v>237.8227354446526</v>
       </c>
       <c r="E1241">
-        <v>367.0696068283013</v>
+        <v>46.43174592900127</v>
       </c>
       <c r="F1241">
-        <v>484.6612904116251</v>
+        <v>429.2137249603039</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -25793,13 +25793,13 @@
         <v>45</v>
       </c>
       <c r="D1263">
-        <v>1124.763492380284</v>
+        <v>1099.239503912893</v>
       </c>
       <c r="E1263">
-        <v>1056.487590642318</v>
+        <v>982.5168652597213</v>
       </c>
       <c r="F1263">
-        <v>1193.03939411825</v>
+        <v>1215.962142566065</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -25813,13 +25813,13 @@
         <v>45</v>
       </c>
       <c r="D1264">
-        <v>1190.480690140004</v>
+        <v>1107.702285761222</v>
       </c>
       <c r="E1264">
-        <v>1088.835054899992</v>
+        <v>920.7253266859373</v>
       </c>
       <c r="F1264">
-        <v>1292.126325380017</v>
+        <v>1294.679244836507</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -25833,13 +25833,13 @@
         <v>45</v>
       </c>
       <c r="D1265">
-        <v>1185.301991617771</v>
+        <v>1085.458199273414</v>
       </c>
       <c r="E1265">
-        <v>1049.757408694664</v>
+        <v>843.353104184704</v>
       </c>
       <c r="F1265">
-        <v>1320.846574540878</v>
+        <v>1327.563294362124</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -25853,13 +25853,13 @@
         <v>45</v>
       </c>
       <c r="D1266">
-        <v>1157.764189685472</v>
+        <v>1061.285299283927</v>
       </c>
       <c r="E1266">
-        <v>969.08868188671</v>
+        <v>773.361720586876</v>
       </c>
       <c r="F1266">
-        <v>1346.439697484235</v>
+        <v>1349.208877980978</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -25873,13 +25873,13 @@
         <v>45</v>
       </c>
       <c r="D1267">
-        <v>1123.147105490532</v>
+        <v>1035.873478502341</v>
       </c>
       <c r="E1267">
-        <v>887.3996360420142</v>
+        <v>708.2264034150674</v>
       </c>
       <c r="F1267">
-        <v>1358.89457493905</v>
+        <v>1363.520553589615</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -25893,13 +25893,13 @@
         <v>45</v>
       </c>
       <c r="D1268">
-        <v>1165.195925015801</v>
+        <v>1009.404480548674</v>
       </c>
       <c r="E1268">
-        <v>881.3848816333062</v>
+        <v>646.2936871252283</v>
       </c>
       <c r="F1268">
-        <v>1449.006968398297</v>
+        <v>1372.51527397212</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -25913,13 +25913,13 @@
         <v>45</v>
       </c>
       <c r="D1269">
-        <v>1178.381991890831</v>
+        <v>981.9261835102849</v>
       </c>
       <c r="E1269">
-        <v>830.3425349514248</v>
+        <v>586.50495537935</v>
       </c>
       <c r="F1269">
-        <v>1526.421448830237</v>
+        <v>1377.34741164122</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -25933,13 +25933,13 @@
         <v>45</v>
       </c>
       <c r="D1270">
-        <v>1240.781519267211</v>
+        <v>953.4512002714606</v>
       </c>
       <c r="E1270">
-        <v>830.8342795216222</v>
+        <v>528.1636289382747</v>
       </c>
       <c r="F1270">
-        <v>1650.728759012799</v>
+        <v>1378.738771604646</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -25953,13 +25953,13 @@
         <v>45</v>
       </c>
       <c r="D1271">
-        <v>1225.433343439719</v>
+        <v>923.982853539076</v>
       </c>
       <c r="E1271">
-        <v>750.8429795844697</v>
+        <v>470.7920569238254</v>
       </c>
       <c r="F1271">
-        <v>1700.023707294969</v>
+        <v>1377.173650154327</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -25973,13 +25973,13 @@
         <v>45</v>
       </c>
       <c r="D1272">
-        <v>1209.57265046415</v>
+        <v>893.5220186387687</v>
       </c>
       <c r="E1272">
-        <v>666.1163042749954</v>
+        <v>414.048879556821</v>
       </c>
       <c r="F1272">
-        <v>1753.028996653305</v>
+        <v>1372.995157720716</v>
       </c>
     </row>
     <row r="1273" spans="1:6">
@@ -26413,13 +26413,13 @@
         <v>46</v>
       </c>
       <c r="D1294">
-        <v>1232.653527074725</v>
+        <v>1162.239276423979</v>
       </c>
       <c r="E1294">
-        <v>1146.892260890383</v>
+        <v>1049.928374317829</v>
       </c>
       <c r="F1294">
-        <v>1318.414793259068</v>
+        <v>1274.55017853013</v>
       </c>
     </row>
     <row r="1295" spans="1:6">
@@ -26433,13 +26433,13 @@
         <v>46</v>
       </c>
       <c r="D1295">
-        <v>1439.096321606404</v>
+        <v>1158.331794463418</v>
       </c>
       <c r="E1295">
-        <v>1324.664627222085</v>
+        <v>1016.244687628676</v>
       </c>
       <c r="F1295">
-        <v>1553.528015990722</v>
+        <v>1300.41890129816</v>
       </c>
     </row>
     <row r="1296" spans="1:6">
@@ -26453,13 +26453,13 @@
         <v>46</v>
       </c>
       <c r="D1296">
-        <v>1472.646004544343</v>
+        <v>1115.124922370648</v>
       </c>
       <c r="E1296">
-        <v>1272.623529283373</v>
+        <v>951.3118352288707</v>
       </c>
       <c r="F1296">
-        <v>1672.668479805314</v>
+        <v>1278.938009512426</v>
       </c>
     </row>
     <row r="1297" spans="1:6">
@@ -26473,13 +26473,13 @@
         <v>46</v>
       </c>
       <c r="D1297">
-        <v>1628.746747703092</v>
+        <v>1116.740592324991</v>
       </c>
       <c r="E1297">
-        <v>1390.440001566179</v>
+        <v>941.7228676231445</v>
       </c>
       <c r="F1297">
-        <v>1867.053493840006</v>
+        <v>1291.758317026837</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -26493,13 +26493,13 @@
         <v>46</v>
       </c>
       <c r="D1298">
-        <v>1686.0520693388</v>
+        <v>1081.488732558213</v>
       </c>
       <c r="E1298">
-        <v>1394.827424209959</v>
+        <v>896.6825709633329</v>
       </c>
       <c r="F1298">
-        <v>1977.276714467641</v>
+        <v>1266.294894153092</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -26513,13 +26513,13 @@
         <v>46</v>
       </c>
       <c r="D1299">
-        <v>1821.915621006389</v>
+        <v>1086.706322105568</v>
       </c>
       <c r="E1299">
-        <v>1499.661592617767</v>
+        <v>896.8636109158783</v>
       </c>
       <c r="F1299">
-        <v>2144.169649395011</v>
+        <v>1276.549033295257</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -26533,13 +26533,13 @@
         <v>46</v>
       </c>
       <c r="D1300">
-        <v>1898.513308751636</v>
+        <v>1057.51276975315</v>
       </c>
       <c r="E1300">
-        <v>1540.738958188344</v>
+        <v>862.7811805319304</v>
       </c>
       <c r="F1300">
-        <v>2256.287659314928</v>
+        <v>1252.244358974369</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -26553,13 +26553,13 @@
         <v>46</v>
       </c>
       <c r="D1301">
-        <v>2024.242300889083</v>
+        <v>1064.982898192201</v>
       </c>
       <c r="E1301">
-        <v>1642.170237411646</v>
+        <v>867.8841411563399</v>
       </c>
       <c r="F1301">
-        <v>2406.31436436652</v>
+        <v>1262.081655228063</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -26573,13 +26573,13 @@
         <v>46</v>
       </c>
       <c r="D1302">
-        <v>2115.851345912296</v>
+        <v>1040.457536224833</v>
       </c>
       <c r="E1302">
-        <v>1708.30713110585</v>
+        <v>840.8064676386724</v>
       </c>
       <c r="F1302">
-        <v>2523.395560718742</v>
+        <v>1240.108604810993</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -26593,13 +26593,13 @@
         <v>46</v>
       </c>
       <c r="D1303">
-        <v>2236.740931475353</v>
+        <v>1049.238886398294</v>
       </c>
       <c r="E1303">
-        <v>1809.95595917869</v>
+        <v>848.4660073835644</v>
       </c>
       <c r="F1303">
-        <v>2663.525903772015</v>
+        <v>1250.011765413024</v>
       </c>
     </row>
     <row r="1304" spans="1:6">
@@ -27033,13 +27033,13 @@
         <v>47</v>
       </c>
       <c r="D1325">
-        <v>396.0340858357451</v>
+        <v>506.217177705395</v>
       </c>
       <c r="E1325">
-        <v>344.8940568706184</v>
+        <v>440.9959063731527</v>
       </c>
       <c r="F1325">
-        <v>447.1741148008719</v>
+        <v>571.4384490376374</v>
       </c>
     </row>
     <row r="1326" spans="1:6">
@@ -27053,13 +27053,13 @@
         <v>47</v>
       </c>
       <c r="D1326">
-        <v>498.2074616160671</v>
+        <v>586.9224841017628</v>
       </c>
       <c r="E1326">
-        <v>446.3755277949653</v>
+        <v>513.2019023232334</v>
       </c>
       <c r="F1326">
-        <v>550.0393954371688</v>
+        <v>660.6430658802923</v>
       </c>
     </row>
     <row r="1327" spans="1:6">
@@ -27073,13 +27073,13 @@
         <v>47</v>
       </c>
       <c r="D1327">
-        <v>429.3636686619895</v>
+        <v>610.0704870952457</v>
       </c>
       <c r="E1327">
-        <v>357.4306259839283</v>
+        <v>508.6266404316282</v>
       </c>
       <c r="F1327">
-        <v>501.2967113400507</v>
+        <v>711.514333758863</v>
       </c>
     </row>
     <row r="1328" spans="1:6">
@@ -27093,13 +27093,13 @@
         <v>47</v>
       </c>
       <c r="D1328">
-        <v>498.3351300055294</v>
+        <v>642.3358263252125</v>
       </c>
       <c r="E1328">
-        <v>419.3778325774586</v>
+        <v>523.7126882680296</v>
       </c>
       <c r="F1328">
-        <v>577.2924274336001</v>
+        <v>760.9589643823953</v>
       </c>
     </row>
     <row r="1329" spans="1:6">
@@ -27113,13 +27113,13 @@
         <v>47</v>
       </c>
       <c r="D1329">
-        <v>424.6454493978875</v>
+        <v>676.1592940492784</v>
       </c>
       <c r="E1329">
-        <v>334.2853834221412</v>
+        <v>542.8484797862313</v>
       </c>
       <c r="F1329">
-        <v>515.0055153736339</v>
+        <v>809.4701083123255</v>
       </c>
     </row>
     <row r="1330" spans="1:6">
@@ -27133,13 +27133,13 @@
         <v>47</v>
       </c>
       <c r="D1330">
-        <v>567.9379660870811</v>
+        <v>709.5913994681596</v>
       </c>
       <c r="E1330">
-        <v>477.339172647489</v>
+        <v>563.3261223139307</v>
       </c>
       <c r="F1330">
-        <v>658.5367595266732</v>
+        <v>855.8566766223885</v>
       </c>
     </row>
     <row r="1331" spans="1:6">
@@ -27153,13 +27153,13 @@
         <v>47</v>
       </c>
       <c r="D1331">
-        <v>484.2858821408751</v>
+        <v>746.0708044206399</v>
       </c>
       <c r="E1331">
-        <v>377.7903665785473</v>
+        <v>588.151865326131</v>
       </c>
       <c r="F1331">
-        <v>590.7813977032029</v>
+        <v>903.9897435151488</v>
       </c>
     </row>
     <row r="1332" spans="1:6">
@@ -27173,13 +27173,13 @@
         <v>47</v>
       </c>
       <c r="D1332">
-        <v>559.307774009724</v>
+        <v>783.6796886674963</v>
       </c>
       <c r="E1332">
-        <v>447.7426891292433</v>
+        <v>615.1330008033419</v>
       </c>
       <c r="F1332">
-        <v>670.8728588902046</v>
+        <v>952.2263765316507</v>
       </c>
     </row>
     <row r="1333" spans="1:6">
@@ -27193,13 +27193,13 @@
         <v>47</v>
       </c>
       <c r="D1333">
-        <v>479.9123839891353</v>
+        <v>822.6417048464601</v>
       </c>
       <c r="E1333">
-        <v>352.473234276932</v>
+        <v>644.3051876949643</v>
       </c>
       <c r="F1333">
-        <v>607.3515337013386</v>
+        <v>1000.978221997956</v>
       </c>
     </row>
     <row r="1334" spans="1:6">
@@ -27213,13 +27213,13 @@
         <v>47</v>
       </c>
       <c r="D1334">
-        <v>573.6103819780144</v>
+        <v>861.7413934064061</v>
       </c>
       <c r="E1334">
-        <v>439.699736310431</v>
+        <v>674.317442090898</v>
       </c>
       <c r="F1334">
-        <v>707.5210276455978</v>
+        <v>1049.165344721914</v>
       </c>
     </row>
     <row r="1335" spans="1:6">
@@ -27653,13 +27653,13 @@
         <v>48</v>
       </c>
       <c r="D1356">
-        <v>569.1501587115417</v>
+        <v>541.714136711832</v>
       </c>
       <c r="E1356">
-        <v>504.8995701327858</v>
+        <v>471.1686923593838</v>
       </c>
       <c r="F1356">
-        <v>633.4007472902978</v>
+        <v>612.2595810642802</v>
       </c>
     </row>
     <row r="1357" spans="1:6">
@@ -27673,13 +27673,13 @@
         <v>48</v>
       </c>
       <c r="D1357">
-        <v>679.5331442049442</v>
+        <v>546.9607652624562</v>
       </c>
       <c r="E1357">
-        <v>593.0532178052277</v>
+        <v>449.1418266720601</v>
       </c>
       <c r="F1357">
-        <v>766.0130706046606</v>
+        <v>644.7797038528523</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -27693,13 +27693,13 @@
         <v>48</v>
       </c>
       <c r="D1358">
-        <v>659.683508479661</v>
+        <v>515.870334125433</v>
       </c>
       <c r="E1358">
-        <v>517.2819842823853</v>
+        <v>402.641613120222</v>
       </c>
       <c r="F1358">
-        <v>802.0850326769366</v>
+        <v>629.099055130644</v>
       </c>
     </row>
     <row r="1359" spans="1:6">
@@ -27713,13 +27713,13 @@
         <v>48</v>
       </c>
       <c r="D1359">
-        <v>720.8969052448685</v>
+        <v>512.9044869844367</v>
       </c>
       <c r="E1359">
-        <v>556.1317514305626</v>
+        <v>391.9088630709988</v>
       </c>
       <c r="F1359">
-        <v>885.6620590591745</v>
+        <v>633.9001108978747</v>
       </c>
     </row>
     <row r="1360" spans="1:6">
@@ -27733,13 +27733,13 @@
         <v>48</v>
       </c>
       <c r="D1360">
-        <v>739.1338604491505</v>
+        <v>494.1102130214049</v>
       </c>
       <c r="E1360">
-        <v>546.6803527477759</v>
+        <v>367.8754958171994</v>
       </c>
       <c r="F1360">
-        <v>931.587368150525</v>
+        <v>620.3449302256104</v>
       </c>
     </row>
     <row r="1361" spans="1:6">
@@ -27753,13 +27753,13 @@
         <v>48</v>
       </c>
       <c r="D1361">
-        <v>776.4742998476413</v>
+        <v>498.1158678903616</v>
       </c>
       <c r="E1361">
-        <v>563.856403483423</v>
+        <v>368.82382143526</v>
       </c>
       <c r="F1361">
-        <v>989.0921962118596</v>
+        <v>627.4079143454633</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -27773,13 +27773,13 @@
         <v>48</v>
       </c>
       <c r="D1362">
-        <v>805.2587286336648</v>
+        <v>483.3267241184227</v>
       </c>
       <c r="E1362">
-        <v>572.2403228113369</v>
+        <v>351.4409052039397</v>
       </c>
       <c r="F1362">
-        <v>1038.277134455993</v>
+        <v>615.2125430329057</v>
       </c>
     </row>
     <row r="1363" spans="1:6">
@@ -27793,13 +27793,13 @@
         <v>48</v>
       </c>
       <c r="D1363">
-        <v>846.0228353326602</v>
+        <v>491.2796370485007</v>
       </c>
       <c r="E1363">
-        <v>595.2698912389726</v>
+        <v>357.6380153775785</v>
       </c>
       <c r="F1363">
-        <v>1096.775779426348</v>
+        <v>624.9212587194228</v>
       </c>
     </row>
     <row r="1364" spans="1:6">
@@ -27813,13 +27813,13 @@
         <v>48</v>
       </c>
       <c r="D1364">
-        <v>882.679838421403</v>
+        <v>479.785722345751</v>
       </c>
       <c r="E1364">
-        <v>614.846026413503</v>
+        <v>344.3724447900699</v>
       </c>
       <c r="F1364">
-        <v>1150.513650429303</v>
+        <v>615.1989999014321</v>
       </c>
     </row>
     <row r="1365" spans="1:6">
@@ -27833,13 +27833,13 @@
         <v>48</v>
       </c>
       <c r="D1365">
-        <v>919.1226103605968</v>
+        <v>489.1584750208656</v>
       </c>
       <c r="E1365">
-        <v>635.5034909257575</v>
+        <v>352.4206336572711</v>
       </c>
       <c r="F1365">
-        <v>1202.741729795436</v>
+        <v>625.8963163844601</v>
       </c>
     </row>
     <row r="1366" spans="1:6">
@@ -28273,13 +28273,13 @@
         <v>49</v>
       </c>
       <c r="D1387">
-        <v>2164.355408134231</v>
+        <v>2149.546270734894</v>
       </c>
       <c r="E1387">
-        <v>2030.673758614175</v>
+        <v>1968.634423443414</v>
       </c>
       <c r="F1387">
-        <v>2298.037057654286</v>
+        <v>2330.458118026374</v>
       </c>
     </row>
     <row r="1388" spans="1:6">
@@ -28293,13 +28293,13 @@
         <v>49</v>
       </c>
       <c r="D1388">
-        <v>2179.690268153866</v>
+        <v>2154.218186659658</v>
       </c>
       <c r="E1388">
-        <v>2041.638298598269</v>
+        <v>1926.289461342957</v>
       </c>
       <c r="F1388">
-        <v>2317.742237709463</v>
+        <v>2382.146911976359</v>
       </c>
     </row>
     <row r="1389" spans="1:6">
@@ -28313,13 +28313,13 @@
         <v>49</v>
       </c>
       <c r="D1389">
-        <v>2192.130310450043</v>
+        <v>2158.890841436498</v>
       </c>
       <c r="E1389">
-        <v>2053.770632168086</v>
+        <v>1892.150018560279</v>
       </c>
       <c r="F1389">
-        <v>2330.489988731999</v>
+        <v>2425.631664312717</v>
       </c>
     </row>
     <row r="1390" spans="1:6">
@@ -28333,13 +28333,13 @@
         <v>49</v>
       </c>
       <c r="D1390">
-        <v>2200.038995929066</v>
+        <v>2163.564234618554</v>
       </c>
       <c r="E1390">
-        <v>2061.64025750889</v>
+        <v>1863.020372775864</v>
       </c>
       <c r="F1390">
-        <v>2338.437734349243</v>
+        <v>2464.108096461243</v>
       </c>
     </row>
     <row r="1391" spans="1:6">
@@ -28353,13 +28353,13 @@
         <v>49</v>
       </c>
       <c r="D1391">
-        <v>2202.867314709646</v>
+        <v>2168.238365759233</v>
       </c>
       <c r="E1391">
-        <v>2064.462678305199</v>
+        <v>1837.361695673903</v>
       </c>
       <c r="F1391">
-        <v>2341.271951114093</v>
+        <v>2499.115035844563</v>
       </c>
     </row>
     <row r="1392" spans="1:6">
@@ -28373,13 +28373,13 @@
         <v>49</v>
       </c>
       <c r="D1392">
-        <v>2200.781613437411</v>
+        <v>2172.913234412216</v>
       </c>
       <c r="E1392">
-        <v>2062.376004844974</v>
+        <v>1814.292308676694</v>
       </c>
       <c r="F1392">
-        <v>2339.187222029847</v>
+        <v>2531.534160147738</v>
       </c>
     </row>
     <row r="1393" spans="1:6">
@@ -28393,13 +28393,13 @@
         <v>49</v>
       </c>
       <c r="D1393">
-        <v>2194.521307784953</v>
+        <v>2177.588840131451</v>
       </c>
       <c r="E1393">
-        <v>2056.115483479586</v>
+        <v>1793.251184412219</v>
       </c>
       <c r="F1393">
-        <v>2332.927132090321</v>
+        <v>2561.926495850683</v>
       </c>
     </row>
     <row r="1394" spans="1:6">
@@ -28413,13 +28413,13 @@
         <v>49</v>
       </c>
       <c r="D1394">
-        <v>2185.246011349799</v>
+        <v>2182.265182471157</v>
       </c>
       <c r="E1394">
-        <v>2046.840088122873</v>
+        <v>1773.855101223837</v>
       </c>
       <c r="F1394">
-        <v>2323.651934576725</v>
+        <v>2590.675263718478</v>
       </c>
     </row>
     <row r="1395" spans="1:6">
@@ -28433,13 +28433,13 @@
         <v>49</v>
       </c>
       <c r="D1395">
-        <v>2174.35502396965</v>
+        <v>2186.942260985824</v>
       </c>
       <c r="E1395">
-        <v>2035.949019867301</v>
+        <v>1755.828495378331</v>
       </c>
       <c r="F1395">
-        <v>2312.761028071998</v>
+        <v>2618.056026593317</v>
       </c>
     </row>
     <row r="1396" spans="1:6">
@@ -28453,13 +28453,13 @@
         <v>49</v>
       </c>
       <c r="D1396">
-        <v>2163.297696696586</v>
+        <v>2191.620075230208</v>
       </c>
       <c r="E1396">
-        <v>2024.891614507618</v>
+        <v>1738.965333949105</v>
       </c>
       <c r="F1396">
-        <v>2301.703778885555</v>
+        <v>2644.274816511312</v>
       </c>
     </row>
     <row r="1397" spans="1:6">
@@ -28893,13 +28893,13 @@
         <v>50</v>
       </c>
       <c r="D1418">
-        <v>1268.271755361777</v>
+        <v>1279.644002194243</v>
       </c>
       <c r="E1418">
-        <v>1196.809954955322</v>
+        <v>1158.2762496379</v>
       </c>
       <c r="F1418">
-        <v>1339.733555768232</v>
+        <v>1401.011754750585</v>
       </c>
     </row>
     <row r="1419" spans="1:6">
@@ -28913,13 +28913,13 @@
         <v>50</v>
       </c>
       <c r="D1419">
-        <v>1296.230871519072</v>
+        <v>1290.594433388986</v>
       </c>
       <c r="E1419">
-        <v>1224.743741406892</v>
+        <v>1131.740654895548</v>
       </c>
       <c r="F1419">
-        <v>1367.718001631253</v>
+        <v>1449.448211882424</v>
       </c>
     </row>
     <row r="1420" spans="1:6">
@@ -28933,13 +28933,13 @@
         <v>50</v>
       </c>
       <c r="D1420">
-        <v>1400.118663716814</v>
+        <v>1301.546574539114</v>
       </c>
       <c r="E1420">
-        <v>1328.064225944651</v>
+        <v>1112.571459530058</v>
       </c>
       <c r="F1420">
-        <v>1472.173101488976</v>
+        <v>1490.521689548171</v>
       </c>
     </row>
     <row r="1421" spans="1:6">
@@ -28953,13 +28953,13 @@
         <v>50</v>
       </c>
       <c r="D1421">
-        <v>1472.758211089577</v>
+        <v>1312.500423419505</v>
       </c>
       <c r="E1421">
-        <v>1391.551407560407</v>
+        <v>1097.648344373789</v>
       </c>
       <c r="F1421">
-        <v>1553.965014618748</v>
+        <v>1527.35250246522</v>
       </c>
     </row>
     <row r="1422" spans="1:6">
@@ -28973,13 +28973,13 @@
         <v>50</v>
       </c>
       <c r="D1422">
-        <v>1574.813677146886</v>
+        <v>1323.455977807929</v>
       </c>
       <c r="E1422">
-        <v>1493.460602484171</v>
+        <v>1085.581937303019</v>
       </c>
       <c r="F1422">
-        <v>1656.166751809601</v>
+        <v>1561.330018312839</v>
       </c>
     </row>
     <row r="1423" spans="1:6">
@@ -28993,13 +28993,13 @@
         <v>50</v>
       </c>
       <c r="D1423">
-        <v>1606.712072091795</v>
+        <v>1334.413235485052</v>
       </c>
       <c r="E1423">
-        <v>1522.273508958642</v>
+        <v>1075.609072829768</v>
       </c>
       <c r="F1423">
-        <v>1691.150635224948</v>
+        <v>1593.217398140337</v>
       </c>
     </row>
     <row r="1424" spans="1:6">
@@ -29013,13 +29013,13 @@
         <v>50</v>
       </c>
       <c r="D1424">
-        <v>1664.979597569523</v>
+        <v>1345.372194234425</v>
       </c>
       <c r="E1424">
-        <v>1579.655922440319</v>
+        <v>1067.25694337868</v>
       </c>
       <c r="F1424">
-        <v>1750.303272698727</v>
+        <v>1623.487445090171</v>
       </c>
     </row>
     <row r="1425" spans="1:6">
@@ -29033,13 +29033,13 @@
         <v>50</v>
       </c>
       <c r="D1425">
-        <v>1669.358890104122</v>
+        <v>1356.332851842485</v>
       </c>
       <c r="E1425">
-        <v>1581.497376781877</v>
+        <v>1060.20851322965</v>
       </c>
       <c r="F1425">
-        <v>1757.220403426367</v>
+        <v>1652.45719045532</v>
       </c>
     </row>
     <row r="1426" spans="1:6">
@@ -29053,13 +29053,13 @@
         <v>50</v>
       </c>
       <c r="D1426">
-        <v>1717.275729072376</v>
+        <v>1367.295206098547</v>
       </c>
       <c r="E1426">
-        <v>1624.637274663897</v>
+        <v>1054.238888120427</v>
       </c>
       <c r="F1426">
-        <v>1809.914183480854</v>
+        <v>1680.351524076668</v>
       </c>
     </row>
     <row r="1427" spans="1:6">
@@ -29073,13 +29073,13 @@
         <v>50</v>
       </c>
       <c r="D1427">
-        <v>1768.002163245813</v>
+        <v>1378.259254794806</v>
       </c>
       <c r="E1427">
-        <v>1673.962525911745</v>
+        <v>1049.181656598219</v>
       </c>
       <c r="F1427">
-        <v>1862.04180057988</v>
+        <v>1707.336852991394</v>
       </c>
     </row>
     <row r="1428" spans="1:6">
@@ -29513,13 +29513,13 @@
         <v>51</v>
       </c>
       <c r="D1449">
-        <v>3248.677852846775</v>
+        <v>2992.677647130046</v>
       </c>
       <c r="E1449">
-        <v>2984.139579411736</v>
+        <v>2714.098884648388</v>
       </c>
       <c r="F1449">
-        <v>3513.216126281814</v>
+        <v>3271.256409611705</v>
       </c>
     </row>
     <row r="1450" spans="1:6">
@@ -29533,13 +29533,13 @@
         <v>51</v>
       </c>
       <c r="D1450">
-        <v>3215.906516212132</v>
+        <v>2919.514364637528</v>
       </c>
       <c r="E1450">
-        <v>2878.399496355208</v>
+        <v>2456.793349456643</v>
       </c>
       <c r="F1450">
-        <v>3553.413536069056</v>
+        <v>3382.235379818413</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -29553,13 +29553,13 @@
         <v>51</v>
       </c>
       <c r="D1451">
-        <v>3497.303097387466</v>
+        <v>2972.574858940613</v>
       </c>
       <c r="E1451">
-        <v>3142.056102039082</v>
+        <v>2346.033395426449</v>
       </c>
       <c r="F1451">
-        <v>3852.55009273585</v>
+        <v>3599.116322454778</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -29573,13 +29573,13 @@
         <v>51</v>
       </c>
       <c r="D1452">
-        <v>3504.439532442711</v>
+        <v>2907.395708702009</v>
       </c>
       <c r="E1452">
-        <v>3138.963716302045</v>
+        <v>2190.513334696572</v>
       </c>
       <c r="F1452">
-        <v>3869.915348583377</v>
+        <v>3624.278082707446</v>
       </c>
     </row>
     <row r="1453" spans="1:6">
@@ -29593,13 +29593,13 @@
         <v>51</v>
       </c>
       <c r="D1453">
-        <v>3623.614124330474</v>
+        <v>2926.111590041545</v>
       </c>
       <c r="E1453">
-        <v>3258.086737432714</v>
+        <v>2101.566937027776</v>
       </c>
       <c r="F1453">
-        <v>3989.141511228235</v>
+        <v>3750.656243055314</v>
       </c>
     </row>
     <row r="1454" spans="1:6">
@@ -29613,13 +29613,13 @@
         <v>51</v>
       </c>
       <c r="D1454">
-        <v>3674.230865345699</v>
+        <v>2892.397534961015</v>
       </c>
       <c r="E1454">
-        <v>3308.657850256804</v>
+        <v>1989.356187816566</v>
       </c>
       <c r="F1454">
-        <v>4039.803880434595</v>
+        <v>3795.438882105464</v>
       </c>
     </row>
     <row r="1455" spans="1:6">
@@ -29633,13 +29633,13 @@
         <v>51</v>
       </c>
       <c r="D1455">
-        <v>3604.786492247033</v>
+        <v>2888.974641397608</v>
       </c>
       <c r="E1455">
-        <v>3203.997681695128</v>
+        <v>1904.62269364261</v>
       </c>
       <c r="F1455">
-        <v>4005.575302798939</v>
+        <v>3873.326589152605</v>
       </c>
     </row>
     <row r="1456" spans="1:6">
@@ -29653,13 +29653,13 @@
         <v>51</v>
       </c>
       <c r="D1456">
-        <v>3637.308505143808</v>
+        <v>2869.031009246326</v>
       </c>
       <c r="E1456">
-        <v>3220.679875434656</v>
+        <v>1814.398584261006</v>
       </c>
       <c r="F1456">
-        <v>4053.93713485296</v>
+        <v>3923.663434231647</v>
       </c>
     </row>
     <row r="1457" spans="1:6">
@@ -29673,13 +29673,13 @@
         <v>51</v>
       </c>
       <c r="D1457">
-        <v>3433.002798464127</v>
+        <v>2857.678104532405</v>
       </c>
       <c r="E1457">
-        <v>2995.252963770897</v>
+        <v>1734.768565744347</v>
       </c>
       <c r="F1457">
-        <v>3870.752633157357</v>
+        <v>3980.587643320463</v>
       </c>
     </row>
     <row r="1458" spans="1:6">
@@ -29693,13 +29693,13 @@
         <v>51</v>
       </c>
       <c r="D1458">
-        <v>3442.877781865023</v>
+        <v>2842.048439470914</v>
       </c>
       <c r="E1458">
-        <v>2997.385966013349</v>
+        <v>1655.941083046985</v>
       </c>
       <c r="F1458">
-        <v>3888.369597716697</v>
+        <v>4028.155795894842</v>
       </c>
     </row>
     <row r="1459" spans="1:6">
@@ -30133,13 +30133,13 @@
         <v>52</v>
       </c>
       <c r="D1480">
-        <v>641.6556714945677</v>
+        <v>622.815378733575</v>
       </c>
       <c r="E1480">
-        <v>582.2014530586504</v>
+        <v>550.3124104549174</v>
       </c>
       <c r="F1480">
-        <v>701.1098899304851</v>
+        <v>695.3183470122326</v>
       </c>
     </row>
     <row r="1481" spans="1:6">
@@ -30153,13 +30153,13 @@
         <v>52</v>
       </c>
       <c r="D1481">
-        <v>643.0115238592076</v>
+        <v>588.3201052435531</v>
       </c>
       <c r="E1481">
-        <v>582.5538516782119</v>
+        <v>507.2280675666249</v>
       </c>
       <c r="F1481">
-        <v>703.4691960402033</v>
+        <v>669.4121429204814</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -30173,13 +30173,13 @@
         <v>52</v>
       </c>
       <c r="D1482">
-        <v>657.7808367981822</v>
+        <v>561.6666129733165</v>
       </c>
       <c r="E1482">
-        <v>580.8609344713881</v>
+        <v>459.1794451512675</v>
       </c>
       <c r="F1482">
-        <v>734.7007391249764</v>
+        <v>664.1537807953655</v>
       </c>
     </row>
     <row r="1483" spans="1:6">
@@ -30193,13 +30193,13 @@
         <v>52</v>
       </c>
       <c r="D1483">
-        <v>665.4079587700033</v>
+        <v>546.9003995312363</v>
       </c>
       <c r="E1483">
-        <v>585.9435680141163</v>
+        <v>443.0665724482428</v>
       </c>
       <c r="F1483">
-        <v>744.8723495258904</v>
+        <v>650.7342266142298</v>
       </c>
     </row>
     <row r="1484" spans="1:6">
@@ -30213,13 +30213,13 @@
         <v>52</v>
       </c>
       <c r="D1484">
-        <v>681.7562695022721</v>
+        <v>521.3796624475352</v>
       </c>
       <c r="E1484">
-        <v>592.438637501695</v>
+        <v>413.2951734240087</v>
       </c>
       <c r="F1484">
-        <v>771.0739015028491</v>
+        <v>629.4641514710618</v>
       </c>
     </row>
     <row r="1485" spans="1:6">
@@ -30233,13 +30233,13 @@
         <v>52</v>
       </c>
       <c r="D1485">
-        <v>692.6783919159498</v>
+        <v>502.8688157035366</v>
       </c>
       <c r="E1485">
-        <v>599.911688622351</v>
+        <v>395.138992388404</v>
       </c>
       <c r="F1485">
-        <v>785.4450952095485</v>
+        <v>610.5986390186692</v>
       </c>
     </row>
     <row r="1486" spans="1:6">
@@ -30253,13 +30253,13 @@
         <v>52</v>
       </c>
       <c r="D1486">
-        <v>708.5786266470869</v>
+        <v>476.8812305018534</v>
       </c>
       <c r="E1486">
-        <v>608.734023628802</v>
+        <v>368.8517029563822</v>
       </c>
       <c r="F1486">
-        <v>808.4232296653719</v>
+        <v>584.9107580473246</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -30273,13 +30273,13 @@
         <v>52</v>
       </c>
       <c r="D1487">
-        <v>719.9799719620963</v>
+        <v>455.1506389973888</v>
       </c>
       <c r="E1487">
-        <v>616.2912674698837</v>
+        <v>347.1862542224603</v>
       </c>
       <c r="F1487">
-        <v>823.668676454309</v>
+        <v>563.1150237723173</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -30293,13 +30293,13 @@
         <v>52</v>
       </c>
       <c r="D1488">
-        <v>733.9023018029419</v>
+        <v>428.0144453129434</v>
       </c>
       <c r="E1488">
-        <v>624.5531322238129</v>
+        <v>320.057854757145</v>
       </c>
       <c r="F1488">
-        <v>843.2514713820709</v>
+        <v>535.9710358687418</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
@@ -30313,13 +30313,13 @@
         <v>52</v>
       </c>
       <c r="D1489">
-        <v>743.8279508074886</v>
+        <v>403.5346627553922</v>
       </c>
       <c r="E1489">
-        <v>630.5357503655194</v>
+        <v>295.8134626278618</v>
       </c>
       <c r="F1489">
-        <v>857.1201512494578</v>
+        <v>511.2558628829226</v>
       </c>
     </row>
     <row r="1490" spans="1:6">
@@ -30753,13 +30753,13 @@
         <v>53</v>
       </c>
       <c r="D1511">
-        <v>904.8390075326629</v>
+        <v>637.8973967870248</v>
       </c>
       <c r="E1511">
-        <v>845.8403757416627</v>
+        <v>499.7933040541263</v>
       </c>
       <c r="F1511">
-        <v>963.8376393236631</v>
+        <v>776.0014895199233</v>
       </c>
     </row>
     <row r="1512" spans="1:6">
@@ -30773,13 +30773,13 @@
         <v>53</v>
       </c>
       <c r="D1512">
-        <v>976.7966021007586</v>
+        <v>897.6896700385544</v>
       </c>
       <c r="E1512">
-        <v>917.1945371798221</v>
+        <v>754.8324969632196</v>
       </c>
       <c r="F1512">
-        <v>1036.398667021695</v>
+        <v>1040.546843113889</v>
       </c>
     </row>
     <row r="1513" spans="1:6">
@@ -30793,13 +30793,13 @@
         <v>53</v>
       </c>
       <c r="D1513">
-        <v>985.7174456378693</v>
+        <v>891.2937746887875</v>
       </c>
       <c r="E1513">
-        <v>923.2690928656774</v>
+        <v>747.8075512303567</v>
       </c>
       <c r="F1513">
-        <v>1048.165798410061</v>
+        <v>1034.779998147218</v>
       </c>
     </row>
     <row r="1514" spans="1:6">
@@ -30813,13 +30813,13 @@
         <v>53</v>
       </c>
       <c r="D1514">
-        <v>1044.973041022836</v>
+        <v>896.2230530297579</v>
       </c>
       <c r="E1514">
-        <v>982.5468179832448</v>
+        <v>748.0412087238094</v>
       </c>
       <c r="F1514">
-        <v>1107.399264062428</v>
+        <v>1044.404897335706</v>
       </c>
     </row>
     <row r="1515" spans="1:6">
@@ -30833,13 +30833,13 @@
         <v>53</v>
       </c>
       <c r="D1515">
-        <v>1047.608732794155</v>
+        <v>938.8990171931259</v>
       </c>
       <c r="E1515">
-        <v>984.7483837514344</v>
+        <v>784.1128157370582</v>
       </c>
       <c r="F1515">
-        <v>1110.469081836877</v>
+        <v>1093.685218649194</v>
       </c>
     </row>
     <row r="1516" spans="1:6">
@@ -30853,13 +30853,13 @@
         <v>53</v>
       </c>
       <c r="D1516">
-        <v>1102.737042081418</v>
+        <v>902.7839644267729</v>
       </c>
       <c r="E1516">
-        <v>1036.87240082503</v>
+        <v>741.328225498702</v>
       </c>
       <c r="F1516">
-        <v>1168.601683337806</v>
+        <v>1064.239703354844</v>
       </c>
     </row>
     <row r="1517" spans="1:6">
@@ -30873,13 +30873,13 @@
         <v>53</v>
       </c>
       <c r="D1517">
-        <v>1100.247906157525</v>
+        <v>895.8581829202772</v>
       </c>
       <c r="E1517">
-        <v>1033.254106007038</v>
+        <v>728.4226196857892</v>
       </c>
       <c r="F1517">
-        <v>1167.241706308013</v>
+        <v>1063.293746154765</v>
       </c>
     </row>
     <row r="1518" spans="1:6">
@@ -30893,13 +30893,13 @@
         <v>53</v>
       </c>
       <c r="D1518">
-        <v>1142.627576335072</v>
+        <v>889.4674167032975</v>
       </c>
       <c r="E1518">
-        <v>1069.718179902468</v>
+        <v>716.9221732595615</v>
       </c>
       <c r="F1518">
-        <v>1215.536972767675</v>
+        <v>1062.012660147034</v>
       </c>
     </row>
     <row r="1519" spans="1:6">
@@ -30913,13 +30913,13 @@
         <v>53</v>
       </c>
       <c r="D1519">
-        <v>1120.509086283586</v>
+        <v>933.4438735103661</v>
       </c>
       <c r="E1519">
-        <v>1046.734745080755</v>
+        <v>756.6173022893565</v>
       </c>
       <c r="F1519">
-        <v>1194.283427486418</v>
+        <v>1110.270444731376</v>
       </c>
     </row>
     <row r="1520" spans="1:6">
@@ -30933,13 +30933,13 @@
         <v>53</v>
       </c>
       <c r="D1520">
-        <v>1138.175013458482</v>
+        <v>909.4279454397397</v>
       </c>
       <c r="E1520">
-        <v>1061.905617375491</v>
+        <v>729.0404056587513</v>
       </c>
       <c r="F1520">
-        <v>1214.444409541472</v>
+        <v>1089.815485220728</v>
       </c>
     </row>
     <row r="1521" spans="1:6">
@@ -31373,13 +31373,13 @@
         <v>54</v>
       </c>
       <c r="D1542">
-        <v>1527.548441889746</v>
+        <v>753.1046325909128</v>
       </c>
       <c r="E1542">
-        <v>1413.072264340044</v>
+        <v>611.2105814241363</v>
       </c>
       <c r="F1542">
-        <v>1642.024619439449</v>
+        <v>894.9986837576894</v>
       </c>
     </row>
     <row r="1543" spans="1:6">
@@ -31393,13 +31393,13 @@
         <v>54</v>
       </c>
       <c r="D1543">
-        <v>1557.241705664452</v>
+        <v>1562.455237939314</v>
       </c>
       <c r="E1543">
-        <v>1383.939828590907</v>
+        <v>1419.925065258333</v>
       </c>
       <c r="F1543">
-        <v>1730.543582737996</v>
+        <v>1704.985410620294</v>
       </c>
     </row>
     <row r="1544" spans="1:6">
@@ -31413,13 +31413,13 @@
         <v>54</v>
       </c>
       <c r="D1544">
-        <v>1565.327434660417</v>
+        <v>1503.408817535555</v>
       </c>
       <c r="E1544">
-        <v>1365.980692722565</v>
+        <v>1334.35949390907</v>
       </c>
       <c r="F1544">
-        <v>1764.674176598268</v>
+        <v>1672.45814116204</v>
       </c>
     </row>
     <row r="1545" spans="1:6">
@@ -31433,13 +31433,13 @@
         <v>54</v>
       </c>
       <c r="D1545">
-        <v>1585.014532043703</v>
+        <v>1558.660421295853</v>
       </c>
       <c r="E1545">
-        <v>1373.7116692558</v>
+        <v>1385.875252257488</v>
       </c>
       <c r="F1545">
-        <v>1796.317394831605</v>
+        <v>1731.445590334217</v>
       </c>
     </row>
     <row r="1546" spans="1:6">
@@ -31453,13 +31453,13 @@
         <v>54</v>
       </c>
       <c r="D1546">
-        <v>1594.043167976642</v>
+        <v>1468.471082157439</v>
       </c>
       <c r="E1546">
-        <v>1368.811500717133</v>
+        <v>1292.547587880366</v>
       </c>
       <c r="F1546">
-        <v>1819.274835236151</v>
+        <v>1644.394576434512</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -31473,13 +31473,13 @@
         <v>54</v>
       </c>
       <c r="D1547">
-        <v>1643.20825979344</v>
+        <v>1536.788146467906</v>
       </c>
       <c r="E1547">
-        <v>1416.611604402366</v>
+        <v>1357.972256775199</v>
       </c>
       <c r="F1547">
-        <v>1869.804915184514</v>
+        <v>1715.604036160612</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -31493,13 +31493,13 @@
         <v>54</v>
       </c>
       <c r="D1548">
-        <v>1664.759733994169</v>
+        <v>1458.097593550998</v>
       </c>
       <c r="E1548">
-        <v>1436.715964898197</v>
+        <v>1276.614691467523</v>
       </c>
       <c r="F1548">
-        <v>1892.803503090141</v>
+        <v>1639.580495634472</v>
       </c>
     </row>
     <row r="1549" spans="1:6">
@@ -31513,13 +31513,13 @@
         <v>54</v>
       </c>
       <c r="D1549">
-        <v>1688.962857752229</v>
+        <v>1516.667833366884</v>
       </c>
       <c r="E1549">
-        <v>1453.179359533587</v>
+        <v>1332.722228031296</v>
       </c>
       <c r="F1549">
-        <v>1924.746355970871</v>
+        <v>1700.613438702472</v>
       </c>
     </row>
     <row r="1550" spans="1:6">
@@ -31533,13 +31533,13 @@
         <v>54</v>
       </c>
       <c r="D1550">
-        <v>1694.401932330698</v>
+        <v>1441.071874345996</v>
       </c>
       <c r="E1550">
-        <v>1450.035144324265</v>
+        <v>1254.849378673285</v>
       </c>
       <c r="F1550">
-        <v>1938.768720337131</v>
+        <v>1627.294370018707</v>
       </c>
     </row>
     <row r="1551" spans="1:6">
@@ -31553,13 +31553,13 @@
         <v>54</v>
       </c>
       <c r="D1551">
-        <v>1708.286134598468</v>
+        <v>1495.066085491757</v>
       </c>
       <c r="E1551">
-        <v>1449.504207703322</v>
+        <v>1306.736150477845</v>
       </c>
       <c r="F1551">
-        <v>1967.068061493614</v>
+        <v>1683.396020505669</v>
       </c>
     </row>
     <row r="1552" spans="1:6">
@@ -31993,13 +31993,13 @@
         <v>55</v>
       </c>
       <c r="D1573">
-        <v>31505.45883114319</v>
+        <v>22688.45786197562</v>
       </c>
       <c r="E1573">
-        <v>30596.24518146476</v>
+        <v>18966.96013266249</v>
       </c>
       <c r="F1573">
-        <v>32414.67248082161</v>
+        <v>26409.95559128875</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -32013,13 +32013,13 @@
         <v>55</v>
       </c>
       <c r="D1574">
-        <v>32249.57738464568</v>
+        <v>30026.67693429735</v>
       </c>
       <c r="E1574">
-        <v>30703.8091474539</v>
+        <v>26297.45781509083</v>
       </c>
       <c r="F1574">
-        <v>33795.34562183746</v>
+        <v>33755.89605350386</v>
       </c>
     </row>
     <row r="1575" spans="1:6">
@@ -32033,13 +32033,13 @@
         <v>55</v>
       </c>
       <c r="D1575">
-        <v>32281.90000117828</v>
+        <v>30464.52897901194</v>
       </c>
       <c r="E1575">
-        <v>30415.56145565642</v>
+        <v>26621.97072970721</v>
       </c>
       <c r="F1575">
-        <v>34148.23854670015</v>
+        <v>34307.08722831666</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -32053,13 +32053,13 @@
         <v>55</v>
       </c>
       <c r="D1576">
-        <v>33110.56688262994</v>
+        <v>29507.40946999013</v>
       </c>
       <c r="E1576">
-        <v>30891.60649799694</v>
+        <v>25625.44302687508</v>
       </c>
       <c r="F1576">
-        <v>35329.52726726294</v>
+        <v>33389.37591310517</v>
       </c>
     </row>
     <row r="1577" spans="1:6">
@@ -32073,13 +32073,13 @@
         <v>55</v>
       </c>
       <c r="D1577">
-        <v>32974.29338428668</v>
+        <v>30008.7175636836</v>
       </c>
       <c r="E1577">
-        <v>30505.90578105843</v>
+        <v>26074.1800007666</v>
       </c>
       <c r="F1577">
-        <v>35442.68098751492</v>
+        <v>33943.25512660059</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -32093,13 +32093,13 @@
         <v>55</v>
       </c>
       <c r="D1578">
-        <v>33787.83487549332</v>
+        <v>29081.51297067171</v>
       </c>
       <c r="E1578">
-        <v>31071.91167424107</v>
+        <v>25102.76153876116</v>
       </c>
       <c r="F1578">
-        <v>36503.75807674557</v>
+        <v>33060.26440258225</v>
       </c>
     </row>
     <row r="1579" spans="1:6">
@@ -32113,13 +32113,13 @@
         <v>55</v>
       </c>
       <c r="D1579">
-        <v>33678.74633433527</v>
+        <v>29553.99289667139</v>
       </c>
       <c r="E1579">
-        <v>30683.87119467321</v>
+        <v>25532.55916930631</v>
       </c>
       <c r="F1579">
-        <v>36673.62147399734</v>
+        <v>33575.42662403647</v>
       </c>
     </row>
     <row r="1580" spans="1:6">
@@ -32133,13 +32133,13 @@
         <v>55</v>
       </c>
       <c r="D1580">
-        <v>34325.61176027469</v>
+        <v>28664.4151396336</v>
       </c>
       <c r="E1580">
-        <v>31099.2417642059</v>
+        <v>24603.47408508587</v>
       </c>
       <c r="F1580">
-        <v>37551.98175634348</v>
+        <v>32725.35619418134</v>
       </c>
     </row>
     <row r="1581" spans="1:6">
@@ -32153,13 +32153,13 @@
         <v>55</v>
       </c>
       <c r="D1581">
-        <v>34153.33227918878</v>
+        <v>29099.88315265924</v>
       </c>
       <c r="E1581">
-        <v>30675.82583042934</v>
+        <v>25001.85947641614</v>
       </c>
       <c r="F1581">
-        <v>37630.8387279482</v>
+        <v>33197.90682890235</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -32173,13 +32173,13 @@
         <v>55</v>
       </c>
       <c r="D1582">
-        <v>34660.86427909059</v>
+        <v>28247.30794436278</v>
       </c>
       <c r="E1582">
-        <v>30957.6016631262</v>
+        <v>24114.5958795124</v>
       </c>
       <c r="F1582">
-        <v>38364.12689505498</v>
+        <v>32380.02000921316</v>
       </c>
     </row>
   </sheetData>
